--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -263,14 +263,13 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="DDDD&quot;, &quot;MMMM\ DD&quot;, &quot;YYYY"/>
+    <numFmt numFmtId="166" formatCode="DDDD, MMMM\ DD&quot;, &quot;YYYY"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -291,7 +290,6 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -299,14 +297,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -583,20 +579,22 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC51" activeCellId="0" sqref="AC51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="41.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.8877551020408"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
-    <col collapsed="false" hidden="true" max="28" min="5" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="3" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="3" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="34" min="31" style="3" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="true" max="26" min="5" style="3" width="0"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="27"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="3" width="30.4744897959184"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="3" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="3" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="34" min="31" style="3" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -263,13 +263,14 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="DDDD, MMMM\ DD&quot;, &quot;YYYY"/>
+    <numFmt numFmtId="166" formatCode="DDDD&quot;, &quot;MMMM\ DD&quot;, &quot;YYYY"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -290,6 +291,7 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -297,12 +299,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -579,22 +583,19 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC51" activeCellId="0" sqref="AC51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG22" activeCellId="0" sqref="AG:AG"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.8877551020408"/>
+    <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.5102040816327"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
-    <col collapsed="false" hidden="true" max="26" min="5" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="3" width="27"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="3" width="30.4744897959184"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="3" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="3" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="34" min="31" style="3" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="32" min="5" style="3" width="0"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="3" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="3" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,7 +1044,9 @@
       </c>
       <c r="AE2" s="0"/>
       <c r="AF2" s="0"/>
-      <c r="AG2" s="0"/>
+      <c r="AG2" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="AH2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,7 +1124,9 @@
       </c>
       <c r="AE3" s="0"/>
       <c r="AF3" s="0"/>
-      <c r="AG3" s="0"/>
+      <c r="AG3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="AH3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,7 +1210,9 @@
       </c>
       <c r="AE4" s="0"/>
       <c r="AF4" s="0"/>
-      <c r="AG4" s="0"/>
+      <c r="AG4" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,7 +1292,9 @@
       </c>
       <c r="AE5" s="0"/>
       <c r="AF5" s="0"/>
-      <c r="AG5" s="0"/>
+      <c r="AG5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="AH5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,7 +1372,9 @@
       </c>
       <c r="AE6" s="0"/>
       <c r="AF6" s="0"/>
-      <c r="AG6" s="0"/>
+      <c r="AG6" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,7 +1458,9 @@
       </c>
       <c r="AE7" s="0"/>
       <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
+      <c r="AG7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,7 +1544,9 @@
       </c>
       <c r="AE8" s="0"/>
       <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
+      <c r="AG8" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,7 +1614,9 @@
       <c r="AD9" s="13"/>
       <c r="AE9" s="0"/>
       <c r="AF9" s="0"/>
-      <c r="AG9" s="0"/>
+      <c r="AG9" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,7 +1700,9 @@
       </c>
       <c r="AE10" s="0"/>
       <c r="AF10" s="0"/>
-      <c r="AG10" s="0"/>
+      <c r="AG10" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,7 +1786,9 @@
       </c>
       <c r="AE11" s="0"/>
       <c r="AF11" s="0"/>
-      <c r="AG11" s="0"/>
+      <c r="AG11" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,7 +1872,9 @@
       </c>
       <c r="AE12" s="0"/>
       <c r="AF12" s="0"/>
-      <c r="AG12" s="0"/>
+      <c r="AG12" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,7 +1952,9 @@
       </c>
       <c r="AE13" s="0"/>
       <c r="AF13" s="0"/>
-      <c r="AG13" s="0"/>
+      <c r="AG13" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,7 +2030,9 @@
       <c r="AD14" s="13"/>
       <c r="AE14" s="0"/>
       <c r="AF14" s="0"/>
-      <c r="AG14" s="0"/>
+      <c r="AG14" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,7 +2108,9 @@
       <c r="AD15" s="13"/>
       <c r="AE15" s="0"/>
       <c r="AF15" s="0"/>
-      <c r="AG15" s="0"/>
+      <c r="AG15" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="AH15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,7 +2194,9 @@
       </c>
       <c r="AE16" s="0"/>
       <c r="AF16" s="0"/>
-      <c r="AG16" s="0"/>
+      <c r="AG16" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2247,7 +2278,9 @@
       </c>
       <c r="AE17" s="0"/>
       <c r="AF17" s="0"/>
-      <c r="AG17" s="0"/>
+      <c r="AG17" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,7 +2364,9 @@
       </c>
       <c r="AE18" s="0"/>
       <c r="AF18" s="0"/>
-      <c r="AG18" s="0"/>
+      <c r="AG18" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,7 +2446,7 @@
       </c>
       <c r="AE19" s="0"/>
       <c r="AF19" s="0"/>
-      <c r="AG19" s="0"/>
+      <c r="AG19" s="13"/>
       <c r="AH19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,7 +2528,9 @@
       </c>
       <c r="AE20" s="0"/>
       <c r="AF20" s="0"/>
-      <c r="AG20" s="0"/>
+      <c r="AG20" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2571,7 +2608,9 @@
       </c>
       <c r="AE21" s="0"/>
       <c r="AF21" s="0"/>
-      <c r="AG21" s="0"/>
+      <c r="AG21" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,7 +2694,7 @@
       </c>
       <c r="AE22" s="0"/>
       <c r="AF22" s="0"/>
-      <c r="AG22" s="0"/>
+      <c r="AG22" s="13"/>
       <c r="AH22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,7 +2774,9 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="0"/>
       <c r="AF23" s="0"/>
-      <c r="AG23" s="0"/>
+      <c r="AG23" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="AH23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,7 +2860,9 @@
       </c>
       <c r="AE24" s="0"/>
       <c r="AF24" s="0"/>
-      <c r="AG24" s="0"/>
+      <c r="AG24" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,7 +2946,9 @@
       </c>
       <c r="AE25" s="0"/>
       <c r="AF25" s="0"/>
-      <c r="AG25" s="0"/>
+      <c r="AG25" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,7 +3030,9 @@
       <c r="AD26" s="13"/>
       <c r="AE26" s="0"/>
       <c r="AF26" s="0"/>
-      <c r="AG26" s="0"/>
+      <c r="AG26" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="AH26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,7 +3116,9 @@
       </c>
       <c r="AE27" s="0"/>
       <c r="AF27" s="0"/>
-      <c r="AG27" s="0"/>
+      <c r="AG27" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3151,7 +3200,9 @@
       </c>
       <c r="AE28" s="0"/>
       <c r="AF28" s="0"/>
-      <c r="AG28" s="0"/>
+      <c r="AG28" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,7 +3286,9 @@
       </c>
       <c r="AE29" s="0"/>
       <c r="AF29" s="0"/>
-      <c r="AG29" s="0"/>
+      <c r="AG29" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,7 +3372,9 @@
       </c>
       <c r="AE30" s="0"/>
       <c r="AF30" s="0"/>
-      <c r="AG30" s="0"/>
+      <c r="AG30" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3403,7 +3458,9 @@
       </c>
       <c r="AE31" s="0"/>
       <c r="AF31" s="0"/>
-      <c r="AG31" s="0"/>
+      <c r="AG31" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,7 +3544,9 @@
       </c>
       <c r="AE32" s="0"/>
       <c r="AF32" s="0"/>
-      <c r="AG32" s="0"/>
+      <c r="AG32" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3571,7 +3630,9 @@
       </c>
       <c r="AE33" s="0"/>
       <c r="AF33" s="0"/>
-      <c r="AG33" s="0"/>
+      <c r="AG33" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,7 +3710,9 @@
       </c>
       <c r="AE34" s="0"/>
       <c r="AF34" s="0"/>
-      <c r="AG34" s="0"/>
+      <c r="AG34" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3725,7 +3788,9 @@
       </c>
       <c r="AE35" s="0"/>
       <c r="AF35" s="0"/>
-      <c r="AG35" s="0"/>
+      <c r="AG35" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="AH35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,7 +3870,9 @@
       </c>
       <c r="AE36" s="0"/>
       <c r="AF36" s="0"/>
-      <c r="AG36" s="0"/>
+      <c r="AG36" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3883,7 +3950,9 @@
       <c r="AD37" s="13"/>
       <c r="AE37" s="0"/>
       <c r="AF37" s="0"/>
-      <c r="AG37" s="0"/>
+      <c r="AG37" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="AH37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3961,7 +4030,9 @@
       </c>
       <c r="AE38" s="0"/>
       <c r="AF38" s="0"/>
-      <c r="AG38" s="0"/>
+      <c r="AG38" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4041,7 +4112,9 @@
       </c>
       <c r="AE39" s="0"/>
       <c r="AF39" s="0"/>
-      <c r="AG39" s="0"/>
+      <c r="AG39" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4121,7 +4194,9 @@
       </c>
       <c r="AE40" s="0"/>
       <c r="AF40" s="0"/>
-      <c r="AG40" s="0"/>
+      <c r="AG40" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4197,7 +4272,9 @@
       </c>
       <c r="AE41" s="0"/>
       <c r="AF41" s="0"/>
-      <c r="AG41" s="0"/>
+      <c r="AG41" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="AH41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4269,7 +4346,7 @@
       </c>
       <c r="AE42" s="0"/>
       <c r="AF42" s="0"/>
-      <c r="AG42" s="0"/>
+      <c r="AG42" s="13"/>
       <c r="AH42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4341,7 +4418,9 @@
       </c>
       <c r="AE43" s="0"/>
       <c r="AF43" s="0"/>
-      <c r="AG43" s="0"/>
+      <c r="AG43" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4411,7 +4490,9 @@
       </c>
       <c r="AE44" s="0"/>
       <c r="AF44" s="0"/>
-      <c r="AG44" s="0"/>
+      <c r="AG44" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4487,7 +4568,9 @@
       </c>
       <c r="AE45" s="0"/>
       <c r="AF45" s="0"/>
-      <c r="AG45" s="0"/>
+      <c r="AG45" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4557,7 +4640,9 @@
       <c r="AD46" s="13"/>
       <c r="AE46" s="0"/>
       <c r="AF46" s="0"/>
-      <c r="AG46" s="0"/>
+      <c r="AG46" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AH46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,6 +4706,9 @@
       <c r="AD47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AG47" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
@@ -4677,6 +4765,7 @@
       <c r="AD48" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AG48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
@@ -4745,6 +4834,9 @@
       <c r="AD49" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AG49" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
@@ -4804,6 +4896,9 @@
       <c r="AD50" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AG50" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
@@ -4840,6 +4935,9 @@
         <v>6</v>
       </c>
       <c r="AC51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG51" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -583,19 +583,19 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG22" activeCellId="0" sqref="AG:AG"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH38" activeCellId="0" sqref="AH38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.8316326530612"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="32" min="5" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="3" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="3" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="3" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="3" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,7 +1047,9 @@
       <c r="AG2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="0"/>
+      <c r="AH2" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -1127,7 +1129,9 @@
       <c r="AG3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AH3" s="0"/>
+      <c r="AH3" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -1213,7 +1217,9 @@
       <c r="AG4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH4" s="0"/>
+      <c r="AH4" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -1295,7 +1301,9 @@
       <c r="AG5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AH5" s="0"/>
+      <c r="AH5" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -1375,7 +1383,9 @@
       <c r="AG6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH6" s="0"/>
+      <c r="AH6" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -1461,7 +1471,9 @@
       <c r="AG7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH7" s="0"/>
+      <c r="AH7" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -1547,7 +1559,9 @@
       <c r="AG8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH8" s="0"/>
+      <c r="AH8" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
@@ -1617,7 +1631,9 @@
       <c r="AG9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH9" s="0"/>
+      <c r="AH9" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -1703,7 +1719,9 @@
       <c r="AG10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH10" s="0"/>
+      <c r="AH10" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -1789,7 +1807,9 @@
       <c r="AG11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH11" s="0"/>
+      <c r="AH11" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -1875,7 +1895,9 @@
       <c r="AG12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH12" s="0"/>
+      <c r="AH12" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -1955,7 +1977,9 @@
       <c r="AG13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH13" s="0"/>
+      <c r="AH13" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
@@ -2033,7 +2057,9 @@
       <c r="AG14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH14" s="0"/>
+      <c r="AH14" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
@@ -2111,7 +2137,9 @@
       <c r="AG15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AH15" s="0"/>
+      <c r="AH15" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
@@ -2197,7 +2225,9 @@
       <c r="AG16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH16" s="0"/>
+      <c r="AH16" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -2281,7 +2311,9 @@
       <c r="AG17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH17" s="0"/>
+      <c r="AH17" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -2367,7 +2399,9 @@
       <c r="AG18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH18" s="0"/>
+      <c r="AH18" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
@@ -2447,7 +2481,9 @@
       <c r="AE19" s="0"/>
       <c r="AF19" s="0"/>
       <c r="AG19" s="13"/>
-      <c r="AH19" s="0"/>
+      <c r="AH19" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
@@ -2531,7 +2567,9 @@
       <c r="AG20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH20" s="0"/>
+      <c r="AH20" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
@@ -2611,7 +2649,9 @@
       <c r="AG21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH21" s="0"/>
+      <c r="AH21" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
@@ -2695,7 +2735,7 @@
       <c r="AE22" s="0"/>
       <c r="AF22" s="0"/>
       <c r="AG22" s="13"/>
-      <c r="AH22" s="0"/>
+      <c r="AH22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
@@ -2777,7 +2817,9 @@
       <c r="AG23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AH23" s="0"/>
+      <c r="AH23" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
@@ -2863,7 +2905,9 @@
       <c r="AG24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH24" s="0"/>
+      <c r="AH24" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
@@ -2949,7 +2993,9 @@
       <c r="AG25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH25" s="0"/>
+      <c r="AH25" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
@@ -3033,7 +3079,9 @@
       <c r="AG26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AH26" s="0"/>
+      <c r="AH26" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
@@ -3119,7 +3167,9 @@
       <c r="AG27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH27" s="0"/>
+      <c r="AH27" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
@@ -3203,7 +3253,9 @@
       <c r="AG28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH28" s="0"/>
+      <c r="AH28" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
@@ -3289,7 +3341,9 @@
       <c r="AG29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH29" s="0"/>
+      <c r="AH29" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
@@ -3375,7 +3429,9 @@
       <c r="AG30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH30" s="0"/>
+      <c r="AH30" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
@@ -3461,7 +3517,9 @@
       <c r="AG31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH31" s="0"/>
+      <c r="AH31" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
@@ -3547,7 +3605,9 @@
       <c r="AG32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH32" s="0"/>
+      <c r="AH32" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
@@ -3633,7 +3693,9 @@
       <c r="AG33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH33" s="0"/>
+      <c r="AH33" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
@@ -3713,7 +3775,9 @@
       <c r="AG34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH34" s="0"/>
+      <c r="AH34" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="n">
@@ -3791,7 +3855,7 @@
       <c r="AG35" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AH35" s="0"/>
+      <c r="AH35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
@@ -3873,7 +3937,9 @@
       <c r="AG36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH36" s="0"/>
+      <c r="AH36" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
@@ -3953,7 +4019,9 @@
       <c r="AG37" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AH37" s="0"/>
+      <c r="AH37" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
@@ -4033,7 +4101,9 @@
       <c r="AG38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH38" s="0"/>
+      <c r="AH38" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
@@ -4115,7 +4185,9 @@
       <c r="AG39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH39" s="0"/>
+      <c r="AH39" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
@@ -4197,7 +4269,9 @@
       <c r="AG40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH40" s="0"/>
+      <c r="AH40" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
@@ -4275,7 +4349,9 @@
       <c r="AG41" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AH41" s="0"/>
+      <c r="AH41" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
@@ -4347,7 +4423,9 @@
       <c r="AE42" s="0"/>
       <c r="AF42" s="0"/>
       <c r="AG42" s="13"/>
-      <c r="AH42" s="0"/>
+      <c r="AH42" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
@@ -4421,7 +4499,9 @@
       <c r="AG43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH43" s="0"/>
+      <c r="AH43" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="n">
@@ -4493,7 +4573,9 @@
       <c r="AG44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH44" s="0"/>
+      <c r="AH44" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
@@ -4571,7 +4653,9 @@
       <c r="AG45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH45" s="0"/>
+      <c r="AH45" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
@@ -4643,7 +4727,9 @@
       <c r="AG46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH46" s="0"/>
+      <c r="AH46" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
@@ -4709,6 +4795,9 @@
       <c r="AG47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AH47" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
@@ -4766,6 +4855,9 @@
         <v>6</v>
       </c>
       <c r="AG48" s="13"/>
+      <c r="AH48" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
@@ -4837,6 +4929,9 @@
       <c r="AG49" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AH49" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
@@ -4899,6 +4994,9 @@
       <c r="AG50" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AH50" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
@@ -4939,6 +5037,9 @@
       </c>
       <c r="AG51" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="AH51" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -583,19 +583,18 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH38" activeCellId="0" sqref="AH38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AL48" activeCellId="0" sqref="AL48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.0255102040816"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
-    <col collapsed="false" hidden="true" max="32" min="5" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="3" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="3" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="34" min="5" style="3" width="0"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="3" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,6 +1049,9 @@
       <c r="AH2" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -1132,6 +1134,9 @@
       <c r="AH3" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -1220,6 +1225,9 @@
       <c r="AH4" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI4" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -1304,6 +1312,9 @@
       <c r="AH5" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -1386,6 +1397,9 @@
       <c r="AH6" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI6" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -1474,6 +1488,9 @@
       <c r="AH7" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -1560,6 +1577,9 @@
         <v>6</v>
       </c>
       <c r="AH8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1634,6 +1654,9 @@
       <c r="AH9" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI9" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -1722,6 +1745,9 @@
       <c r="AH10" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI10" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -1810,6 +1836,9 @@
       <c r="AH11" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI11" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -1898,6 +1927,9 @@
       <c r="AH12" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI12" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -1980,6 +2012,9 @@
       <c r="AH13" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="AI13" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
@@ -2060,6 +2095,9 @@
       <c r="AH14" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI14" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
@@ -2140,6 +2178,7 @@
       <c r="AH15" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
@@ -2228,6 +2267,9 @@
       <c r="AH16" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI16" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -2314,6 +2356,9 @@
       <c r="AH17" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI17" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -2402,6 +2447,9 @@
       <c r="AH18" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI18" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
@@ -2484,6 +2532,9 @@
       <c r="AH19" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI19" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
@@ -2570,6 +2621,9 @@
       <c r="AH20" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI20" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
@@ -2652,6 +2706,9 @@
       <c r="AH21" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI21" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
@@ -2736,6 +2793,7 @@
       <c r="AF22" s="0"/>
       <c r="AG22" s="13"/>
       <c r="AH22" s="13"/>
+      <c r="AI22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
@@ -2820,6 +2878,9 @@
       <c r="AH23" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI23" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
@@ -2908,6 +2969,9 @@
       <c r="AH24" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI24" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
@@ -2996,6 +3060,9 @@
       <c r="AH25" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI25" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
@@ -3082,6 +3149,9 @@
       <c r="AH26" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI26" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
@@ -3170,6 +3240,9 @@
       <c r="AH27" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI27" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
@@ -3256,6 +3329,9 @@
       <c r="AH28" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI28" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
@@ -3344,6 +3420,9 @@
       <c r="AH29" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI29" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
@@ -3432,6 +3511,9 @@
       <c r="AH30" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI30" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
@@ -3520,6 +3602,9 @@
       <c r="AH31" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI31" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
@@ -3608,6 +3693,9 @@
       <c r="AH32" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI32" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
@@ -3696,6 +3784,9 @@
       <c r="AH33" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI33" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
@@ -3776,6 +3867,9 @@
         <v>6</v>
       </c>
       <c r="AH34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3856,6 +3950,9 @@
         <v>6</v>
       </c>
       <c r="AH35" s="13"/>
+      <c r="AI35" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
@@ -3940,6 +4037,9 @@
       <c r="AH36" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI36" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
@@ -4022,6 +4122,9 @@
       <c r="AH37" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI37" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
@@ -4104,6 +4207,7 @@
       <c r="AH38" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
@@ -4188,6 +4292,7 @@
       <c r="AH39" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
@@ -4272,6 +4377,9 @@
       <c r="AH40" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI40" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
@@ -4352,6 +4460,9 @@
       <c r="AH41" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="AI41" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
@@ -4426,6 +4537,7 @@
       <c r="AH42" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
@@ -4500,6 +4612,9 @@
         <v>6</v>
       </c>
       <c r="AH43" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI43" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4576,6 +4691,9 @@
       <c r="AH44" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI44" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
@@ -4656,6 +4774,9 @@
       <c r="AH45" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AI45" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
@@ -4730,6 +4851,9 @@
       <c r="AH46" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="AI46" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
@@ -4798,6 +4922,9 @@
       <c r="AH47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AI47" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
@@ -4858,6 +4985,9 @@
       <c r="AH48" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AI48" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
@@ -4932,6 +5062,9 @@
       <c r="AH49" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AI49" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
@@ -4997,6 +5130,9 @@
       <c r="AH50" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AI50" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
@@ -5039,6 +5175,9 @@
         <v>6</v>
       </c>
       <c r="AH51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI51" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -583,18 +583,20 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL48" activeCellId="0" sqref="AL48"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI1" activeCellId="0" sqref="AI:AI"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.5204081632653"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="34" min="5" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="3" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="3" width="30.1479591836735"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="37.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,6 +1054,9 @@
       <c r="AI2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -1137,6 +1142,9 @@
       <c r="AI3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -1228,6 +1236,9 @@
       <c r="AI4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AK4" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -1315,6 +1326,9 @@
       <c r="AI5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -1491,6 +1505,9 @@
       <c r="AI7" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK7" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -1580,6 +1597,9 @@
         <v>6</v>
       </c>
       <c r="AI8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK8" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1657,6 +1677,9 @@
       <c r="AI9" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK9" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -1748,6 +1771,9 @@
       <c r="AI10" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK10" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -1839,6 +1865,9 @@
       <c r="AI11" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK11" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -1930,6 +1959,9 @@
       <c r="AI12" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -2015,6 +2047,9 @@
       <c r="AI13" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AK13" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
@@ -2098,6 +2133,9 @@
       <c r="AI14" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
@@ -2178,7 +2216,12 @@
       <c r="AH15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AI15" s="0"/>
+      <c r="AI15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
@@ -2270,6 +2313,9 @@
       <c r="AI16" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK16" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -2359,6 +2405,9 @@
       <c r="AI17" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK17" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -2450,6 +2499,9 @@
       <c r="AI18" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK18" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
@@ -2624,6 +2676,9 @@
       <c r="AI20" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK20" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
@@ -2793,7 +2848,7 @@
       <c r="AF22" s="0"/>
       <c r="AG22" s="13"/>
       <c r="AH22" s="13"/>
-      <c r="AI22" s="0"/>
+      <c r="AI22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
@@ -2972,6 +3027,9 @@
       <c r="AI24" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
@@ -3063,6 +3121,9 @@
       <c r="AI25" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
@@ -3243,6 +3304,9 @@
       <c r="AI27" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK27" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
@@ -3332,6 +3396,9 @@
       <c r="AI28" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK28" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
@@ -3423,6 +3490,9 @@
       <c r="AI29" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
@@ -3514,6 +3584,9 @@
       <c r="AI30" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
@@ -3605,6 +3678,9 @@
       <c r="AI31" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK31" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
@@ -3696,6 +3772,9 @@
       <c r="AI32" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK32" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
@@ -3787,6 +3866,9 @@
       <c r="AI33" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK33" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
@@ -3870,6 +3952,9 @@
         <v>6</v>
       </c>
       <c r="AI34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK34" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3953,6 +4038,9 @@
       <c r="AI35" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK35" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
@@ -4040,6 +4128,9 @@
       <c r="AI36" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK36" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
@@ -4125,6 +4216,9 @@
       <c r="AI37" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
@@ -4207,7 +4301,10 @@
       <c r="AH38" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AI38" s="0"/>
+      <c r="AI38" s="13"/>
+      <c r="AK38" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
@@ -4292,7 +4389,10 @@
       <c r="AH39" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AI39" s="0"/>
+      <c r="AI39" s="13"/>
+      <c r="AK39" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
@@ -4380,6 +4480,9 @@
       <c r="AI40" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
@@ -4463,6 +4566,9 @@
       <c r="AI41" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK41" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
@@ -4537,7 +4643,7 @@
       <c r="AH42" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AI42" s="0"/>
+      <c r="AI42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
@@ -4615,6 +4721,9 @@
         <v>6</v>
       </c>
       <c r="AI43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK43" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4694,6 +4803,9 @@
       <c r="AI44" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
@@ -4777,6 +4889,9 @@
       <c r="AI45" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
@@ -4854,6 +4969,9 @@
       <c r="AI46" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
@@ -4925,6 +5043,9 @@
       <c r="AI47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
@@ -4988,6 +5109,9 @@
       <c r="AI48" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK48" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
@@ -5065,6 +5189,9 @@
       <c r="AI49" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK49" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
@@ -5133,6 +5260,9 @@
       <c r="AI50" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AK50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
@@ -5178,6 +5308,9 @@
         <v>7</v>
       </c>
       <c r="AI51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK51" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -583,20 +583,19 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI1" activeCellId="0" sqref="AI:AI"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AN38" activeCellId="0" sqref="AN38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.2857142857143"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
-    <col collapsed="false" hidden="true" max="34" min="5" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="3" width="30.1479591836735"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="37.9336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,6 +1056,9 @@
       <c r="AK2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AN2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -1145,6 +1147,9 @@
       <c r="AK3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -1239,6 +1244,9 @@
       <c r="AK4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AN4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -1329,6 +1337,9 @@
       <c r="AK5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -1414,6 +1425,9 @@
       <c r="AI6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AN6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -1508,6 +1522,9 @@
       <c r="AK7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN7" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -1600,6 +1617,9 @@
         <v>6</v>
       </c>
       <c r="AK8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN8" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1680,6 +1700,9 @@
       <c r="AK9" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AN9" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -1774,6 +1797,9 @@
       <c r="AK10" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AN10" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -1868,6 +1894,9 @@
       <c r="AK11" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AN11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -1962,6 +1991,9 @@
       <c r="AK12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -2050,6 +2082,9 @@
       <c r="AK13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN13" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
@@ -2136,6 +2171,9 @@
       <c r="AK14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
@@ -2222,6 +2260,9 @@
       <c r="AK15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN15" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
@@ -2316,6 +2357,9 @@
       <c r="AK16" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AN16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -2408,6 +2452,9 @@
       <c r="AK17" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN17" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -2502,6 +2549,9 @@
       <c r="AK18" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN18" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
@@ -2587,6 +2637,9 @@
       <c r="AI19" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AN19" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
@@ -2679,6 +2732,9 @@
       <c r="AK20" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN20" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
@@ -2762,6 +2818,9 @@
         <v>6</v>
       </c>
       <c r="AI21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN21" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2936,6 +2995,9 @@
       <c r="AI23" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AN23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
@@ -3030,6 +3092,9 @@
       <c r="AK24" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
@@ -3124,6 +3189,9 @@
       <c r="AK25" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
@@ -3213,6 +3281,9 @@
       <c r="AI26" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AN26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
@@ -3307,6 +3378,9 @@
       <c r="AK27" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN27" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
@@ -3399,6 +3473,9 @@
       <c r="AK28" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AN28" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
@@ -3493,6 +3570,9 @@
       <c r="AK29" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
@@ -3587,6 +3667,9 @@
       <c r="AK30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
@@ -3681,6 +3764,9 @@
       <c r="AK31" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN31" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
@@ -3775,6 +3861,9 @@
       <c r="AK32" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN32" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
@@ -3869,6 +3958,9 @@
       <c r="AK33" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN33" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
@@ -3955,6 +4047,9 @@
         <v>6</v>
       </c>
       <c r="AK34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN34" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4041,6 +4136,9 @@
       <c r="AK35" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN35" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
@@ -4131,6 +4229,9 @@
       <c r="AK36" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN36" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
@@ -4219,6 +4320,9 @@
       <c r="AK37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN37" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
@@ -4305,6 +4409,9 @@
       <c r="AK38" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
@@ -4393,6 +4500,9 @@
       <c r="AK39" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN39" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
@@ -4483,6 +4593,9 @@
       <c r="AK40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN40" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
@@ -4569,6 +4682,9 @@
       <c r="AK41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN41" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
@@ -4644,6 +4760,9 @@
         <v>6</v>
       </c>
       <c r="AI42" s="13"/>
+      <c r="AN42" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
@@ -4724,6 +4843,9 @@
         <v>6</v>
       </c>
       <c r="AK43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN43" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4806,6 +4928,9 @@
       <c r="AK44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
@@ -4892,6 +5017,9 @@
       <c r="AK45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
@@ -4972,6 +5100,9 @@
       <c r="AK46" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AN46" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
@@ -5046,6 +5177,9 @@
       <c r="AK47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
@@ -5112,6 +5246,9 @@
       <c r="AK48" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN48" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
@@ -5192,6 +5329,9 @@
       <c r="AK49" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN49" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
@@ -5263,6 +5403,9 @@
       <c r="AK50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AN50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
@@ -5312,6 +5455,9 @@
       </c>
       <c r="AK51" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="AN51" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -583,19 +583,20 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AN38" activeCellId="0" sqref="AN38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO31" activeCellId="0" sqref="AO:AO"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.8877551020408"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="51.2959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="3" width="26.5765306122449"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="3" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,8 +1057,11 @@
       <c r="AK2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="0" t="s">
-        <v>7</v>
+      <c r="AN2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,7 +1151,10 @@
       <c r="AK3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN3" s="0" t="s">
+      <c r="AN3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1244,8 +1251,11 @@
       <c r="AK4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AN4" s="0" t="s">
-        <v>6</v>
+      <c r="AN4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,7 +1347,10 @@
       <c r="AK5" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN5" s="0" t="s">
+      <c r="AN5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1425,7 +1438,10 @@
       <c r="AI6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AN6" s="0" t="s">
+      <c r="AN6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1522,7 +1538,10 @@
       <c r="AK7" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN7" s="0" t="s">
+      <c r="AN7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1619,7 +1638,10 @@
       <c r="AK8" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN8" s="0" t="s">
+      <c r="AN8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1700,8 +1722,11 @@
       <c r="AK9" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AN9" s="0" t="s">
-        <v>7</v>
+      <c r="AN9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,7 +1822,10 @@
       <c r="AK10" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AN10" s="0" t="s">
+      <c r="AN10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1894,8 +1922,11 @@
       <c r="AK11" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AN11" s="0" t="s">
-        <v>6</v>
+      <c r="AN11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,7 +2022,10 @@
       <c r="AK12" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN12" s="0" t="s">
+      <c r="AN12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2082,7 +2116,10 @@
       <c r="AK13" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN13" s="0" t="s">
+      <c r="AN13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2171,7 +2208,10 @@
       <c r="AK14" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN14" s="0" t="s">
+      <c r="AN14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2260,8 +2300,11 @@
       <c r="AK15" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN15" s="0" t="s">
-        <v>7</v>
+      <c r="AN15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO15" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,7 +2400,10 @@
       <c r="AK16" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AN16" s="0" t="s">
+      <c r="AN16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2452,8 +2498,11 @@
       <c r="AK17" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN17" s="0" t="s">
-        <v>6</v>
+      <c r="AN17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO17" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,7 +2598,10 @@
       <c r="AK18" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN18" s="0" t="s">
+      <c r="AN18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2637,8 +2689,11 @@
       <c r="AI19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AN19" s="0" t="s">
-        <v>6</v>
+      <c r="AN19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO19" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,8 +2787,11 @@
       <c r="AK20" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN20" s="0" t="s">
-        <v>7</v>
+      <c r="AN20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO20" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2820,7 +2878,10 @@
       <c r="AI21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AN21" s="0" t="s">
+      <c r="AN21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2995,7 +3056,10 @@
       <c r="AI23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AN23" s="0" t="s">
+      <c r="AN23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO23" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3092,7 +3156,10 @@
       <c r="AK24" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN24" s="0" t="s">
+      <c r="AN24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO24" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3189,7 +3256,10 @@
       <c r="AK25" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN25" s="0" t="s">
+      <c r="AN25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO25" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3281,7 +3351,10 @@
       <c r="AI26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AN26" s="0" t="s">
+      <c r="AN26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO26" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3378,7 +3451,10 @@
       <c r="AK27" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN27" s="0" t="s">
+      <c r="AN27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO27" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3473,7 +3549,10 @@
       <c r="AK28" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AN28" s="0" t="s">
+      <c r="AN28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO28" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3570,7 +3649,10 @@
       <c r="AK29" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN29" s="0" t="s">
+      <c r="AN29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO29" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3667,7 +3749,10 @@
       <c r="AK30" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN30" s="0" t="s">
+      <c r="AN30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO30" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3764,7 +3849,10 @@
       <c r="AK31" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN31" s="0" t="s">
+      <c r="AN31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3861,8 +3949,11 @@
       <c r="AK32" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN32" s="0" t="s">
-        <v>7</v>
+      <c r="AN32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO32" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,7 +4049,10 @@
       <c r="AK33" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN33" s="0" t="s">
+      <c r="AN33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO33" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4049,7 +4143,10 @@
       <c r="AK34" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN34" s="0" t="s">
+      <c r="AN34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4136,8 +4233,11 @@
       <c r="AK35" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN35" s="0" t="s">
-        <v>6</v>
+      <c r="AN35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO35" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,8 +4329,11 @@
       <c r="AK36" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN36" s="0" t="s">
-        <v>7</v>
+      <c r="AN36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO36" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,8 +4423,11 @@
       <c r="AK37" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN37" s="0" t="s">
-        <v>7</v>
+      <c r="AN37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO37" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,8 +4515,11 @@
       <c r="AK38" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN38" s="0" t="s">
-        <v>7</v>
+      <c r="AN38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO38" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,7 +4609,10 @@
       <c r="AK39" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN39" s="0" t="s">
+      <c r="AN39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4593,8 +4705,11 @@
       <c r="AK40" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN40" s="0" t="s">
-        <v>7</v>
+      <c r="AN40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO40" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4682,8 +4797,11 @@
       <c r="AK41" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN41" s="0" t="s">
-        <v>6</v>
+      <c r="AN41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO41" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4760,8 +4878,11 @@
         <v>6</v>
       </c>
       <c r="AI42" s="13"/>
-      <c r="AN42" s="0" t="s">
-        <v>7</v>
+      <c r="AN42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO42" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4845,7 +4966,10 @@
       <c r="AK43" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN43" s="0" t="s">
+      <c r="AN43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO43" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4928,7 +5052,10 @@
       <c r="AK44" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN44" s="0" t="s">
+      <c r="AN44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO44" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5017,7 +5144,10 @@
       <c r="AK45" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN45" s="0" t="s">
+      <c r="AN45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO45" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5100,7 +5230,10 @@
       <c r="AK46" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AN46" s="0" t="s">
+      <c r="AN46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO46" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5177,7 +5310,10 @@
       <c r="AK47" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN47" s="0" t="s">
+      <c r="AN47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO47" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5246,7 +5382,10 @@
       <c r="AK48" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN48" s="0" t="s">
+      <c r="AN48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO48" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5329,7 +5468,10 @@
       <c r="AK49" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN49" s="0" t="s">
+      <c r="AN49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO49" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5403,7 +5545,10 @@
       <c r="AK50" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AN50" s="0" t="s">
+      <c r="AN50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO50" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5456,7 +5601,10 @@
       <c r="AK51" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AN51" s="0" t="s">
+      <c r="AN51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO51" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -583,20 +583,20 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO31" activeCellId="0" sqref="AO:AO"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP13" activeCellId="0" sqref="AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.8877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.5102040816327"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="3" width="26.5765306122449"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="3" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="3" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="3" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="3" width="42.234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,6 +1063,9 @@
       <c r="AO2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -1257,6 +1260,9 @@
       <c r="AO4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AP4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -1544,6 +1550,9 @@
       <c r="AO7" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -1642,6 +1651,9 @@
         <v>6</v>
       </c>
       <c r="AO8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1828,6 +1840,9 @@
       <c r="AO10" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AP10" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -1928,6 +1943,9 @@
       <c r="AO11" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AP11" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -2028,6 +2046,9 @@
       <c r="AO12" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP12" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -2214,6 +2235,9 @@
       <c r="AO14" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP14" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
@@ -2306,6 +2330,9 @@
       <c r="AO15" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP15" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
@@ -2406,6 +2433,9 @@
       <c r="AO16" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP16" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -2504,6 +2534,9 @@
       <c r="AO17" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AP17" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -2604,6 +2637,9 @@
       <c r="AO18" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP18" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
@@ -2791,6 +2827,9 @@
         <v>7</v>
       </c>
       <c r="AO20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2969,6 +3008,8 @@
       <c r="AG22" s="13"/>
       <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
+      <c r="AN22" s="0"/>
+      <c r="AO22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
@@ -3062,6 +3103,9 @@
       <c r="AO23" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP23" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
@@ -3162,6 +3206,9 @@
       <c r="AO24" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP24" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
@@ -3262,6 +3309,9 @@
       <c r="AO25" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP25" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
@@ -3357,6 +3407,9 @@
       <c r="AO26" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP26" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
@@ -3457,6 +3510,9 @@
       <c r="AO27" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP27" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
@@ -3555,6 +3611,9 @@
       <c r="AO28" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP28" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
@@ -3655,6 +3714,9 @@
       <c r="AO29" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP29" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
@@ -3755,6 +3817,9 @@
       <c r="AO30" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP30" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
@@ -3855,6 +3920,9 @@
       <c r="AO31" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP31" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
@@ -3955,6 +4023,9 @@
       <c r="AO32" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP32" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
@@ -4055,6 +4126,9 @@
       <c r="AO33" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP33" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
@@ -4147,6 +4221,9 @@
         <v>6</v>
       </c>
       <c r="AO34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4239,6 +4316,9 @@
       <c r="AO35" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AP35" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
@@ -4335,6 +4415,9 @@
       <c r="AO36" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP36" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
@@ -4429,6 +4512,9 @@
       <c r="AO37" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP37" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
@@ -4521,6 +4607,9 @@
       <c r="AO38" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP38" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
@@ -4615,6 +4704,9 @@
       <c r="AO39" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP39" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
@@ -4803,6 +4895,9 @@
       <c r="AO41" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AP41" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
@@ -4884,6 +4979,9 @@
       <c r="AO42" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP42" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
@@ -4970,6 +5068,9 @@
         <v>6</v>
       </c>
       <c r="AO43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP43" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5058,6 +5159,9 @@
       <c r="AO44" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP44" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
@@ -5150,6 +5254,9 @@
       <c r="AO45" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP45" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
@@ -5316,6 +5423,9 @@
       <c r="AO47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP47" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
@@ -5388,6 +5498,9 @@
       <c r="AO48" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP48" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
@@ -5549,6 +5662,9 @@
         <v>6</v>
       </c>
       <c r="AO50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP50" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -447,7 +447,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -504,16 +504,32 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -584,19 +600,20 @@
   <dimension ref="A1:DQ51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP13" activeCellId="0" sqref="AP13"/>
+      <selection pane="topLeft" activeCell="AQ1" activeCellId="0" sqref="AQ:AQ"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.8316326530612"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="3" width="26.1887755102041"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="3" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="3" width="42.234693877551"/>
+    <col collapsed="false" hidden="true" max="41" min="40" style="3" width="0"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="3" width="30.4744897959184"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="3" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="44" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,6 +1083,9 @@
       <c r="AP2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -1160,6 +1180,12 @@
       <c r="AO3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -1263,6 +1289,9 @@
       <c r="AP4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -1359,6 +1388,12 @@
       <c r="AO5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -1450,6 +1485,9 @@
       <c r="AO6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ6" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -1553,6 +1591,9 @@
       <c r="AP7" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -1654,6 +1695,9 @@
         <v>6</v>
       </c>
       <c r="AP8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1740,6 +1784,9 @@
       <c r="AO9" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ9" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -1843,6 +1890,9 @@
       <c r="AP10" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AQ10" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -1946,6 +1996,9 @@
       <c r="AP11" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ11" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -2049,6 +2102,9 @@
       <c r="AP12" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ12" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -2143,6 +2199,9 @@
       <c r="AO13" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ13" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
@@ -2238,6 +2297,9 @@
       <c r="AP14" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ14" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
@@ -2333,6 +2395,9 @@
       <c r="AP15" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ15" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
@@ -2436,6 +2501,9 @@
       <c r="AP16" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ16" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -2537,6 +2605,9 @@
       <c r="AP17" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ17" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -2640,6 +2711,9 @@
       <c r="AP18" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ18" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
@@ -2832,6 +2906,9 @@
       <c r="AP20" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ20" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
@@ -2923,105 +3000,100 @@
       <c r="AO21" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ21" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+    <row r="22" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X22" s="0"/>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE22" s="0"/>
-      <c r="AF22" s="0"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AN22" s="0"/>
-      <c r="AO22" s="0"/>
+      <c r="E22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -3106,18 +3178,21 @@
       <c r="AP23" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ23" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -3207,6 +3282,9 @@
         <v>6</v>
       </c>
       <c r="AP24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ24" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3214,13 +3292,13 @@
       <c r="A25" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3311,16 +3389,19 @@
       </c>
       <c r="AP25" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="AQ25" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="22" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="12" t="s">
@@ -3410,18 +3491,21 @@
       <c r="AP26" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ26" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="26" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -3511,6 +3595,9 @@
         <v>6</v>
       </c>
       <c r="AP27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ27" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3518,13 +3605,13 @@
       <c r="A28" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -3613,19 +3700,22 @@
       </c>
       <c r="AP28" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="AQ28" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -3715,6 +3805,9 @@
         <v>6</v>
       </c>
       <c r="AP29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ29" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3722,13 +3815,13 @@
       <c r="A30" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -3818,6 +3911,9 @@
         <v>6</v>
       </c>
       <c r="AP30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ30" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3825,13 +3921,13 @@
       <c r="A31" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="26" t="s">
         <v>52</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -3921,6 +4017,9 @@
         <v>6</v>
       </c>
       <c r="AP31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3928,13 +4027,13 @@
       <c r="A32" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -4024,6 +4123,9 @@
         <v>6</v>
       </c>
       <c r="AP32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ32" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4031,13 +4133,13 @@
       <c r="A33" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="29" t="s">
         <v>52</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -4127,6 +4229,9 @@
         <v>6</v>
       </c>
       <c r="AP33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ33" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4134,13 +4239,13 @@
       <c r="A34" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -4226,15 +4331,18 @@
       <c r="AP34" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ34" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -4319,15 +4427,18 @@
       <c r="AP35" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ35" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="12" t="s">
@@ -4417,17 +4528,20 @@
       </c>
       <c r="AP36" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="AQ36" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="3" t="s">
         <v>6</v>
       </c>
@@ -4515,16 +4629,19 @@
       <c r="AP37" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ37" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="3" t="s">
         <v>6</v>
       </c>
@@ -4609,13 +4726,16 @@
       </c>
       <c r="AP38" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="AQ38" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="0"/>
@@ -4705,6 +4825,9 @@
         <v>6</v>
       </c>
       <c r="AP39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4712,7 +4835,7 @@
       <c r="A40" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="24" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="0"/>
@@ -4801,6 +4924,9 @@
         <v>7</v>
       </c>
       <c r="AO40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ40" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4808,7 +4934,7 @@
       <c r="A41" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="24" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="0"/>
@@ -4903,7 +5029,7 @@
       <c r="A42" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="24" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="0"/>
@@ -4982,6 +5108,9 @@
       <c r="AP42" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ42" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
@@ -5071,6 +5200,9 @@
         <v>6</v>
       </c>
       <c r="AP43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ43" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5162,6 +5294,9 @@
       <c r="AP44" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ44" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
@@ -5257,6 +5392,9 @@
       <c r="AP45" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ45" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
@@ -5343,6 +5481,9 @@
       <c r="AO46" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ46" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
@@ -5426,6 +5567,9 @@
       <c r="AP47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ47" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
@@ -5501,6 +5645,9 @@
       <c r="AP48" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ48" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
@@ -5587,6 +5734,9 @@
       <c r="AO49" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AQ49" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
@@ -5667,6 +5817,9 @@
       <c r="AP50" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AQ50" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
@@ -5721,6 +5874,9 @@
         <v>6</v>
       </c>
       <c r="AO51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ51" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -599,21 +599,21 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ1" activeCellId="0" sqref="AQ:AQ"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AQ23" activeCellId="0" sqref="AQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.4285714285714"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="41" min="40" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="3" width="30.4744897959184"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="3" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="44" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="3" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="3" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="44" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,6 +1485,7 @@
       <c r="AO6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP6" s="0"/>
       <c r="AQ6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1784,6 +1785,7 @@
       <c r="AO9" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP9" s="0"/>
       <c r="AQ9" s="3" t="s">
         <v>7</v>
       </c>
@@ -2199,6 +2201,7 @@
       <c r="AO13" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP13" s="0"/>
       <c r="AQ13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2805,6 +2808,8 @@
       <c r="AO19" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AP19" s="0"/>
+      <c r="AQ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
@@ -3000,6 +3005,7 @@
       <c r="AO21" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP21" s="0"/>
       <c r="AQ21" s="3" t="s">
         <v>6</v>
       </c>
@@ -3179,7 +3185,7 @@
         <v>6</v>
       </c>
       <c r="AQ23" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4926,6 +4932,7 @@
       <c r="AO40" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP40" s="0"/>
       <c r="AQ40" s="3" t="s">
         <v>6</v>
       </c>
@@ -5024,6 +5031,7 @@
       <c r="AP41" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AQ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
@@ -5481,6 +5489,7 @@
       <c r="AO46" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AP46" s="0"/>
       <c r="AQ46" s="3" t="s">
         <v>6</v>
       </c>
@@ -5734,6 +5743,7 @@
       <c r="AO49" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AP49" s="0"/>
       <c r="AQ49" s="3" t="s">
         <v>7</v>
       </c>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -447,7 +447,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -508,15 +508,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -528,8 +528,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -580,6 +588,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -599,21 +615,19 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ23" activeCellId="0" sqref="AQ23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AR51" activeCellId="0" sqref="AR51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.0255102040816"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
-    <col collapsed="false" hidden="true" max="41" min="40" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="3" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="3" width="36.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="44" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="43" min="40" style="3" width="0"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="33.0663265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,6 +1100,9 @@
       <c r="AQ2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -1186,6 +1203,9 @@
       <c r="AQ3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR3" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -1292,6 +1312,9 @@
       <c r="AQ4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -1394,6 +1417,9 @@
       <c r="AQ5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -1489,6 +1515,9 @@
       <c r="AQ6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -1595,6 +1624,9 @@
       <c r="AQ7" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR7" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -1699,6 +1731,9 @@
         <v>6</v>
       </c>
       <c r="AQ8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR8" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1789,6 +1824,9 @@
       <c r="AQ9" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AR9" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -1895,6 +1933,9 @@
       <c r="AQ10" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AR10" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -2001,6 +2042,9 @@
       <c r="AQ11" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -2107,6 +2151,9 @@
       <c r="AQ12" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -2205,6 +2252,9 @@
       <c r="AQ13" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR13" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
@@ -2507,6 +2557,9 @@
       <c r="AQ16" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -2611,6 +2664,9 @@
       <c r="AQ17" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR17" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -2717,99 +2773,90 @@
       <c r="AQ18" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR18" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+    <row r="19" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="16" t="n">
         <v>4230118055896</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0"/>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE19" s="0"/>
-      <c r="AF19" s="0"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP19" s="0"/>
-      <c r="AQ19" s="0"/>
+      <c r="E19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO19" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
@@ -2914,6 +2961,9 @@
       <c r="AQ20" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR20" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
@@ -3009,18 +3059,21 @@
       <c r="AQ21" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR21" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="18" t="s">
@@ -3086,20 +3139,20 @@
       <c r="AG22" s="18"/>
       <c r="AH22" s="18"/>
       <c r="AI22" s="18"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -3187,18 +3240,21 @@
       <c r="AQ23" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -3291,6 +3347,9 @@
         <v>6</v>
       </c>
       <c r="AQ24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR24" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3298,13 +3357,13 @@
       <c r="A25" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3397,6 +3456,9 @@
         <v>6</v>
       </c>
       <c r="AQ25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR25" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3404,10 +3466,10 @@
       <c r="A26" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="12" t="s">
@@ -3500,18 +3562,21 @@
       <c r="AQ26" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AR26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="28" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -3605,19 +3670,22 @@
       </c>
       <c r="AQ27" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="AR27" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -3708,6 +3776,9 @@
         <v>6</v>
       </c>
       <c r="AQ28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR28" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3715,13 +3786,13 @@
       <c r="A29" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -3814,6 +3885,9 @@
         <v>6</v>
       </c>
       <c r="AQ29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR29" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3821,13 +3895,13 @@
       <c r="A30" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="28" t="s">
         <v>49</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -3920,6 +3994,9 @@
         <v>6</v>
       </c>
       <c r="AQ30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR30" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3927,13 +4004,13 @@
       <c r="A31" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="28" t="s">
         <v>52</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -4027,19 +4104,22 @@
       </c>
       <c r="AQ31" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="AR31" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -4133,19 +4213,22 @@
       </c>
       <c r="AQ32" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="AR32" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="31" t="s">
         <v>52</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -4239,19 +4322,22 @@
       </c>
       <c r="AQ33" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="AR33" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="25" t="s">
         <v>52</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -4345,10 +4431,10 @@
       <c r="A35" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -4436,15 +4522,18 @@
       <c r="AQ35" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR35" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="24" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="12" t="s">
@@ -4537,17 +4626,20 @@
       </c>
       <c r="AQ36" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="AR36" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
       <c r="E37" s="3" t="s">
         <v>6</v>
       </c>
@@ -4638,16 +4730,19 @@
       <c r="AQ37" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="3" t="s">
         <v>6</v>
       </c>
@@ -4734,6 +4829,9 @@
         <v>7</v>
       </c>
       <c r="AQ38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR38" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4741,7 +4839,7 @@
       <c r="A39" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="26" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="0"/>
@@ -4834,6 +4932,9 @@
         <v>6</v>
       </c>
       <c r="AQ39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR39" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4841,7 +4942,7 @@
       <c r="A40" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="26" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="0"/>
@@ -4941,7 +5042,7 @@
       <c r="A41" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="26" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="0"/>
@@ -5032,12 +5133,15 @@
         <v>7</v>
       </c>
       <c r="AQ41" s="0"/>
+      <c r="AR41" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="26" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="0"/>
@@ -5119,6 +5223,9 @@
       <c r="AQ42" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR42" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
@@ -5212,6 +5319,9 @@
       </c>
       <c r="AQ43" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="AR43" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5493,6 +5603,9 @@
       <c r="AQ46" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
@@ -5579,6 +5692,9 @@
       <c r="AQ47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AR47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
@@ -5658,93 +5774,102 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
+    <row r="49" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA49" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK49" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP49" s="0"/>
-      <c r="AQ49" s="3" t="s">
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="T49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="U49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="V49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="W49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA49" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK49" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN49" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO49" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ49" s="18" t="s">
         <v>7</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -447,7 +447,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -526,6 +526,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -615,19 +619,21 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AR51" activeCellId="0" sqref="AR51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="27.8061224489796"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="43" min="40" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="33.0663265306122"/>
+    <col collapsed="false" hidden="true" max="46" min="44" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="3" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1103,6 +1109,9 @@
       <c r="AR2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AU2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -1206,6 +1215,9 @@
       <c r="AR3" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AU3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -1315,6 +1327,9 @@
       <c r="AR4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AU4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -1420,6 +1435,9 @@
       <c r="AR5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AU5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -1518,6 +1536,9 @@
       <c r="AR6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AU6" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -1627,6 +1648,9 @@
       <c r="AR7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AU7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -1734,6 +1758,9 @@
         <v>6</v>
       </c>
       <c r="AR8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1827,6 +1854,9 @@
       <c r="AR9" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AU9" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -1936,6 +1966,9 @@
       <c r="AR10" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AU10" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -2045,6 +2078,9 @@
       <c r="AR11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AU11" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -2154,6 +2190,9 @@
       <c r="AR12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AU12" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -2255,6 +2294,9 @@
       <c r="AR13" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AU13" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
@@ -2353,6 +2395,9 @@
       <c r="AQ14" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AU14" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
@@ -2451,6 +2496,9 @@
       <c r="AQ15" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AU15" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
@@ -2560,6 +2608,9 @@
       <c r="AR16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AU16" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -2667,6 +2718,9 @@
       <c r="AR17" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AU17" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -2776,6 +2830,9 @@
       <c r="AR18" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AU18" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="n">
@@ -2857,6 +2914,7 @@
       <c r="AO19" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="AU19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
@@ -2964,6 +3022,9 @@
       <c r="AR20" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AU20" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
@@ -3062,18 +3123,21 @@
       <c r="AR21" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AU21" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="18" t="s">
@@ -3141,18 +3205,19 @@
       <c r="AI22" s="18"/>
       <c r="AP22" s="18"/>
       <c r="AQ22" s="18"/>
+      <c r="AU22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -3243,18 +3308,21 @@
       <c r="AR23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AU23" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -3350,6 +3418,9 @@
         <v>6</v>
       </c>
       <c r="AR24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU24" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3357,13 +3428,13 @@
       <c r="A25" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3460,16 +3531,19 @@
       </c>
       <c r="AR25" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="AU25" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="12" t="s">
@@ -3565,18 +3639,21 @@
       <c r="AR26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AU26" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="29" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -3673,19 +3750,22 @@
       </c>
       <c r="AR27" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="AU27" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -3780,19 +3860,22 @@
       </c>
       <c r="AR28" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="AU28" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -3888,6 +3971,9 @@
         <v>6</v>
       </c>
       <c r="AR29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU29" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3895,13 +3981,13 @@
       <c r="A30" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -3997,6 +4083,9 @@
         <v>6</v>
       </c>
       <c r="AR30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU30" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4004,13 +4093,13 @@
       <c r="A31" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="29" t="s">
         <v>52</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -4107,19 +4196,22 @@
       </c>
       <c r="AR31" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="AU31" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -4216,19 +4308,22 @@
       </c>
       <c r="AR32" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="AU32" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="32" t="s">
         <v>52</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -4325,19 +4420,22 @@
       </c>
       <c r="AR33" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="AU33" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="26" t="s">
         <v>52</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -4426,15 +4524,18 @@
       <c r="AQ34" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AU34" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -4525,15 +4626,18 @@
       <c r="AR35" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AU35" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="12" t="s">
@@ -4628,6 +4732,9 @@
         <v>7</v>
       </c>
       <c r="AR36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU36" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4635,11 +4742,11 @@
       <c r="A37" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="3" t="s">
         <v>6</v>
       </c>
@@ -4733,16 +4840,19 @@
       <c r="AR37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AU37" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="3" t="s">
         <v>6</v>
       </c>
@@ -4832,6 +4942,9 @@
         <v>6</v>
       </c>
       <c r="AR38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU38" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4839,7 +4952,7 @@
       <c r="A39" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="27" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="0"/>
@@ -4935,6 +5048,9 @@
         <v>6</v>
       </c>
       <c r="AR39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4942,7 +5058,7 @@
       <c r="A40" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="0"/>
@@ -5035,6 +5151,9 @@
       </c>
       <c r="AP40" s="0"/>
       <c r="AQ40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU40" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5042,7 +5161,7 @@
       <c r="A41" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="0"/>
@@ -5135,13 +5254,16 @@
       <c r="AQ41" s="0"/>
       <c r="AR41" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="AU41" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="27" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="0"/>
@@ -5226,6 +5348,9 @@
       <c r="AR42" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AU42" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
@@ -5322,6 +5447,9 @@
       </c>
       <c r="AR43" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="AU43" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5415,6 +5543,9 @@
       <c r="AQ44" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AU44" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
@@ -5513,6 +5644,9 @@
       <c r="AQ45" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AU45" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
@@ -5606,6 +5740,9 @@
       <c r="AR46" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AU46" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
@@ -5614,6 +5751,8 @@
       <c r="B47" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
       <c r="E47" s="0"/>
       <c r="F47" s="0"/>
       <c r="G47" s="3" t="s">
@@ -5623,6 +5762,8 @@
       <c r="I47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
       <c r="L47" s="3" t="s">
         <v>6</v>
       </c>
@@ -5638,6 +5779,8 @@
       <c r="P47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
       <c r="S47" s="3" t="s">
         <v>6</v>
       </c>
@@ -5653,6 +5796,8 @@
       <c r="W47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="X47" s="0"/>
+      <c r="Y47" s="0"/>
       <c r="Z47" s="3" t="s">
         <v>6</v>
       </c>
@@ -5668,6 +5813,8 @@
       <c r="AD47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AE47" s="0"/>
+      <c r="AF47" s="0"/>
       <c r="AG47" s="3" t="s">
         <v>6</v>
       </c>
@@ -5693,6 +5840,9 @@
         <v>6</v>
       </c>
       <c r="AR47" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU47" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5703,6 +5853,8 @@
       <c r="B48" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
       <c r="E48" s="0"/>
       <c r="F48" s="0"/>
       <c r="G48" s="3" t="s">
@@ -5712,6 +5864,8 @@
         <v>6</v>
       </c>
       <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+      <c r="K48" s="0"/>
       <c r="L48" s="3" t="s">
         <v>6</v>
       </c>
@@ -5721,6 +5875,8 @@
         <v>6</v>
       </c>
       <c r="P48" s="0"/>
+      <c r="Q48" s="0"/>
+      <c r="R48" s="0"/>
       <c r="S48" s="3" t="s">
         <v>6</v>
       </c>
@@ -5736,6 +5892,8 @@
       <c r="W48" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="X48" s="0"/>
+      <c r="Y48" s="0"/>
       <c r="Z48" s="3" t="s">
         <v>6</v>
       </c>
@@ -5751,6 +5909,8 @@
       <c r="AD48" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AE48" s="0"/>
+      <c r="AF48" s="0"/>
       <c r="AG48" s="13"/>
       <c r="AH48" s="3" t="s">
         <v>6</v>
@@ -5771,6 +5931,9 @@
         <v>6</v>
       </c>
       <c r="AQ48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU48" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5778,11 +5941,11 @@
       <c r="A49" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="18" t="s">
         <v>6</v>
       </c>
@@ -5872,6 +6035,7 @@
       <c r="AQ49" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="AU49" s="20"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
@@ -5955,6 +6119,9 @@
       <c r="AQ50" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AU50" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
@@ -6012,6 +6179,9 @@
         <v>6</v>
       </c>
       <c r="AQ51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU51" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -447,7 +447,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -556,6 +556,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -619,21 +623,22 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AW52" activeCellId="0" sqref="AW52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="27.5408163265306"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="43" min="40" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="46" min="44" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="3" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="47" min="47" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="48" min="48" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="32.6479591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1112,6 +1117,9 @@
       <c r="AU2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -1218,6 +1226,9 @@
       <c r="AU3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -1330,6 +1341,9 @@
       <c r="AU4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -1438,6 +1452,9 @@
       <c r="AU5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -1539,6 +1556,9 @@
       <c r="AU6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -1651,6 +1671,9 @@
       <c r="AU7" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW7" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -1761,6 +1784,9 @@
         <v>6</v>
       </c>
       <c r="AU8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW8" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1857,6 +1883,9 @@
       <c r="AU9" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AW9" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -1969,6 +1998,9 @@
       <c r="AU10" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AW10" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -2081,6 +2113,9 @@
       <c r="AU11" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -2193,6 +2228,9 @@
       <c r="AU12" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -2297,6 +2335,9 @@
       <c r="AU13" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW13" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
@@ -2398,6 +2439,9 @@
       <c r="AU14" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
@@ -2499,6 +2543,9 @@
       <c r="AU15" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
@@ -2611,6 +2658,9 @@
       <c r="AU16" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -2721,6 +2771,9 @@
       <c r="AU17" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW17" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -2831,6 +2884,9 @@
         <v>6</v>
       </c>
       <c r="AU18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3025,6 +3081,9 @@
       <c r="AU20" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW20" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
@@ -3125,6 +3184,9 @@
       </c>
       <c r="AU21" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="AW21" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,6 +3373,9 @@
       <c r="AU23" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AW23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
@@ -3423,6 +3488,9 @@
       <c r="AU24" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW24" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
@@ -3535,6 +3603,9 @@
       <c r="AU25" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW25" s="27" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
@@ -3642,18 +3713,21 @@
       <c r="AU26" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -3753,16 +3827,19 @@
       </c>
       <c r="AU27" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="AW27" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="26" t="s">
@@ -3863,16 +3940,19 @@
       </c>
       <c r="AU28" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="AW28" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="29" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="26" t="s">
@@ -3974,6 +4054,9 @@
         <v>6</v>
       </c>
       <c r="AU29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW29" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3981,13 +4064,13 @@
       <c r="A30" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="30" t="s">
         <v>49</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -4086,6 +4169,9 @@
         <v>6</v>
       </c>
       <c r="AU30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW30" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4093,13 +4179,13 @@
       <c r="A31" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="30" t="s">
         <v>52</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -4198,6 +4284,9 @@
         <v>7</v>
       </c>
       <c r="AU31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW31" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4205,13 +4294,13 @@
       <c r="A32" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -4310,6 +4399,9 @@
         <v>7</v>
       </c>
       <c r="AU32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW32" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4317,13 +4409,13 @@
       <c r="A33" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -4422,6 +4514,9 @@
         <v>7</v>
       </c>
       <c r="AU33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW33" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4525,6 +4620,9 @@
         <v>6</v>
       </c>
       <c r="AU34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW34" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4629,6 +4727,9 @@
       <c r="AU35" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW35" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
@@ -4737,16 +4838,19 @@
       <c r="AU36" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW36" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="3" t="s">
         <v>6</v>
       </c>
@@ -4843,16 +4947,19 @@
       <c r="AU37" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="3" t="s">
         <v>6</v>
       </c>
@@ -4946,13 +5053,16 @@
       </c>
       <c r="AU38" s="13" t="s">
         <v>6</v>
+      </c>
+      <c r="AW38" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="0"/>
@@ -5051,6 +5161,9 @@
         <v>6</v>
       </c>
       <c r="AU39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW39" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5058,7 +5171,7 @@
       <c r="A40" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="28" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="0"/>
@@ -5154,6 +5267,9 @@
         <v>6</v>
       </c>
       <c r="AU40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW40" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5161,7 +5277,7 @@
       <c r="A41" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="0"/>
@@ -5256,6 +5372,9 @@
         <v>7</v>
       </c>
       <c r="AU41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW41" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5263,7 +5382,7 @@
       <c r="A42" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="0"/>
@@ -5351,6 +5470,9 @@
       <c r="AU42" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW42" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
@@ -5449,6 +5571,9 @@
         <v>7</v>
       </c>
       <c r="AU43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW43" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5546,6 +5671,9 @@
       <c r="AU44" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
@@ -5647,6 +5775,9 @@
       <c r="AU45" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW45" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
@@ -5743,6 +5874,9 @@
       <c r="AU46" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
@@ -5845,6 +5979,9 @@
       <c r="AU47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
@@ -5936,16 +6073,19 @@
       <c r="AU48" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW48" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="18" t="s">
         <v>6</v>
       </c>
@@ -6122,6 +6262,9 @@
       <c r="AU50" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AW50" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
@@ -6182,6 +6325,9 @@
         <v>6</v>
       </c>
       <c r="AU51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW51" s="0" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -623,14 +623,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW52" activeCellId="0" sqref="AW52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AX51" activeCellId="0" sqref="AX51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="27.2704081632653"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -638,7 +638,9 @@
     <col collapsed="false" hidden="true" max="46" min="44" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="47" min="47" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="48" min="48" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="32.6479591836735"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="3" width="27.5102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="51" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,6 +1231,9 @@
       <c r="AW3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -1344,6 +1349,9 @@
       <c r="AW4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -1455,6 +1463,9 @@
       <c r="AW5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -1559,6 +1570,9 @@
       <c r="AW6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX6" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -1674,6 +1688,9 @@
       <c r="AW7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -1787,6 +1804,9 @@
         <v>6</v>
       </c>
       <c r="AW8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1886,6 +1906,9 @@
       <c r="AW9" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AX9" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -2001,6 +2024,9 @@
       <c r="AW10" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX10" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -2116,6 +2142,9 @@
       <c r="AW11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX11" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -2231,6 +2260,9 @@
       <c r="AW12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX12" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -2338,6 +2370,9 @@
       <c r="AW13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX13" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
@@ -2442,6 +2477,9 @@
       <c r="AW14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX14" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
@@ -2546,6 +2584,9 @@
       <c r="AW15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX15" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
@@ -2661,6 +2702,9 @@
       <c r="AW16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX16" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -2774,6 +2818,9 @@
       <c r="AW17" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AX17" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -2889,6 +2936,9 @@
       <c r="AW18" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX18" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="n">
@@ -2971,6 +3021,7 @@
         <v>7</v>
       </c>
       <c r="AU19" s="20"/>
+      <c r="AX19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
@@ -3084,6 +3135,9 @@
       <c r="AW20" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX20" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
@@ -3187,6 +3241,9 @@
       </c>
       <c r="AW21" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="AX21" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,6 +3325,7 @@
       <c r="AP22" s="18"/>
       <c r="AQ22" s="18"/>
       <c r="AU22" s="20"/>
+      <c r="AX22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
@@ -3376,6 +3434,9 @@
       <c r="AW23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX23" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
@@ -3491,6 +3552,9 @@
       <c r="AW24" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AX24" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
@@ -3606,6 +3670,9 @@
       <c r="AW25" s="27" t="s">
         <v>6</v>
       </c>
+      <c r="AX25" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
@@ -3831,6 +3898,9 @@
       <c r="AW27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AX27" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
@@ -3944,6 +4014,9 @@
       <c r="AW28" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AX28" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
@@ -4174,6 +4247,9 @@
       <c r="AW30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX30" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
@@ -4289,6 +4365,9 @@
       <c r="AW31" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX31" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
@@ -4404,6 +4483,9 @@
       <c r="AW32" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX32" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
@@ -4519,6 +4601,9 @@
       <c r="AW33" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX33" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
@@ -4623,6 +4708,9 @@
         <v>6</v>
       </c>
       <c r="AW34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4730,6 +4818,9 @@
       <c r="AW35" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AX35" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
@@ -4841,6 +4932,9 @@
       <c r="AW36" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AX36" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
@@ -5057,6 +5151,9 @@
       <c r="AW38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AX38" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
@@ -5166,6 +5263,9 @@
       <c r="AW39" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX39" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
@@ -5272,6 +5372,9 @@
       <c r="AW40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX40" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
@@ -5377,6 +5480,9 @@
       <c r="AW41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX41" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
@@ -5471,6 +5577,9 @@
         <v>6</v>
       </c>
       <c r="AW42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX42" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5674,6 +5783,9 @@
       <c r="AW44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX44" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
@@ -5778,6 +5890,9 @@
       <c r="AW45" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AX45" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
@@ -5877,6 +5992,9 @@
       <c r="AW46" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AX46" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
@@ -5982,6 +6100,9 @@
       <c r="AW47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX47" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
@@ -6076,6 +6197,9 @@
       <c r="AW48" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX48" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="n">
@@ -6176,6 +6300,7 @@
         <v>7</v>
       </c>
       <c r="AU49" s="20"/>
+      <c r="AX49" s="20"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
@@ -6265,6 +6390,9 @@
       <c r="AW50" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AX50" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
@@ -6329,6 +6457,9 @@
       </c>
       <c r="AW51" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="AX51" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -623,14 +623,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AX51" activeCellId="0" sqref="AX51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AX3" activeCellId="0" sqref="AX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="26.8622448979592"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -638,9 +638,9 @@
     <col collapsed="false" hidden="true" max="46" min="44" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="47" min="47" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="48" min="48" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="3" width="27.5102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="51" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="3" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="51" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,6 +1120,9 @@
         <v>6</v>
       </c>
       <c r="AW2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3783,6 +3786,9 @@
       <c r="AW26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX26" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
@@ -4130,6 +4136,9 @@
         <v>6</v>
       </c>
       <c r="AW29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX29" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5044,6 +5053,7 @@
       <c r="AW37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AX37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
@@ -5684,6 +5694,9 @@
       </c>
       <c r="AW43" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="AX43" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -623,14 +623,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AX3" activeCellId="0" sqref="AX3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AX37" activeCellId="0" sqref="AX37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="26.4591836734694"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -638,9 +638,9 @@
     <col collapsed="false" hidden="true" max="46" min="44" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="47" min="47" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="48" min="48" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="3" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="51" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="3" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="51" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5053,7 +5053,9 @@
       <c r="AW37" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AX37" s="13"/>
+      <c r="AX37" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -623,24 +623,23 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AX37" activeCellId="0" sqref="AX37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AY51" activeCellId="0" sqref="AY51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="26.0510204081633"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="43" min="40" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="46" min="44" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="47" min="47" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="48" min="48" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="3" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="51" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="49" min="48" style="0" width="0"/>
+    <col collapsed="false" hidden="true" max="50" min="50" style="3" width="0"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="22.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1125,6 +1124,9 @@
       <c r="AX2" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="AY2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -1355,6 +1357,9 @@
       <c r="AX4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -1576,6 +1581,9 @@
       <c r="AX6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY6" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -1810,6 +1818,9 @@
         <v>6</v>
       </c>
       <c r="AX8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY8" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1912,6 +1923,9 @@
       <c r="AX9" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AY9" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -2148,6 +2162,9 @@
       <c r="AX11" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -2266,6 +2283,9 @@
       <c r="AX12" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -2483,6 +2503,9 @@
       <c r="AX14" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
@@ -2590,6 +2613,9 @@
       <c r="AX15" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
@@ -2708,6 +2734,9 @@
       <c r="AX16" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -2824,6 +2853,9 @@
       <c r="AX17" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY17" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -2940,6 +2972,9 @@
         <v>6</v>
       </c>
       <c r="AX18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3141,6 +3176,9 @@
       <c r="AX20" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY20" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
@@ -3247,6 +3285,9 @@
       </c>
       <c r="AX21" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="AY21" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,6 +3599,9 @@
       <c r="AX24" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
@@ -3676,6 +3720,9 @@
       <c r="AX25" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
@@ -3789,6 +3836,9 @@
       <c r="AX26" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AY26" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
@@ -3907,6 +3957,9 @@
       <c r="AX27" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
@@ -4023,6 +4076,9 @@
       <c r="AX28" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY28" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
@@ -4141,6 +4197,9 @@
       <c r="AX29" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="AY29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
@@ -4259,6 +4318,9 @@
       <c r="AX30" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
@@ -4377,6 +4439,9 @@
       <c r="AX31" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
@@ -4493,6 +4558,9 @@
         <v>6</v>
       </c>
       <c r="AX32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY32" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4830,6 +4898,9 @@
       <c r="AX35" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY35" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
@@ -4944,6 +5015,9 @@
       <c r="AX36" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY36" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
@@ -5166,6 +5240,9 @@
       <c r="AX38" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
@@ -5278,6 +5355,9 @@
       <c r="AX39" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY39" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
@@ -5387,6 +5467,9 @@
       <c r="AX40" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
@@ -5495,6 +5578,9 @@
       <c r="AX41" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY41" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
@@ -5699,6 +5785,9 @@
       </c>
       <c r="AX43" s="13" t="s">
         <v>7</v>
+      </c>
+      <c r="AY43" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5801,6 +5890,9 @@
       <c r="AX44" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
@@ -5908,6 +6000,9 @@
       <c r="AX45" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
@@ -6010,6 +6105,9 @@
       <c r="AX46" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AY46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
@@ -6118,6 +6216,9 @@
       <c r="AX47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
@@ -6214,6 +6315,9 @@
       </c>
       <c r="AX48" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="AY48" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="49" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6406,6 +6510,9 @@
         <v>7</v>
       </c>
       <c r="AX50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY50" s="0" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -623,14 +623,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY51" activeCellId="0" sqref="AY51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AY8" activeCellId="0" sqref="AY8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.6479591836735"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -639,7 +639,8 @@
     <col collapsed="false" hidden="true" max="47" min="47" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="49" min="48" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="50" min="50" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="22.3622448979592"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="52" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,6 +1702,9 @@
       </c>
       <c r="AX7" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="AY7" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,6 +3485,9 @@
       <c r="AX23" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -447,7 +447,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -462,6 +462,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -482,6 +486,10 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -530,6 +538,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -623,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY8" activeCellId="0" sqref="AY8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AY38" activeCellId="0" sqref="AY38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.5204081632653"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -639,386 +651,388 @@
     <col collapsed="false" hidden="true" max="47" min="47" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="49" min="48" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="50" min="50" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="52" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="4" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="n">
+      <c r="E1" s="9" t="n">
         <v>42786</v>
       </c>
-      <c r="F1" s="8" t="n">
+      <c r="F1" s="9" t="n">
         <v>42787</v>
       </c>
-      <c r="G1" s="8" t="n">
+      <c r="G1" s="9" t="n">
         <v>42788</v>
       </c>
-      <c r="H1" s="8" t="n">
+      <c r="H1" s="9" t="n">
         <v>42789</v>
       </c>
-      <c r="I1" s="8" t="n">
+      <c r="I1" s="9" t="n">
         <v>42790</v>
       </c>
-      <c r="J1" s="8" t="n">
+      <c r="J1" s="9" t="n">
         <v>42791</v>
       </c>
-      <c r="K1" s="8" t="n">
+      <c r="K1" s="9" t="n">
         <v>42792</v>
       </c>
-      <c r="L1" s="8" t="n">
+      <c r="L1" s="9" t="n">
         <v>42793</v>
       </c>
-      <c r="M1" s="8" t="n">
+      <c r="M1" s="9" t="n">
         <v>42794</v>
       </c>
-      <c r="N1" s="8" t="n">
+      <c r="N1" s="9" t="n">
         <v>42795</v>
       </c>
-      <c r="O1" s="8" t="n">
+      <c r="O1" s="9" t="n">
         <v>42796</v>
       </c>
-      <c r="P1" s="8" t="n">
+      <c r="P1" s="9" t="n">
         <v>42797</v>
       </c>
-      <c r="Q1" s="8" t="n">
+      <c r="Q1" s="9" t="n">
         <v>42798</v>
       </c>
-      <c r="R1" s="8" t="n">
+      <c r="R1" s="9" t="n">
         <v>42799</v>
       </c>
-      <c r="S1" s="8" t="n">
+      <c r="S1" s="9" t="n">
         <v>42800</v>
       </c>
-      <c r="T1" s="8" t="n">
+      <c r="T1" s="9" t="n">
         <v>42801</v>
       </c>
-      <c r="U1" s="8" t="n">
+      <c r="U1" s="9" t="n">
         <v>42802</v>
       </c>
-      <c r="V1" s="8" t="n">
+      <c r="V1" s="9" t="n">
         <v>42803</v>
       </c>
-      <c r="W1" s="8" t="n">
+      <c r="W1" s="9" t="n">
         <v>42804</v>
       </c>
-      <c r="X1" s="8" t="n">
+      <c r="X1" s="9" t="n">
         <v>42805</v>
       </c>
-      <c r="Y1" s="8" t="n">
+      <c r="Y1" s="9" t="n">
         <v>42806</v>
       </c>
-      <c r="Z1" s="8" t="n">
+      <c r="Z1" s="9" t="n">
         <v>42807</v>
       </c>
-      <c r="AA1" s="8" t="n">
+      <c r="AA1" s="9" t="n">
         <v>42808</v>
       </c>
-      <c r="AB1" s="8" t="n">
+      <c r="AB1" s="9" t="n">
         <v>42809</v>
       </c>
-      <c r="AC1" s="8" t="n">
+      <c r="AC1" s="9" t="n">
         <v>42810</v>
       </c>
-      <c r="AD1" s="8" t="n">
+      <c r="AD1" s="9" t="n">
         <v>42811</v>
       </c>
-      <c r="AE1" s="8" t="n">
+      <c r="AE1" s="9" t="n">
         <v>42812</v>
       </c>
-      <c r="AF1" s="8" t="n">
+      <c r="AF1" s="9" t="n">
         <v>42813</v>
       </c>
-      <c r="AG1" s="8" t="n">
+      <c r="AG1" s="9" t="n">
         <v>42814</v>
       </c>
-      <c r="AH1" s="8" t="n">
+      <c r="AH1" s="9" t="n">
         <v>42815</v>
       </c>
-      <c r="AI1" s="8" t="n">
+      <c r="AI1" s="9" t="n">
         <v>42816</v>
       </c>
-      <c r="AJ1" s="8" t="n">
+      <c r="AJ1" s="9" t="n">
         <v>42817</v>
       </c>
-      <c r="AK1" s="8" t="n">
+      <c r="AK1" s="9" t="n">
         <v>42818</v>
       </c>
-      <c r="AL1" s="8" t="n">
+      <c r="AL1" s="9" t="n">
         <v>42819</v>
       </c>
-      <c r="AM1" s="8" t="n">
+      <c r="AM1" s="9" t="n">
         <v>42820</v>
       </c>
-      <c r="AN1" s="8" t="n">
+      <c r="AN1" s="9" t="n">
         <v>42821</v>
       </c>
-      <c r="AO1" s="8" t="n">
+      <c r="AO1" s="9" t="n">
         <v>42822</v>
       </c>
-      <c r="AP1" s="8" t="n">
+      <c r="AP1" s="9" t="n">
         <v>42823</v>
       </c>
-      <c r="AQ1" s="8" t="n">
+      <c r="AQ1" s="9" t="n">
         <v>42824</v>
       </c>
-      <c r="AR1" s="8" t="n">
+      <c r="AR1" s="9" t="n">
         <v>42825</v>
       </c>
-      <c r="AS1" s="8" t="n">
+      <c r="AS1" s="9" t="n">
         <v>42826</v>
       </c>
-      <c r="AT1" s="8" t="n">
+      <c r="AT1" s="9" t="n">
         <v>42827</v>
       </c>
-      <c r="AU1" s="8" t="n">
+      <c r="AU1" s="9" t="n">
         <v>42828</v>
       </c>
-      <c r="AV1" s="8" t="n">
+      <c r="AV1" s="9" t="n">
         <v>42829</v>
       </c>
-      <c r="AW1" s="8" t="n">
+      <c r="AW1" s="9" t="n">
         <v>42830</v>
       </c>
-      <c r="AX1" s="8" t="n">
+      <c r="AX1" s="9" t="n">
         <v>42831</v>
       </c>
-      <c r="AY1" s="8" t="n">
+      <c r="AY1" s="9" t="n">
         <v>42832</v>
       </c>
-      <c r="AZ1" s="8" t="n">
+      <c r="AZ1" s="10" t="n">
         <v>42833</v>
       </c>
-      <c r="BA1" s="8" t="n">
+      <c r="BA1" s="9" t="n">
         <v>42834</v>
       </c>
-      <c r="BB1" s="8" t="n">
+      <c r="BB1" s="9" t="n">
         <v>42835</v>
       </c>
-      <c r="BC1" s="8" t="n">
+      <c r="BC1" s="9" t="n">
         <v>42836</v>
       </c>
-      <c r="BD1" s="8" t="n">
+      <c r="BD1" s="9" t="n">
         <v>42837</v>
       </c>
-      <c r="BE1" s="8" t="n">
+      <c r="BE1" s="9" t="n">
         <v>42838</v>
       </c>
-      <c r="BF1" s="8" t="n">
+      <c r="BF1" s="9" t="n">
         <v>42839</v>
       </c>
-      <c r="BG1" s="8" t="n">
+      <c r="BG1" s="9" t="n">
         <v>42840</v>
       </c>
-      <c r="BH1" s="8" t="n">
+      <c r="BH1" s="9" t="n">
         <v>42841</v>
       </c>
-      <c r="BI1" s="8" t="n">
+      <c r="BI1" s="9" t="n">
         <v>42842</v>
       </c>
-      <c r="BJ1" s="8" t="n">
+      <c r="BJ1" s="9" t="n">
         <v>42843</v>
       </c>
-      <c r="BK1" s="8" t="n">
+      <c r="BK1" s="9" t="n">
         <v>42844</v>
       </c>
-      <c r="BL1" s="8" t="n">
+      <c r="BL1" s="9" t="n">
         <v>42845</v>
       </c>
-      <c r="BM1" s="8" t="n">
+      <c r="BM1" s="9" t="n">
         <v>42846</v>
       </c>
-      <c r="BN1" s="8" t="n">
+      <c r="BN1" s="9" t="n">
         <v>42847</v>
       </c>
-      <c r="BO1" s="8" t="n">
+      <c r="BO1" s="9" t="n">
         <v>42848</v>
       </c>
-      <c r="BP1" s="8" t="n">
+      <c r="BP1" s="9" t="n">
         <v>42849</v>
       </c>
-      <c r="BQ1" s="8" t="n">
+      <c r="BQ1" s="9" t="n">
         <v>42850</v>
       </c>
-      <c r="BR1" s="8" t="n">
+      <c r="BR1" s="9" t="n">
         <v>42851</v>
       </c>
-      <c r="BS1" s="8" t="n">
+      <c r="BS1" s="9" t="n">
         <v>42852</v>
       </c>
-      <c r="BT1" s="8" t="n">
+      <c r="BT1" s="9" t="n">
         <v>42853</v>
       </c>
-      <c r="BU1" s="8" t="n">
+      <c r="BU1" s="9" t="n">
         <v>42854</v>
       </c>
-      <c r="BV1" s="8" t="n">
+      <c r="BV1" s="9" t="n">
         <v>42855</v>
       </c>
-      <c r="BW1" s="8" t="n">
+      <c r="BW1" s="9" t="n">
         <v>42856</v>
       </c>
-      <c r="BX1" s="8" t="n">
+      <c r="BX1" s="9" t="n">
         <v>42857</v>
       </c>
-      <c r="BY1" s="8" t="n">
+      <c r="BY1" s="9" t="n">
         <v>42858</v>
       </c>
-      <c r="BZ1" s="8" t="n">
+      <c r="BZ1" s="9" t="n">
         <v>42859</v>
       </c>
-      <c r="CA1" s="8" t="n">
+      <c r="CA1" s="9" t="n">
         <v>42860</v>
       </c>
-      <c r="CB1" s="8" t="n">
+      <c r="CB1" s="9" t="n">
         <v>42861</v>
       </c>
-      <c r="CC1" s="8" t="n">
+      <c r="CC1" s="9" t="n">
         <v>42862</v>
       </c>
-      <c r="CD1" s="8" t="n">
+      <c r="CD1" s="9" t="n">
         <v>42863</v>
       </c>
-      <c r="CE1" s="8" t="n">
+      <c r="CE1" s="9" t="n">
         <v>42864</v>
       </c>
-      <c r="CF1" s="8" t="n">
+      <c r="CF1" s="9" t="n">
         <v>42865</v>
       </c>
-      <c r="CG1" s="8" t="n">
+      <c r="CG1" s="9" t="n">
         <v>42866</v>
       </c>
-      <c r="CH1" s="8" t="n">
+      <c r="CH1" s="9" t="n">
         <v>42867</v>
       </c>
-      <c r="CI1" s="8" t="n">
+      <c r="CI1" s="9" t="n">
         <v>42868</v>
       </c>
-      <c r="CJ1" s="8" t="n">
+      <c r="CJ1" s="9" t="n">
         <v>42869</v>
       </c>
-      <c r="CK1" s="8" t="n">
+      <c r="CK1" s="9" t="n">
         <v>42870</v>
       </c>
-      <c r="CL1" s="8" t="n">
+      <c r="CL1" s="9" t="n">
         <v>42871</v>
       </c>
-      <c r="CM1" s="8" t="n">
+      <c r="CM1" s="9" t="n">
         <v>42872</v>
       </c>
-      <c r="CN1" s="8" t="n">
+      <c r="CN1" s="9" t="n">
         <v>42873</v>
       </c>
-      <c r="CO1" s="8" t="n">
+      <c r="CO1" s="9" t="n">
         <v>42874</v>
       </c>
-      <c r="CP1" s="8" t="n">
+      <c r="CP1" s="9" t="n">
         <v>42875</v>
       </c>
-      <c r="CQ1" s="8" t="n">
+      <c r="CQ1" s="9" t="n">
         <v>42876</v>
       </c>
-      <c r="CR1" s="8" t="n">
+      <c r="CR1" s="9" t="n">
         <v>42877</v>
       </c>
-      <c r="CS1" s="8" t="n">
+      <c r="CS1" s="9" t="n">
         <v>42878</v>
       </c>
-      <c r="CT1" s="8" t="n">
+      <c r="CT1" s="9" t="n">
         <v>42879</v>
       </c>
-      <c r="CU1" s="8" t="n">
+      <c r="CU1" s="9" t="n">
         <v>42880</v>
       </c>
-      <c r="CV1" s="8" t="n">
+      <c r="CV1" s="9" t="n">
         <v>42881</v>
       </c>
-      <c r="CW1" s="8" t="n">
+      <c r="CW1" s="9" t="n">
         <v>42882</v>
       </c>
-      <c r="CX1" s="8" t="n">
+      <c r="CX1" s="9" t="n">
         <v>42883</v>
       </c>
-      <c r="CY1" s="8" t="n">
+      <c r="CY1" s="9" t="n">
         <v>42884</v>
       </c>
-      <c r="CZ1" s="8" t="n">
+      <c r="CZ1" s="9" t="n">
         <v>42885</v>
       </c>
-      <c r="DA1" s="8" t="n">
+      <c r="DA1" s="9" t="n">
         <v>42886</v>
       </c>
-      <c r="DB1" s="8" t="n">
+      <c r="DB1" s="9" t="n">
         <v>42887</v>
       </c>
-      <c r="DC1" s="8" t="n">
+      <c r="DC1" s="9" t="n">
         <v>42888</v>
       </c>
-      <c r="DD1" s="8" t="n">
+      <c r="DD1" s="9" t="n">
         <v>42889</v>
       </c>
-      <c r="DE1" s="8" t="n">
+      <c r="DE1" s="9" t="n">
         <v>42890</v>
       </c>
-      <c r="DF1" s="8" t="n">
+      <c r="DF1" s="9" t="n">
         <v>42891</v>
       </c>
-      <c r="DG1" s="8" t="n">
+      <c r="DG1" s="9" t="n">
         <v>42892</v>
       </c>
-      <c r="DH1" s="8" t="n">
+      <c r="DH1" s="9" t="n">
         <v>42893</v>
       </c>
-      <c r="DI1" s="8" t="n">
+      <c r="DI1" s="9" t="n">
         <v>42894</v>
       </c>
-      <c r="DJ1" s="8" t="n">
+      <c r="DJ1" s="9" t="n">
         <v>42895</v>
       </c>
-      <c r="DK1" s="8" t="n">
+      <c r="DK1" s="9" t="n">
         <v>42896</v>
       </c>
-      <c r="DL1" s="8" t="n">
+      <c r="DL1" s="9" t="n">
         <v>42897</v>
       </c>
-      <c r="DM1" s="8" t="n">
+      <c r="DM1" s="9" t="n">
         <v>42898</v>
       </c>
-      <c r="DN1" s="8" t="n">
+      <c r="DN1" s="9" t="n">
         <v>42899</v>
       </c>
-      <c r="DO1" s="8" t="n">
+      <c r="DO1" s="9" t="n">
         <v>42900</v>
       </c>
-      <c r="DP1" s="8" t="n">
+      <c r="DP1" s="9" t="n">
         <v>42901</v>
       </c>
-      <c r="DQ1" s="8" t="n">
+      <c r="DQ1" s="9" t="n">
         <v>42902</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="n">
+      <c r="C2" s="13" t="n">
         <v>4220190297687</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1038,13 +1052,13 @@
       </c>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -1072,27 +1086,27 @@
       </c>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
-      <c r="Z2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD2" s="13" t="s">
+      <c r="Z2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="AE2" s="0"/>
       <c r="AF2" s="0"/>
-      <c r="AG2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AG2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI2" s="3" t="s">
@@ -1122,24 +1136,28 @@
       <c r="AW2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AX2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY2" s="0" t="s">
+      <c r="AX2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="0"/>
+      <c r="BB2" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="13" t="n">
         <v>4220160434966</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1157,11 +1175,11 @@
       </c>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
-      <c r="L3" s="13"/>
+      <c r="L3" s="15"/>
       <c r="M3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O3" s="3" t="s">
@@ -1189,17 +1207,17 @@
       </c>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
-      <c r="Z3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" s="13" t="s">
+      <c r="Z3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE3" s="0"/>
@@ -1207,7 +1225,7 @@
       <c r="AG3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AH3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI3" s="3" t="s">
@@ -1240,18 +1258,20 @@
       <c r="AX3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY3" s="0"/>
+      <c r="AZ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="13" t="n">
         <v>4220117993627</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1271,13 +1291,13 @@
       </c>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="3" t="s">
@@ -1305,19 +1325,19 @@
       </c>
       <c r="X4" s="0"/>
       <c r="Y4" s="0"/>
-      <c r="Z4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD4" s="13" t="s">
+      <c r="Z4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE4" s="0"/>
@@ -1325,7 +1345,7 @@
       <c r="AG4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH4" s="13" t="s">
+      <c r="AH4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI4" s="3" t="s">
@@ -1358,21 +1378,25 @@
       <c r="AX4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY4" s="0" t="s">
+      <c r="AY4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ4" s="0"/>
+      <c r="BB4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="13" t="n">
         <v>4250152650691</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1392,11 +1416,11 @@
       </c>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
-      <c r="L5" s="13"/>
+      <c r="L5" s="15"/>
       <c r="M5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="3" t="s">
@@ -1424,17 +1448,17 @@
       </c>
       <c r="X5" s="0"/>
       <c r="Y5" s="0"/>
-      <c r="Z5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD5" s="13" t="s">
+      <c r="Z5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE5" s="0"/>
@@ -1442,7 +1466,7 @@
       <c r="AG5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AH5" s="13" t="s">
+      <c r="AH5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI5" s="3" t="s">
@@ -1475,18 +1499,20 @@
       <c r="AX5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY5" s="0"/>
+      <c r="AZ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="13" t="n">
         <v>4230114514614</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1504,13 +1530,13 @@
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="3" t="s">
@@ -1536,17 +1562,17 @@
       </c>
       <c r="X6" s="0"/>
       <c r="Y6" s="0"/>
-      <c r="Z6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD6" s="13" t="s">
+      <c r="Z6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE6" s="0"/>
@@ -1554,7 +1580,7 @@
       <c r="AG6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH6" s="13" t="s">
+      <c r="AH6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI6" s="3" t="s">
@@ -1582,21 +1608,25 @@
       <c r="AX6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY6" s="0" t="s">
-        <v>7</v>
+      <c r="AY6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ6" s="0"/>
+      <c r="BB6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="13" t="n">
         <v>4230122103742</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1616,13 +1646,13 @@
       </c>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O7" s="3" t="s">
@@ -1650,19 +1680,19 @@
       </c>
       <c r="X7" s="0"/>
       <c r="Y7" s="0"/>
-      <c r="Z7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD7" s="13" t="s">
+      <c r="Z7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE7" s="0"/>
@@ -1670,7 +1700,7 @@
       <c r="AG7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH7" s="13" t="s">
+      <c r="AH7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI7" s="3" t="s">
@@ -1703,21 +1733,25 @@
       <c r="AX7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY7" s="0" t="s">
-        <v>7</v>
+      <c r="AY7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ7" s="0"/>
+      <c r="BB7" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="13" t="n">
         <v>4210162448237</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1737,13 +1771,13 @@
       </c>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="O8" s="3" t="s">
@@ -1771,19 +1805,19 @@
       </c>
       <c r="X8" s="0"/>
       <c r="Y8" s="0"/>
-      <c r="Z8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD8" s="13" t="s">
+      <c r="Z8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE8" s="0"/>
@@ -1791,7 +1825,7 @@
       <c r="AG8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH8" s="13" t="s">
+      <c r="AH8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI8" s="3" t="s">
@@ -1824,21 +1858,25 @@
       <c r="AX8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY8" s="0" t="s">
+      <c r="AY8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ8" s="0"/>
+      <c r="BB8" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="13" t="n">
         <v>4250177385605</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="0"/>
@@ -1852,13 +1890,13 @@
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O9" s="3" t="s">
@@ -1882,21 +1920,21 @@
       <c r="W9" s="0"/>
       <c r="X9" s="0"/>
       <c r="Y9" s="0"/>
-      <c r="Z9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
+      <c r="Z9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
       <c r="AE9" s="0"/>
       <c r="AF9" s="0"/>
       <c r="AG9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH9" s="13" t="s">
+      <c r="AH9" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI9" s="3" t="s">
@@ -1927,21 +1965,22 @@
       <c r="AX9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AY9" s="0" t="s">
-        <v>7</v>
-      </c>
+      <c r="AY9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="13" t="n">
         <v>4220178317319</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1961,13 +2000,13 @@
       </c>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O10" s="3" t="s">
@@ -1995,19 +2034,19 @@
       </c>
       <c r="X10" s="0"/>
       <c r="Y10" s="0"/>
-      <c r="Z10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD10" s="13" t="s">
+      <c r="Z10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD10" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE10" s="0"/>
@@ -2015,7 +2054,7 @@
       <c r="AG10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH10" s="13" t="s">
+      <c r="AH10" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI10" s="3" t="s">
@@ -2047,19 +2086,24 @@
       </c>
       <c r="AX10" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="AY10" s="0"/>
+      <c r="AZ10" s="0"/>
+      <c r="BB10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="13" t="n">
         <v>4230196945345</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -2085,7 +2129,7 @@
       <c r="M11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -2113,19 +2157,19 @@
       </c>
       <c r="X11" s="0"/>
       <c r="Y11" s="0"/>
-      <c r="Z11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD11" s="13" t="s">
+      <c r="Z11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE11" s="0"/>
@@ -2133,7 +2177,7 @@
       <c r="AG11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH11" s="13" t="s">
+      <c r="AH11" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI11" s="3" t="s">
@@ -2166,21 +2210,25 @@
       <c r="AX11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY11" s="0" t="s">
+      <c r="AY11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ11" s="0"/>
+      <c r="BB11" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="13" t="n">
         <v>4210117697677</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -2200,13 +2248,13 @@
       </c>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O12" s="3" t="s">
@@ -2234,19 +2282,19 @@
       </c>
       <c r="X12" s="0"/>
       <c r="Y12" s="0"/>
-      <c r="Z12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD12" s="13" t="s">
+      <c r="Z12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD12" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE12" s="0"/>
@@ -2254,7 +2302,7 @@
       <c r="AG12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH12" s="13" t="s">
+      <c r="AH12" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI12" s="3" t="s">
@@ -2287,21 +2335,25 @@
       <c r="AX12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY12" s="0" t="s">
+      <c r="AY12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ12" s="0"/>
+      <c r="BB12" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="13" t="n">
         <v>4250184165707</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -2319,11 +2371,11 @@
       </c>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
-      <c r="L13" s="13"/>
+      <c r="L13" s="15"/>
       <c r="M13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O13" s="3" t="s">
@@ -2349,19 +2401,19 @@
       </c>
       <c r="X13" s="0"/>
       <c r="Y13" s="0"/>
-      <c r="Z13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD13" s="13" t="s">
+      <c r="Z13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE13" s="0"/>
@@ -2369,7 +2421,7 @@
       <c r="AG13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH13" s="13" t="s">
+      <c r="AH13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="AI13" s="3" t="s">
@@ -2400,18 +2452,23 @@
       <c r="AX13" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AY13" s="0"/>
+      <c r="AZ13" s="0"/>
+      <c r="BB13" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="13" t="n">
         <v>4220196943389</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -2429,13 +2486,13 @@
       </c>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="13"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="3" t="s">
         <v>6</v>
       </c>
@@ -2461,23 +2518,23 @@
       </c>
       <c r="X14" s="0"/>
       <c r="Y14" s="0"/>
-      <c r="Z14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD14" s="13"/>
+      <c r="Z14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD14" s="15"/>
       <c r="AE14" s="0"/>
       <c r="AF14" s="0"/>
       <c r="AG14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH14" s="13" t="s">
+      <c r="AH14" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI14" s="3" t="s">
@@ -2507,21 +2564,22 @@
       <c r="AX14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY14" s="0" t="s">
-        <v>6</v>
-      </c>
+      <c r="AY14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="13" t="n">
         <v>4210154797179</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2537,11 +2595,11 @@
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M15" s="0"/>
-      <c r="N15" s="13" t="s">
+      <c r="N15" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O15" s="3" t="s">
@@ -2569,28 +2627,28 @@
       </c>
       <c r="X15" s="0"/>
       <c r="Y15" s="0"/>
-      <c r="Z15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD15" s="13"/>
+      <c r="Z15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="15"/>
       <c r="AE15" s="0"/>
       <c r="AF15" s="0"/>
-      <c r="AG15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI15" s="13" t="s">
+      <c r="AG15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI15" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AK15" s="0" t="s">
@@ -2617,21 +2675,25 @@
       <c r="AX15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY15" s="0" t="s">
+      <c r="AY15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ15" s="0"/>
+      <c r="BB15" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="13" t="n">
         <v>4230106504551</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -2651,13 +2713,13 @@
       </c>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -2685,19 +2747,19 @@
       </c>
       <c r="X16" s="0"/>
       <c r="Y16" s="0"/>
-      <c r="Z16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD16" s="13" t="s">
+      <c r="Z16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE16" s="0"/>
@@ -2705,7 +2767,7 @@
       <c r="AG16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH16" s="13" t="s">
+      <c r="AH16" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI16" s="3" t="s">
@@ -2738,21 +2800,25 @@
       <c r="AX16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY16" s="0" t="s">
+      <c r="AY16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ16" s="0"/>
+      <c r="BB16" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="13" t="n">
         <v>4220190470558</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -2770,13 +2836,13 @@
       </c>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="N17" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -2804,19 +2870,19 @@
       </c>
       <c r="X17" s="0"/>
       <c r="Y17" s="0"/>
-      <c r="Z17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD17" s="13" t="s">
+      <c r="Z17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD17" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE17" s="0"/>
@@ -2824,7 +2890,7 @@
       <c r="AG17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH17" s="13" t="s">
+      <c r="AH17" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI17" s="3" t="s">
@@ -2857,21 +2923,25 @@
       <c r="AX17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY17" s="0" t="s">
+      <c r="AY17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ17" s="0"/>
+      <c r="BB17" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="13" t="n">
         <v>4230193549613</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -2891,13 +2961,13 @@
       </c>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N18" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -2925,19 +2995,19 @@
       </c>
       <c r="X18" s="0"/>
       <c r="Y18" s="0"/>
-      <c r="Z18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD18" s="13" t="s">
+      <c r="Z18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD18" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE18" s="0"/>
@@ -2945,7 +3015,7 @@
       <c r="AG18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH18" s="13" t="s">
+      <c r="AH18" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI18" s="3" t="s">
@@ -2978,104 +3048,110 @@
       <c r="AX18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY18" s="0" t="s">
-        <v>6</v>
+      <c r="AY18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ18" s="0"/>
+      <c r="BB18" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="19" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
+    <row r="19" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="16" t="n">
+      <c r="C19" s="18" t="n">
         <v>4230118055896</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="S19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="T19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="U19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="V19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU19" s="20"/>
-      <c r="AX19" s="20"/>
+      <c r="E19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU19" s="22"/>
+      <c r="AX19" s="22"/>
+      <c r="AY19" s="22"/>
+      <c r="AZ19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="13" t="n">
         <v>4230149928587</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -3095,13 +3171,13 @@
       </c>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O20" s="3" t="s">
@@ -3127,19 +3203,19 @@
       </c>
       <c r="X20" s="0"/>
       <c r="Y20" s="0"/>
-      <c r="Z20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD20" s="13" t="s">
+      <c r="Z20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD20" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE20" s="0"/>
@@ -3147,7 +3223,7 @@
       <c r="AG20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH20" s="13" t="s">
+      <c r="AH20" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI20" s="3" t="s">
@@ -3180,21 +3256,25 @@
       <c r="AX20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY20" s="0" t="s">
+      <c r="AY20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ20" s="0"/>
+      <c r="BB20" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="13" t="n">
         <v>4240131404762</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -3212,13 +3292,13 @@
       </c>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O21" s="3" t="s">
@@ -3242,19 +3322,19 @@
       <c r="W21" s="0"/>
       <c r="X21" s="0"/>
       <c r="Y21" s="0"/>
-      <c r="Z21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD21" s="13" t="s">
+      <c r="Z21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD21" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE21" s="0"/>
@@ -3262,7 +3342,7 @@
       <c r="AG21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH21" s="13" t="s">
+      <c r="AH21" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI21" s="3" t="s">
@@ -3290,102 +3370,108 @@
       <c r="AX21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY21" s="0" t="s">
-        <v>7</v>
+      <c r="AY21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ21" s="0"/>
+      <c r="BB21" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="22" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
+    <row r="22" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="T22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="U22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="V22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="W22" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z22" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="18"/>
-      <c r="AU22" s="20"/>
-      <c r="AX22" s="20"/>
+      <c r="E22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AU22" s="22"/>
+      <c r="AX22" s="22"/>
+      <c r="AY22" s="22"/>
+      <c r="AZ22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -3403,13 +3489,13 @@
       </c>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="N23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O23" s="3" t="s">
@@ -3437,25 +3523,25 @@
       </c>
       <c r="X23" s="0"/>
       <c r="Y23" s="0"/>
-      <c r="Z23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD23" s="13"/>
+      <c r="Z23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD23" s="15"/>
       <c r="AE23" s="0"/>
       <c r="AF23" s="0"/>
-      <c r="AG23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH23" s="13" t="s">
+      <c r="AG23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI23" s="3" t="s">
@@ -3476,7 +3562,7 @@
       <c r="AR23" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AU23" s="13" t="s">
+      <c r="AU23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AW23" s="0" t="s">
@@ -3485,21 +3571,25 @@
       <c r="AX23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY23" s="0" t="s">
+      <c r="AY23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ23" s="0"/>
+      <c r="BB23" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -3511,21 +3601,21 @@
       <c r="G24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="13" t="s">
+      <c r="H24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="N24" s="15" t="s">
         <v>7</v>
       </c>
       <c r="O24" s="3" t="s">
@@ -3553,19 +3643,19 @@
       </c>
       <c r="X24" s="0"/>
       <c r="Y24" s="0"/>
-      <c r="Z24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD24" s="13" t="s">
+      <c r="Z24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD24" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE24" s="0"/>
@@ -3573,7 +3663,7 @@
       <c r="AG24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH24" s="13" t="s">
+      <c r="AH24" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI24" s="3" t="s">
@@ -3606,21 +3696,25 @@
       <c r="AX24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY24" s="0" t="s">
+      <c r="AY24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ24" s="0"/>
+      <c r="BB24" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3640,13 +3734,13 @@
       </c>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N25" s="13" t="s">
+      <c r="N25" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O25" s="3" t="s">
@@ -3674,19 +3768,19 @@
       </c>
       <c r="X25" s="0"/>
       <c r="Y25" s="0"/>
-      <c r="Z25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD25" s="13" t="s">
+      <c r="Z25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD25" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE25" s="0"/>
@@ -3694,7 +3788,7 @@
       <c r="AG25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH25" s="13" t="s">
+      <c r="AH25" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI25" s="3" t="s">
@@ -3721,27 +3815,31 @@
       <c r="AU25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AW25" s="27" t="s">
+      <c r="AW25" s="30" t="s">
         <v>6</v>
       </c>
       <c r="AX25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY25" s="0" t="s">
+      <c r="AY25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ25" s="0"/>
+      <c r="BB25" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -3761,13 +3859,13 @@
       </c>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N26" s="13" t="s">
+      <c r="N26" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O26" s="3" t="s">
@@ -3795,25 +3893,25 @@
       </c>
       <c r="X26" s="0"/>
       <c r="Y26" s="0"/>
-      <c r="Z26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD26" s="13"/>
+      <c r="Z26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD26" s="15"/>
       <c r="AE26" s="0"/>
       <c r="AF26" s="0"/>
-      <c r="AG26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH26" s="13" t="s">
+      <c r="AG26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH26" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI26" s="3" t="s">
@@ -3840,24 +3938,28 @@
       <c r="AW26" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AX26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY26" s="0" t="s">
-        <v>7</v>
+      <c r="AX26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ26" s="0"/>
+      <c r="BB26" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -3877,13 +3979,13 @@
       </c>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="N27" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O27" s="3" t="s">
@@ -3911,19 +4013,19 @@
       </c>
       <c r="X27" s="0"/>
       <c r="Y27" s="0"/>
-      <c r="Z27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD27" s="13" t="s">
+      <c r="Z27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD27" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE27" s="0"/>
@@ -3931,7 +4033,7 @@
       <c r="AG27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH27" s="13" t="s">
+      <c r="AH27" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI27" s="3" t="s">
@@ -3964,21 +4066,25 @@
       <c r="AX27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY27" s="0" t="s">
+      <c r="AY27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ27" s="0"/>
+      <c r="BB27" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -3996,13 +4102,13 @@
       </c>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N28" s="13" t="s">
+      <c r="N28" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O28" s="3" t="s">
@@ -4030,19 +4136,19 @@
       </c>
       <c r="X28" s="0"/>
       <c r="Y28" s="0"/>
-      <c r="Z28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD28" s="13" t="s">
+      <c r="Z28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD28" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE28" s="0"/>
@@ -4050,7 +4156,7 @@
       <c r="AG28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH28" s="13" t="s">
+      <c r="AH28" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI28" s="3" t="s">
@@ -4083,21 +4189,25 @@
       <c r="AX28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY28" s="0" t="s">
+      <c r="AY28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ28" s="0"/>
+      <c r="BB28" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -4117,13 +4227,13 @@
       </c>
       <c r="J29" s="0"/>
       <c r="K29" s="0"/>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N29" s="13" t="s">
+      <c r="N29" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O29" s="3" t="s">
@@ -4151,19 +4261,19 @@
       </c>
       <c r="X29" s="0"/>
       <c r="Y29" s="0"/>
-      <c r="Z29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD29" s="13" t="s">
+      <c r="Z29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD29" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE29" s="0"/>
@@ -4171,7 +4281,7 @@
       <c r="AG29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH29" s="13" t="s">
+      <c r="AH29" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI29" s="3" t="s">
@@ -4201,24 +4311,28 @@
       <c r="AW29" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AX29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY29" s="0" t="s">
+      <c r="AX29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ29" s="0"/>
+      <c r="BB29" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
+      <c r="A30" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="33" t="s">
         <v>49</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -4244,7 +4358,7 @@
       <c r="M30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N30" s="13" t="s">
+      <c r="N30" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O30" s="3" t="s">
@@ -4272,19 +4386,19 @@
       </c>
       <c r="X30" s="0"/>
       <c r="Y30" s="0"/>
-      <c r="Z30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD30" s="13" t="s">
+      <c r="Z30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD30" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE30" s="0"/>
@@ -4292,7 +4406,7 @@
       <c r="AG30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH30" s="13" t="s">
+      <c r="AH30" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI30" s="3" t="s">
@@ -4325,21 +4439,25 @@
       <c r="AX30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY30" s="0" t="s">
+      <c r="AY30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ30" s="0"/>
+      <c r="BB30" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+      <c r="A31" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -4359,13 +4477,13 @@
       </c>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
-      <c r="L31" s="13" t="s">
+      <c r="L31" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N31" s="13" t="s">
+      <c r="N31" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O31" s="3" t="s">
@@ -4393,19 +4511,19 @@
       </c>
       <c r="X31" s="0"/>
       <c r="Y31" s="0"/>
-      <c r="Z31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD31" s="13" t="s">
+      <c r="Z31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD31" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE31" s="0"/>
@@ -4413,7 +4531,7 @@
       <c r="AG31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH31" s="13" t="s">
+      <c r="AH31" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI31" s="3" t="s">
@@ -4446,21 +4564,25 @@
       <c r="AX31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY31" s="0" t="s">
-        <v>7</v>
+      <c r="AY31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ31" s="0"/>
+      <c r="BB31" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
+      <c r="A32" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="33" t="s">
         <v>33</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -4480,13 +4602,13 @@
       </c>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N32" s="13" t="s">
+      <c r="N32" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O32" s="3" t="s">
@@ -4514,19 +4636,19 @@
       </c>
       <c r="X32" s="0"/>
       <c r="Y32" s="0"/>
-      <c r="Z32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD32" s="13" t="s">
+      <c r="Z32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD32" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE32" s="0"/>
@@ -4534,7 +4656,7 @@
       <c r="AG32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH32" s="13" t="s">
+      <c r="AH32" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI32" s="3" t="s">
@@ -4567,21 +4689,25 @@
       <c r="AX32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY32" s="0" t="s">
+      <c r="AY32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ32" s="0"/>
+      <c r="BB32" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
+      <c r="A33" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="36" t="s">
         <v>52</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -4601,13 +4727,13 @@
       </c>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="N33" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O33" s="3" t="s">
@@ -4635,19 +4761,19 @@
       </c>
       <c r="X33" s="0"/>
       <c r="Y33" s="0"/>
-      <c r="Z33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD33" s="13" t="s">
+      <c r="Z33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD33" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE33" s="0"/>
@@ -4655,7 +4781,7 @@
       <c r="AG33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH33" s="13" t="s">
+      <c r="AH33" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI33" s="3" t="s">
@@ -4686,20 +4812,25 @@
         <v>6</v>
       </c>
       <c r="AX33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY33" s="0"/>
+      <c r="AZ33" s="0"/>
+      <c r="BB33" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
+      <c r="A34" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="29" t="s">
         <v>52</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -4719,13 +4850,13 @@
       </c>
       <c r="J34" s="0"/>
       <c r="K34" s="0"/>
-      <c r="L34" s="13" t="s">
+      <c r="L34" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N34" s="13" t="s">
+      <c r="N34" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O34" s="3" t="s">
@@ -4751,15 +4882,15 @@
       </c>
       <c r="X34" s="0"/>
       <c r="Y34" s="0"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD34" s="13" t="s">
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD34" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE34" s="0"/>
@@ -4767,7 +4898,7 @@
       <c r="AG34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH34" s="13" t="s">
+      <c r="AH34" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI34" s="3" t="s">
@@ -4795,20 +4926,25 @@
         <v>6</v>
       </c>
       <c r="AX34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY34" s="0"/>
+      <c r="AZ34" s="0"/>
+      <c r="BB34" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
+      <c r="A35" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E35" s="0"/>
@@ -4826,11 +4962,11 @@
       </c>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
-      <c r="L35" s="13" t="s">
+      <c r="L35" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M35" s="0"/>
-      <c r="N35" s="13" t="s">
+      <c r="N35" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O35" s="3" t="s">
@@ -4854,27 +4990,27 @@
       </c>
       <c r="X35" s="0"/>
       <c r="Y35" s="0"/>
-      <c r="Z35" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA35" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB35" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC35" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD35" s="13" t="s">
+      <c r="Z35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD35" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE35" s="0"/>
       <c r="AF35" s="0"/>
-      <c r="AG35" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH35" s="13"/>
+      <c r="AG35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH35" s="15"/>
       <c r="AI35" s="3" t="s">
         <v>6</v>
       </c>
@@ -4905,21 +5041,25 @@
       <c r="AX35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY35" s="0" t="s">
+      <c r="AY35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ35" s="0"/>
+      <c r="BB35" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
+      <c r="A36" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="0"/>
@@ -4937,13 +5077,13 @@
       </c>
       <c r="J36" s="0"/>
       <c r="K36" s="0"/>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N36" s="13" t="s">
+      <c r="N36" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O36" s="3" t="s">
@@ -4969,19 +5109,19 @@
       </c>
       <c r="X36" s="0"/>
       <c r="Y36" s="0"/>
-      <c r="Z36" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA36" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB36" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC36" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD36" s="13" t="s">
+      <c r="Z36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD36" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE36" s="0"/>
@@ -4989,7 +5129,7 @@
       <c r="AG36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH36" s="13" t="s">
+      <c r="AH36" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI36" s="3" t="s">
@@ -5022,19 +5162,23 @@
       <c r="AX36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY36" s="0" t="s">
-        <v>6</v>
+      <c r="AY36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ36" s="0"/>
+      <c r="BB36" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
+      <c r="A37" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="3" t="s">
         <v>6</v>
       </c>
@@ -5052,13 +5196,13 @@
       </c>
       <c r="J37" s="0"/>
       <c r="K37" s="0"/>
-      <c r="L37" s="13" t="s">
+      <c r="L37" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N37" s="13" t="s">
+      <c r="N37" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O37" s="3" t="s">
@@ -5086,25 +5230,25 @@
       </c>
       <c r="X37" s="0"/>
       <c r="Y37" s="0"/>
-      <c r="Z37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD37" s="13"/>
+      <c r="Z37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD37" s="15"/>
       <c r="AE37" s="0"/>
       <c r="AF37" s="0"/>
-      <c r="AG37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH37" s="13" t="s">
+      <c r="AG37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH37" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI37" s="3" t="s">
@@ -5134,19 +5278,26 @@
       <c r="AW37" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AX37" s="13" t="s">
+      <c r="AX37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ37" s="0"/>
+      <c r="BB37" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
+      <c r="A38" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="3" t="s">
         <v>6</v>
       </c>
@@ -5164,13 +5315,13 @@
       </c>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N38" s="13" t="s">
+      <c r="N38" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O38" s="0"/>
@@ -5196,19 +5347,19 @@
       </c>
       <c r="X38" s="0"/>
       <c r="Y38" s="0"/>
-      <c r="Z38" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA38" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB38" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC38" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD38" s="13" t="s">
+      <c r="Z38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD38" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE38" s="0"/>
@@ -5216,10 +5367,10 @@
       <c r="AG38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH38" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI38" s="13"/>
+      <c r="AH38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI38" s="15"/>
       <c r="AK38" s="0" t="s">
         <v>6</v>
       </c>
@@ -5238,7 +5389,7 @@
       <c r="AR38" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AU38" s="13" t="s">
+      <c r="AU38" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AW38" s="0" t="s">
@@ -5247,15 +5398,16 @@
       <c r="AX38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY38" s="0" t="s">
-        <v>7</v>
-      </c>
+      <c r="AY38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
+      <c r="A39" s="11" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="0"/>
@@ -5277,13 +5429,13 @@
       </c>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
-      <c r="L39" s="13" t="s">
+      <c r="L39" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N39" s="13" t="s">
+      <c r="N39" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O39" s="3" t="s">
@@ -5311,19 +5463,19 @@
       </c>
       <c r="X39" s="0"/>
       <c r="Y39" s="0"/>
-      <c r="Z39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC39" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD39" s="13" t="s">
+      <c r="Z39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD39" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE39" s="0"/>
@@ -5331,10 +5483,10 @@
       <c r="AG39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH39" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI39" s="13"/>
+      <c r="AH39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI39" s="15"/>
       <c r="AK39" s="0" t="s">
         <v>6</v>
       </c>
@@ -5362,15 +5514,16 @@
       <c r="AX39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY39" s="0" t="s">
-        <v>6</v>
-      </c>
+      <c r="AY39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
+      <c r="A40" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="31" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="0"/>
@@ -5392,13 +5545,13 @@
       </c>
       <c r="J40" s="0"/>
       <c r="K40" s="0"/>
-      <c r="L40" s="13" t="s">
+      <c r="L40" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N40" s="13" t="s">
+      <c r="N40" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O40" s="3" t="s">
@@ -5426,19 +5579,19 @@
       </c>
       <c r="X40" s="0"/>
       <c r="Y40" s="0"/>
-      <c r="Z40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD40" s="13" t="s">
+      <c r="Z40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD40" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE40" s="0"/>
@@ -5446,7 +5599,7 @@
       <c r="AG40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH40" s="13" t="s">
+      <c r="AH40" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI40" s="3" t="s">
@@ -5474,15 +5627,19 @@
       <c r="AX40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY40" s="0" t="s">
+      <c r="AY40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ40" s="0"/>
+      <c r="BB40" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
+      <c r="A41" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="31" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="0"/>
@@ -5504,13 +5661,13 @@
       </c>
       <c r="J41" s="0"/>
       <c r="K41" s="0"/>
-      <c r="L41" s="13" t="s">
+      <c r="L41" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N41" s="13"/>
+      <c r="N41" s="15"/>
       <c r="O41" s="3" t="s">
         <v>6</v>
       </c>
@@ -5534,27 +5691,27 @@
       </c>
       <c r="X41" s="0"/>
       <c r="Y41" s="0"/>
-      <c r="Z41" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA41" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB41" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC41" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD41" s="13" t="s">
+      <c r="Z41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD41" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE41" s="0"/>
       <c r="AF41" s="0"/>
-      <c r="AG41" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH41" s="13" t="s">
+      <c r="AG41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH41" s="15" t="s">
         <v>7</v>
       </c>
       <c r="AI41" s="3" t="s">
@@ -5585,15 +5742,19 @@
       <c r="AX41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY41" s="0" t="s">
+      <c r="AY41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ41" s="0"/>
+      <c r="BB41" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="n">
+      <c r="A42" s="11" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="0"/>
@@ -5615,13 +5776,13 @@
       </c>
       <c r="J42" s="0"/>
       <c r="K42" s="0"/>
-      <c r="L42" s="13" t="s">
+      <c r="L42" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N42" s="13" t="s">
+      <c r="N42" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O42" s="0"/>
@@ -5647,22 +5808,22 @@
       </c>
       <c r="X42" s="0"/>
       <c r="Y42" s="0"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13" t="s">
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE42" s="0"/>
       <c r="AF42" s="0"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI42" s="13"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI42" s="15"/>
       <c r="AN42" s="3" t="s">
         <v>7</v>
       </c>
@@ -5687,9 +5848,11 @@
       <c r="AX42" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AY42" s="0"/>
+      <c r="AZ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
+      <c r="A43" s="11" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -5712,13 +5875,13 @@
       </c>
       <c r="J43" s="0"/>
       <c r="K43" s="0"/>
-      <c r="L43" s="13" t="s">
+      <c r="L43" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N43" s="13" t="s">
+      <c r="N43" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O43" s="3" t="s">
@@ -5742,17 +5905,17 @@
       </c>
       <c r="X43" s="0"/>
       <c r="Y43" s="0"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD43" s="13" t="s">
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB43" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC43" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD43" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE43" s="0"/>
@@ -5760,7 +5923,7 @@
       <c r="AG43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH43" s="13" t="s">
+      <c r="AH43" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI43" s="3" t="s">
@@ -5790,15 +5953,19 @@
       <c r="AW43" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="AX43" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY43" s="0" t="s">
+      <c r="AX43" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ43" s="0"/>
+      <c r="BB43" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
+      <c r="A44" s="11" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -5827,7 +5994,7 @@
       <c r="M44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N44" s="13" t="s">
+      <c r="N44" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O44" s="3" t="s">
@@ -5855,11 +6022,11 @@
       </c>
       <c r="X44" s="0"/>
       <c r="Y44" s="0"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13" t="s">
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15" t="s">
         <v>7</v>
       </c>
       <c r="AE44" s="0"/>
@@ -5867,7 +6034,7 @@
       <c r="AG44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH44" s="13" t="s">
+      <c r="AH44" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI44" s="3" t="s">
@@ -5897,12 +6064,16 @@
       <c r="AX44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY44" s="0" t="s">
+      <c r="AY44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ44" s="0"/>
+      <c r="BB44" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
+      <c r="A45" s="11" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -5929,7 +6100,7 @@
       <c r="M45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N45" s="13" t="s">
+      <c r="N45" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O45" s="3" t="s">
@@ -5957,19 +6128,19 @@
       </c>
       <c r="X45" s="0"/>
       <c r="Y45" s="0"/>
-      <c r="Z45" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA45" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB45" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC45" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD45" s="13" t="s">
+      <c r="Z45" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA45" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB45" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC45" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD45" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AE45" s="0"/>
@@ -5977,7 +6148,7 @@
       <c r="AG45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH45" s="13" t="s">
+      <c r="AH45" s="15" t="s">
         <v>6</v>
       </c>
       <c r="AI45" s="3" t="s">
@@ -6007,12 +6178,16 @@
       <c r="AX45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY45" s="0" t="s">
+      <c r="AY45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ45" s="0"/>
+      <c r="BB45" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
+      <c r="A46" s="11" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -6033,11 +6208,11 @@
       </c>
       <c r="J46" s="0"/>
       <c r="K46" s="0"/>
-      <c r="L46" s="13"/>
+      <c r="L46" s="15"/>
       <c r="M46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N46" s="13" t="s">
+      <c r="N46" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O46" s="3" t="s">
@@ -6065,23 +6240,23 @@
       </c>
       <c r="X46" s="0"/>
       <c r="Y46" s="0"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD46" s="13"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB46" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC46" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD46" s="15"/>
       <c r="AE46" s="0"/>
       <c r="AF46" s="0"/>
       <c r="AG46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH46" s="13" t="s">
+      <c r="AH46" s="15" t="s">
         <v>7</v>
       </c>
       <c r="AI46" s="3" t="s">
@@ -6112,12 +6287,16 @@
       <c r="AX46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AY46" s="0" t="s">
-        <v>7</v>
+      <c r="AY46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ46" s="0"/>
+      <c r="BB46" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
+      <c r="A47" s="11" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -6223,12 +6402,16 @@
       <c r="AX47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY47" s="0" t="s">
+      <c r="AY47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ47" s="0"/>
+      <c r="BB47" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
+      <c r="A48" s="11" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -6292,7 +6475,7 @@
       </c>
       <c r="AE48" s="0"/>
       <c r="AF48" s="0"/>
-      <c r="AG48" s="13"/>
+      <c r="AG48" s="15"/>
       <c r="AH48" s="3" t="s">
         <v>6</v>
       </c>
@@ -6323,113 +6506,119 @@
       <c r="AX48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY48" s="0" t="s">
-        <v>7</v>
+      <c r="AY48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ48" s="0"/>
+      <c r="BB48" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="49" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="n">
+    <row r="49" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="16" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="N49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="O49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="P49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="T49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="U49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="V49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="W49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA49" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE49" s="18"/>
-      <c r="AF49" s="18"/>
-      <c r="AG49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI49" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK49" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN49" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO49" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ49" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU49" s="20"/>
-      <c r="AX49" s="20"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="U49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="V49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="W49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA49" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="20"/>
+      <c r="AG49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN49" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO49" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ49" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU49" s="22"/>
+      <c r="AX49" s="22"/>
+      <c r="AY49" s="22"/>
+      <c r="AZ49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="n">
+      <c r="A50" s="11" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -6519,12 +6708,15 @@
       <c r="AX50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AY50" s="0" t="s">
+      <c r="AY50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB50" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
+      <c r="A51" s="11" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -6589,6 +6781,9 @@
       </c>
       <c r="AX51" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="BB51" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY38" activeCellId="0" sqref="AY38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BB39" activeCellId="0" sqref="BB39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.030612244898"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -651,10 +651,11 @@
     <col collapsed="false" hidden="true" max="47" min="47" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="49" min="48" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="50" min="50" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="4" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="3" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="55" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,6 +5403,9 @@
         <v>7</v>
       </c>
       <c r="AZ38" s="0"/>
+      <c r="BB38" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -5518,6 +5522,9 @@
         <v>6</v>
       </c>
       <c r="AZ39" s="0"/>
+      <c r="BB39" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="79">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Saeeda Ramzan</t>
@@ -635,14 +638,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BB39" activeCellId="0" sqref="BB39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BC44" activeCellId="0" sqref="BC44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="28.6173469387755"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -650,12 +653,11 @@
     <col collapsed="false" hidden="true" max="46" min="44" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="47" min="47" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="49" min="48" style="0" width="0"/>
-    <col collapsed="false" hidden="true" max="50" min="50" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="3" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="55" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="true" max="51" min="50" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="52" min="52" style="4" width="0"/>
+    <col collapsed="false" hidden="true" max="54" min="53" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="35.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="56" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,6 +1147,9 @@
       </c>
       <c r="AZ2" s="0"/>
       <c r="BB2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC2" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1386,6 +1391,9 @@
       <c r="BB4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1502,6 +1510,9 @@
       </c>
       <c r="AY5" s="0"/>
       <c r="AZ5" s="0"/>
+      <c r="BC5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1616,6 +1627,9 @@
       <c r="BB6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -1741,6 +1755,9 @@
       <c r="BB7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC7" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -1864,6 +1881,9 @@
       </c>
       <c r="AZ8" s="0"/>
       <c r="BB8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC8" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1970,6 +1990,9 @@
         <v>7</v>
       </c>
       <c r="AZ9" s="0"/>
+      <c r="BC9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2218,6 +2241,9 @@
       <c r="BB11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2343,6 +2369,9 @@
       <c r="BB12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -2458,6 +2487,9 @@
       <c r="BB13" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BC13" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -2569,6 +2601,9 @@
         <v>6</v>
       </c>
       <c r="AZ14" s="0"/>
+      <c r="BC14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -2683,6 +2718,9 @@
       <c r="BB15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -2808,6 +2846,9 @@
       <c r="BB16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC16" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -2931,6 +2972,9 @@
       <c r="BB17" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC17" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -3054,6 +3098,9 @@
       </c>
       <c r="AZ18" s="0"/>
       <c r="BB18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC18" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3264,6 +3311,9 @@
       <c r="BB20" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC20" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -3377,6 +3427,9 @@
       <c r="AZ21" s="0"/>
       <c r="BB21" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BC21" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,16 +3632,19 @@
       <c r="BB23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC23" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>33</v>
@@ -3703,6 +3759,9 @@
       <c r="AZ24" s="0"/>
       <c r="BB24" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BC24" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3710,10 +3769,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="29" t="s">
         <v>33</v>
@@ -3827,6 +3886,9 @@
       </c>
       <c r="AZ25" s="0"/>
       <c r="BB25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC25" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3835,10 +3897,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>30</v>
@@ -3949,19 +4011,22 @@
       <c r="BB26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -4073,6 +4138,9 @@
       <c r="AZ27" s="0"/>
       <c r="BB27" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="BC27" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,10 +4148,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>33</v>
@@ -4195,6 +4263,9 @@
       </c>
       <c r="AZ28" s="0"/>
       <c r="BB28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC28" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4203,10 +4274,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>33</v>
@@ -4321,6 +4392,9 @@
       <c r="AZ29" s="0"/>
       <c r="BB29" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BC29" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4328,13 +4402,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -4446,6 +4520,9 @@
       <c r="AZ30" s="0"/>
       <c r="BB30" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BC30" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4453,13 +4530,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -4570,6 +4647,9 @@
       </c>
       <c r="AZ31" s="0"/>
       <c r="BB31" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC31" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4578,10 +4658,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>33</v>
@@ -4703,13 +4783,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -4826,13 +4906,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -4934,16 +5014,19 @@
       <c r="BB34" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC34" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>30</v>
@@ -5049,16 +5132,19 @@
       <c r="BB35" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC35" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>30</v>
@@ -5168,6 +5254,9 @@
       </c>
       <c r="AZ36" s="0"/>
       <c r="BB36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC36" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5176,7 +5265,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
@@ -5289,13 +5378,16 @@
       <c r="BB37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="39"/>
@@ -5404,6 +5496,9 @@
       </c>
       <c r="AZ38" s="0"/>
       <c r="BB38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC38" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5412,7 +5507,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" s="0"/>
       <c r="D39" s="0"/>
@@ -5523,6 +5618,9 @@
       </c>
       <c r="AZ39" s="0"/>
       <c r="BB39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC39" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5531,7 +5629,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C40" s="0"/>
       <c r="D40" s="0"/>
@@ -5639,6 +5737,9 @@
       </c>
       <c r="AZ40" s="0"/>
       <c r="BB40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC40" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5647,7 +5748,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C41" s="0"/>
       <c r="D41" s="0"/>
@@ -5754,6 +5855,9 @@
       </c>
       <c r="AZ41" s="0"/>
       <c r="BB41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC41" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5762,7 +5866,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" s="0"/>
@@ -5857,13 +5961,16 @@
       </c>
       <c r="AY42" s="0"/>
       <c r="AZ42" s="0"/>
+      <c r="BC42" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C43" s="0"/>
       <c r="D43" s="0"/>
@@ -5970,13 +6077,16 @@
       <c r="BB43" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC43" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C44" s="0"/>
       <c r="D44" s="0"/>
@@ -6078,13 +6188,16 @@
       <c r="BB44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C45" s="0"/>
       <c r="D45" s="0"/>
@@ -6192,13 +6305,16 @@
       <c r="BB45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" s="0"/>
@@ -6307,7 +6423,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C47" s="0"/>
       <c r="D47" s="0"/>
@@ -6416,13 +6532,16 @@
       <c r="BB47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C48" s="0"/>
       <c r="D48" s="0"/>
@@ -6520,13 +6639,16 @@
       <c r="BB48" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BC48" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C49" s="41"/>
       <c r="D49" s="41"/>
@@ -6629,7 +6751,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>6</v>
@@ -6719,6 +6841,9 @@
         <v>6</v>
       </c>
       <c r="BB50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC50" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6727,7 +6852,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>6</v>
@@ -6790,6 +6915,9 @@
         <v>7</v>
       </c>
       <c r="BB51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC51" s="0" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t xml:space="preserve">PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Saeeda Ramzan</t>
@@ -638,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BC44" activeCellId="0" sqref="BC44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BC24" activeCellId="0" sqref="BC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="27.8061224489796"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -656,8 +653,7 @@
     <col collapsed="false" hidden="true" max="51" min="50" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="52" min="52" style="4" width="0"/>
     <col collapsed="false" hidden="true" max="54" min="53" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="35.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="56" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="34.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,7 +3629,7 @@
         <v>6</v>
       </c>
       <c r="BC23" s="0" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,10 +3637,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>35</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>36</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>33</v>
@@ -3769,10 +3765,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="D25" s="29" t="s">
         <v>33</v>
@@ -3897,10 +3893,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>40</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>30</v>
@@ -4020,13 +4016,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="D27" s="33" t="s">
         <v>42</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>43</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -4148,10 +4144,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>44</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>45</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>33</v>
@@ -4274,10 +4270,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>46</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>47</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>33</v>
@@ -4402,13 +4398,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="D30" s="33" t="s">
         <v>49</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>50</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -4530,13 +4526,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="D31" s="33" t="s">
         <v>52</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>53</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -4658,10 +4654,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>54</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>55</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>33</v>
@@ -4776,6 +4772,9 @@
       <c r="AZ32" s="0"/>
       <c r="BB32" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BC32" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4783,13 +4782,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="35" t="s">
-        <v>57</v>
-      </c>
       <c r="D33" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -4899,6 +4898,9 @@
       <c r="AZ33" s="0"/>
       <c r="BB33" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BC33" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4906,13 +4908,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="28" t="s">
-        <v>59</v>
-      </c>
       <c r="D34" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -5023,10 +5025,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>61</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>30</v>
@@ -5141,10 +5143,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="28" t="s">
         <v>62</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>63</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>30</v>
@@ -5265,7 +5267,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
@@ -5387,7 +5389,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="39"/>
@@ -5507,7 +5509,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="0"/>
       <c r="D39" s="0"/>
@@ -5629,7 +5631,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="0"/>
       <c r="D40" s="0"/>
@@ -5748,7 +5750,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="0"/>
       <c r="D41" s="0"/>
@@ -5866,7 +5868,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" s="0"/>
@@ -5970,7 +5972,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="0"/>
       <c r="D43" s="0"/>
@@ -6086,7 +6088,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="0"/>
       <c r="D44" s="0"/>
@@ -6197,7 +6199,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="0"/>
       <c r="D45" s="0"/>
@@ -6314,7 +6316,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" s="0"/>
@@ -6423,7 +6425,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="0"/>
       <c r="D47" s="0"/>
@@ -6541,7 +6543,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="0"/>
       <c r="D48" s="0"/>
@@ -6648,7 +6650,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="41"/>
       <c r="D49" s="41"/>
@@ -6751,7 +6753,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>6</v>
@@ -6852,7 +6854,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>6</v>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BC24" activeCellId="0" sqref="BC24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BD1" activeCellId="0" sqref="BD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="27.2704081632653"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -652,8 +652,9 @@
     <col collapsed="false" hidden="true" max="49" min="48" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="51" min="50" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="52" min="52" style="4" width="0"/>
-    <col collapsed="false" hidden="true" max="54" min="53" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="true" max="55" min="53" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="3" width="39.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="57" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,6 +1149,9 @@
       <c r="BC2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1262,6 +1266,9 @@
       </c>
       <c r="AY3" s="0"/>
       <c r="AZ3" s="0"/>
+      <c r="BD3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1390,6 +1397,9 @@
       <c r="BC4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1509,6 +1519,9 @@
       <c r="BC5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1626,6 +1639,9 @@
       <c r="BC6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD6" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -1754,6 +1770,9 @@
       <c r="BC7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -1881,6 +1900,9 @@
       </c>
       <c r="BC8" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BD8" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,6 +2011,9 @@
       <c r="BC9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD9" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2112,6 +2137,9 @@
       <c r="BB10" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD10" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2240,6 +2268,9 @@
       <c r="BC11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD11" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2368,6 +2399,9 @@
       <c r="BC12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD12" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -2486,6 +2520,9 @@
       <c r="BC13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD13" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -2600,6 +2637,9 @@
       <c r="BC14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD14" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -2717,6 +2757,9 @@
       <c r="BC15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD15" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -2845,6 +2888,9 @@
       <c r="BC16" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BD16" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -2971,6 +3017,9 @@
       <c r="BC17" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD17" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -3099,6 +3148,9 @@
       <c r="BC18" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BD18" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="n">
@@ -3184,6 +3236,7 @@
       <c r="AX19" s="22"/>
       <c r="AY19" s="22"/>
       <c r="AZ19" s="23"/>
+      <c r="BD19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
@@ -3310,6 +3363,9 @@
       <c r="BC20" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD20" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -3426,6 +3482,9 @@
       </c>
       <c r="BC21" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="BD21" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,6 +3569,7 @@
       <c r="AX22" s="22"/>
       <c r="AY22" s="22"/>
       <c r="AZ22" s="23"/>
+      <c r="BD22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="n">
@@ -3631,6 +3691,9 @@
       <c r="BC23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD23" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -3759,6 +3822,9 @@
       <c r="BC24" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BD24" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -3887,6 +3953,9 @@
       <c r="BC25" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD25" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -4010,6 +4079,9 @@
       <c r="BC26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD26" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -4138,6 +4210,9 @@
       <c r="BC27" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD27" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -4264,6 +4339,9 @@
       <c r="BC28" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD28" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -4392,6 +4470,9 @@
       <c r="BC29" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BD29" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -4520,6 +4601,9 @@
       <c r="BC30" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BD30" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -4648,6 +4732,9 @@
       <c r="BC31" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD31" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -4776,6 +4863,9 @@
       <c r="BC32" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BD32" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -4902,6 +4992,9 @@
       <c r="BC33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BD33" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -5017,6 +5110,9 @@
         <v>6</v>
       </c>
       <c r="BC34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5137,6 +5233,9 @@
       <c r="BC35" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD35" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -5261,6 +5360,9 @@
       <c r="BC36" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BD36" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -5383,6 +5485,9 @@
       <c r="BC37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD37" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -5503,6 +5608,9 @@
       <c r="BC38" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD38" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -5625,6 +5733,9 @@
       <c r="BC39" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD39" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -5744,6 +5855,9 @@
       <c r="BC40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD40" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -5862,6 +5976,9 @@
       <c r="BC41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD41" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -5966,6 +6083,9 @@
       <c r="BC42" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD42" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
@@ -6081,6 +6201,9 @@
       </c>
       <c r="BC43" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BD43" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6193,6 +6316,9 @@
       <c r="BC44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD44" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -6310,6 +6436,9 @@
       <c r="BC45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD45" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -6419,6 +6548,9 @@
       <c r="BB46" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD46" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -6537,6 +6669,9 @@
       <c r="BC47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD47" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -6644,6 +6779,9 @@
       <c r="BC48" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BD48" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="n">
@@ -6747,6 +6885,7 @@
       <c r="AX49" s="22"/>
       <c r="AY49" s="22"/>
       <c r="AZ49" s="23"/>
+      <c r="BD49" s="22"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="n">
@@ -6846,6 +6985,9 @@
         <v>6</v>
       </c>
       <c r="BC50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD50" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BD1" activeCellId="0" sqref="BD1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BE24" activeCellId="0" sqref="BE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="26.4591836734694"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -653,8 +653,8 @@
     <col collapsed="false" hidden="true" max="51" min="50" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="52" min="52" style="4" width="0"/>
     <col collapsed="false" hidden="true" max="55" min="53" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="3" width="39.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="57" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="31.7244897959184"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,6 +1152,9 @@
       <c r="BD2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1269,6 +1272,9 @@
       <c r="BD3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1400,6 +1406,9 @@
       <c r="BD4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1522,6 +1531,9 @@
       <c r="BD5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1642,6 +1654,9 @@
       <c r="BD6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE6" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -1773,6 +1788,9 @@
       <c r="BD7" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE7" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -1903,6 +1921,9 @@
       </c>
       <c r="BD8" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="BE8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,6 +2035,9 @@
       <c r="BD9" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE9" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2402,6 +2426,9 @@
       <c r="BD12" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -2523,6 +2550,9 @@
       <c r="BD13" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE13" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -2640,6 +2670,9 @@
       <c r="BD14" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -2760,6 +2793,9 @@
       <c r="BD15" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -2891,6 +2927,9 @@
       <c r="BD16" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3020,6 +3059,9 @@
       <c r="BD17" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE17" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -3149,6 +3191,9 @@
         <v>7</v>
       </c>
       <c r="BD18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE18" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3366,6 +3411,9 @@
       <c r="BD20" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BE20" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -3485,6 +3533,9 @@
       </c>
       <c r="BD21" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="BE21" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3694,6 +3745,9 @@
       <c r="BD23" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -3825,6 +3879,9 @@
       <c r="BD24" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BE24" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -3956,6 +4013,9 @@
       <c r="BD25" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BE25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -4082,6 +4142,9 @@
       <c r="BD26" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -4213,6 +4276,9 @@
       <c r="BD27" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BE27" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -4342,6 +4408,9 @@
       <c r="BD28" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE28" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -4473,6 +4542,9 @@
       <c r="BD29" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -4604,6 +4676,9 @@
       <c r="BD30" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BE30" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -4735,6 +4810,9 @@
       <c r="BD31" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BE31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -4866,6 +4944,9 @@
       <c r="BD32" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE32" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -4995,6 +5076,9 @@
       <c r="BD33" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE33" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -5113,6 +5197,9 @@
         <v>6</v>
       </c>
       <c r="BD34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE34" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5236,6 +5323,9 @@
       <c r="BD35" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BE35" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -5363,6 +5453,9 @@
       <c r="BD36" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BE36" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -5488,6 +5581,9 @@
       <c r="BD37" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -5611,6 +5707,9 @@
       <c r="BD38" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BE38" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -5736,6 +5835,9 @@
       <c r="BD39" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE39" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -5858,6 +5960,9 @@
       <c r="BD40" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -5977,6 +6082,9 @@
         <v>6</v>
       </c>
       <c r="BD41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE41" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6319,6 +6427,9 @@
       <c r="BD44" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -6439,6 +6550,9 @@
       <c r="BD45" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -6551,6 +6665,9 @@
       <c r="BD46" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -6672,6 +6789,9 @@
       <c r="BD47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -6781,6 +6901,9 @@
       </c>
       <c r="BD48" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="BE48" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="49" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6990,6 +7113,9 @@
       <c r="BD50" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -7062,6 +7188,9 @@
         <v>6</v>
       </c>
       <c r="BC51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE51" s="0" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BE24" activeCellId="0" sqref="BE24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BE50" activeCellId="0" sqref="BE50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="26.0510204081633"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -654,7 +654,8 @@
     <col collapsed="false" hidden="true" max="52" min="52" style="4" width="0"/>
     <col collapsed="false" hidden="true" max="55" min="53" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="58" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,6 +2165,9 @@
       <c r="BD10" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BE10" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2293,6 +2297,9 @@
         <v>6</v>
       </c>
       <c r="BD11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE11" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6313,6 +6320,9 @@
       <c r="BD43" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BE43" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -636,13 +636,13 @@
   <dimension ref="A1:DQ51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BE50" activeCellId="0" sqref="BE50"/>
+      <selection pane="topLeft" activeCell="BF53" activeCellId="0" sqref="BF53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.5663265306122"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -654,8 +654,9 @@
     <col collapsed="false" hidden="true" max="52" min="52" style="4" width="0"/>
     <col collapsed="false" hidden="true" max="55" min="53" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="58" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="true" max="57" min="57" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="59" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,6 +1157,9 @@
       <c r="BE2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BF2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1276,6 +1280,9 @@
       <c r="BE3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1410,6 +1417,9 @@
       <c r="BE4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF4" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1535,6 +1545,9 @@
       <c r="BE5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF5" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1658,6 +1671,9 @@
       <c r="BE6" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BF6" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -1792,6 +1808,9 @@
       <c r="BE7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF7" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -1925,6 +1944,9 @@
       </c>
       <c r="BE8" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BF8" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,6 +2061,9 @@
       <c r="BE9" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BF9" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2168,6 +2193,9 @@
       <c r="BE10" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BF10" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2302,6 +2330,9 @@
       <c r="BE11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF11" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2436,6 +2467,9 @@
       <c r="BE12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -2560,6 +2594,9 @@
       <c r="BE13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF13" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -2680,6 +2717,9 @@
       <c r="BE14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF14" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -2803,6 +2843,9 @@
       <c r="BE15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF15" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -2937,6 +2980,9 @@
       <c r="BE16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3069,6 +3115,9 @@
       <c r="BE17" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BF17" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -3202,6 +3251,9 @@
       </c>
       <c r="BE18" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="BF18" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,6 +3473,9 @@
       <c r="BE20" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF20" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -3542,6 +3597,9 @@
         <v>6</v>
       </c>
       <c r="BE21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF21" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3755,6 +3813,9 @@
       <c r="BE23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF23" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -3889,6 +3950,9 @@
       <c r="BE24" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BF24" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -4023,6 +4087,9 @@
       <c r="BE25" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF25" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -4152,6 +4219,9 @@
       <c r="BE26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -4286,6 +4356,9 @@
       <c r="BE27" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -4418,6 +4491,9 @@
       <c r="BE28" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF28" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -4552,6 +4628,9 @@
       <c r="BE29" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF29" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -4686,6 +4765,9 @@
       <c r="BE30" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BF30" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -4820,6 +4902,9 @@
       <c r="BE31" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BF31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -4954,6 +5039,9 @@
       <c r="BE32" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF32" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -5086,6 +5174,9 @@
       <c r="BE33" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF33" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -5207,6 +5298,9 @@
         <v>6</v>
       </c>
       <c r="BE34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF34" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5333,6 +5427,9 @@
       <c r="BE35" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BF35" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -5463,6 +5560,9 @@
       <c r="BE36" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BF36" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -5591,6 +5691,9 @@
       <c r="BE37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -5717,6 +5820,9 @@
       <c r="BE38" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -5845,6 +5951,9 @@
       <c r="BE39" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF39" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -5970,6 +6079,9 @@
       <c r="BE40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -6094,6 +6206,9 @@
       <c r="BE41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF41" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -6201,6 +6316,9 @@
       <c r="BD42" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BF42" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
@@ -6322,6 +6440,9 @@
       </c>
       <c r="BE43" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="BF43" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6440,6 +6561,9 @@
       <c r="BE44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF44" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -6563,6 +6687,9 @@
       <c r="BE45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF45" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -6678,6 +6805,9 @@
       <c r="BE46" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BF46" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -6802,6 +6932,9 @@
       <c r="BE47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -6913,6 +7046,9 @@
         <v>6</v>
       </c>
       <c r="BE48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF48" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7126,6 +7262,9 @@
       <c r="BE50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BF50" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -7202,6 +7341,9 @@
       </c>
       <c r="BE51" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BF51" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -636,13 +636,13 @@
   <dimension ref="A1:DQ51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BF53" activeCellId="0" sqref="BF53"/>
+      <selection pane="topLeft" activeCell="BF45" activeCellId="0" sqref="BF45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.3010204081633"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -655,8 +655,8 @@
     <col collapsed="false" hidden="true" max="55" min="53" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="57" min="57" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="59" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="59" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,7 +2331,7 @@
         <v>6</v>
       </c>
       <c r="BF11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BF45" activeCellId="0" sqref="BF45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BI52" activeCellId="0" sqref="BI52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.8928571428571"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -654,9 +654,8 @@
     <col collapsed="false" hidden="true" max="52" min="52" style="4" width="0"/>
     <col collapsed="false" hidden="true" max="55" min="53" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="57" min="57" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="59" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="3" width="39.734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,6 +1159,9 @@
       <c r="BF2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BI2" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1283,6 +1285,7 @@
       <c r="BF3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BI3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1420,6 +1423,9 @@
       <c r="BF4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI4" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1548,6 +1554,7 @@
       <c r="BF5" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1674,6 +1681,9 @@
       <c r="BF6" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI6" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -1811,6 +1821,9 @@
       <c r="BF7" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI7" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -1947,6 +1960,9 @@
       </c>
       <c r="BF8" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="BI8" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2064,6 +2080,9 @@
       <c r="BF9" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI9" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2196,6 +2215,9 @@
       <c r="BF10" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BI10" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2333,6 +2355,9 @@
       <c r="BF11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BI11" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2470,6 +2495,9 @@
       <c r="BF12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BI12" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -2597,6 +2625,9 @@
       <c r="BF13" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI13" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -2720,6 +2751,9 @@
       <c r="BF14" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI14" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -2846,6 +2880,7 @@
       <c r="BF15" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -2983,6 +3018,9 @@
       <c r="BF16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BI16" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3118,6 +3156,9 @@
       <c r="BF17" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BI17" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -3253,6 +3294,9 @@
         <v>7</v>
       </c>
       <c r="BF18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI18" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3341,6 +3385,7 @@
       <c r="AY19" s="22"/>
       <c r="AZ19" s="23"/>
       <c r="BD19" s="22"/>
+      <c r="BI19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
@@ -3476,6 +3521,9 @@
       <c r="BF20" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI20" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -3601,6 +3649,9 @@
       </c>
       <c r="BF21" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="BI21" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,6 +3737,7 @@
       <c r="AY22" s="22"/>
       <c r="AZ22" s="23"/>
       <c r="BD22" s="22"/>
+      <c r="BI22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="n">
@@ -3816,6 +3868,9 @@
       <c r="BF23" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI23" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -3953,6 +4008,9 @@
       <c r="BF24" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI24" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -4090,6 +4148,9 @@
       <c r="BF25" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI25" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -4222,6 +4283,9 @@
       <c r="BF26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BI26" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -4359,6 +4423,9 @@
       <c r="BF27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI27" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -4494,6 +4561,9 @@
       <c r="BF28" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI28" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -4631,6 +4701,9 @@
       <c r="BF29" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI29" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -4768,6 +4841,9 @@
       <c r="BF30" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI30" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -4905,6 +4981,9 @@
       <c r="BF31" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI31" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -5042,6 +5121,9 @@
       <c r="BF32" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BI32" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -5177,6 +5259,9 @@
       <c r="BF33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI33" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -5301,6 +5386,9 @@
         <v>6</v>
       </c>
       <c r="BF34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI34" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5430,6 +5518,9 @@
       <c r="BF35" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI35" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -5563,6 +5654,9 @@
       <c r="BF36" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI36" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -5694,6 +5788,9 @@
       <c r="BF37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BI37" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -5823,6 +5920,7 @@
       <c r="BF38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -5954,6 +6052,9 @@
       <c r="BF39" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI39" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -6082,6 +6183,9 @@
       <c r="BF40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BI40" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -6209,6 +6313,9 @@
       <c r="BF41" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI41" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -6319,6 +6426,7 @@
       <c r="BF42" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
@@ -6442,6 +6550,9 @@
         <v>7</v>
       </c>
       <c r="BF43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI43" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6564,6 +6675,9 @@
       <c r="BF44" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI44" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -6690,6 +6804,9 @@
       <c r="BF45" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI45" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -6808,6 +6925,9 @@
       <c r="BF46" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BI46" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -6935,6 +7055,9 @@
       <c r="BF47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BI47" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -7051,6 +7174,9 @@
       <c r="BF48" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI48" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="n">
@@ -7155,6 +7281,7 @@
       <c r="AY49" s="22"/>
       <c r="AZ49" s="23"/>
       <c r="BD49" s="22"/>
+      <c r="BI49" s="22"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="n">
@@ -7265,6 +7392,9 @@
       <c r="BF50" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BI50" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -7344,6 +7474,9 @@
       </c>
       <c r="BF51" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="BI51" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BI52" activeCellId="0" sqref="BI52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BI1" activeCellId="0" sqref="BI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.4897959183673"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -655,7 +655,8 @@
     <col collapsed="false" hidden="true" max="55" min="53" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="3" width="39.734693877551"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="3" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="62" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,7 +2881,9 @@
       <c r="BF15" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="BI15" s="15"/>
+      <c r="BI15" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -5920,7 +5923,9 @@
       <c r="BF38" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="BI38" s="15"/>
+      <c r="BI38" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -7055,9 +7060,7 @@
       <c r="BF47" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="BI47" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="BI47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -636,13 +636,13 @@
   <dimension ref="A1:DQ51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BI1" activeCellId="0" sqref="BI1"/>
+      <selection pane="topLeft" activeCell="BJ5" activeCellId="0" sqref="BJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="22.8112244897959"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -655,8 +655,9 @@
     <col collapsed="false" hidden="true" max="55" min="53" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="3" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="62" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="3" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="3" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="63" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,6 +1164,9 @@
       <c r="BI2" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="BJ2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1286,7 +1290,12 @@
       <c r="BF3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="BI3" s="15"/>
+      <c r="BI3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1427,6 +1436,9 @@
       <c r="BI4" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1555,7 +1567,12 @@
       <c r="BF5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="BI5" s="15"/>
+      <c r="BI5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1685,6 +1702,9 @@
       <c r="BI6" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ6" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -1825,6 +1845,9 @@
       <c r="BI7" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -1964,6 +1987,9 @@
       </c>
       <c r="BI8" s="15" t="s">
         <v>6</v>
+      </c>
+      <c r="BJ8" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2084,6 +2110,9 @@
       <c r="BI9" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ9" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2219,6 +2248,9 @@
       <c r="BI10" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="BJ10" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2359,6 +2391,9 @@
       <c r="BI11" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ11" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2499,6 +2534,9 @@
       <c r="BI12" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ12" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -2629,6 +2667,9 @@
       <c r="BI13" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="BJ13" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -2755,6 +2796,9 @@
       <c r="BI14" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="BJ14" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -2884,6 +2928,9 @@
       <c r="BI15" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ15" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3024,6 +3071,9 @@
       <c r="BI16" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ16" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3162,6 +3212,9 @@
       <c r="BI17" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="BJ17" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -3300,6 +3353,9 @@
         <v>6</v>
       </c>
       <c r="BI18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3389,6 +3445,7 @@
       <c r="AZ19" s="23"/>
       <c r="BD19" s="22"/>
       <c r="BI19" s="22"/>
+      <c r="BJ19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
@@ -3527,6 +3584,9 @@
       <c r="BI20" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ20" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -3654,6 +3714,9 @@
         <v>7</v>
       </c>
       <c r="BI21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3741,6 +3804,7 @@
       <c r="AZ22" s="23"/>
       <c r="BD22" s="22"/>
       <c r="BI22" s="22"/>
+      <c r="BJ22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="n">
@@ -3874,6 +3938,9 @@
       <c r="BI23" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ23" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -4014,6 +4081,9 @@
       <c r="BI24" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ24" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -4154,6 +4224,9 @@
       <c r="BI25" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ25" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -4289,6 +4362,9 @@
       <c r="BI26" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ26" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -4429,6 +4505,9 @@
       <c r="BI27" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ27" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -4567,6 +4646,9 @@
       <c r="BI28" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ28" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -4707,6 +4789,9 @@
       <c r="BI29" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ29" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -4847,6 +4932,9 @@
       <c r="BI30" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="BJ30" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -4987,6 +5075,9 @@
       <c r="BI31" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ31" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -5127,6 +5218,9 @@
       <c r="BI32" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ32" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -5265,6 +5359,9 @@
       <c r="BI33" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ33" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -5392,6 +5489,9 @@
         <v>6</v>
       </c>
       <c r="BI34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5524,6 +5624,9 @@
       <c r="BI35" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ35" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -5660,6 +5763,9 @@
       <c r="BI36" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ36" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -5794,6 +5900,9 @@
       <c r="BI37" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ37" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -5926,6 +6035,9 @@
       <c r="BI38" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ38" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -6060,6 +6172,9 @@
       <c r="BI39" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ39" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -6191,6 +6306,9 @@
       <c r="BI40" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ40" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -6321,6 +6439,9 @@
       <c r="BI41" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ41" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -6432,6 +6553,9 @@
         <v>7</v>
       </c>
       <c r="BI42" s="15"/>
+      <c r="BJ42" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
@@ -6558,6 +6682,9 @@
         <v>6</v>
       </c>
       <c r="BI43" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ43" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6683,6 +6810,9 @@
       <c r="BI44" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ44" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -6812,6 +6942,9 @@
       <c r="BI45" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="BJ45" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -6933,6 +7066,9 @@
       <c r="BI46" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="BJ46" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -7060,7 +7196,12 @@
       <c r="BF47" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="BI47" s="15"/>
+      <c r="BI47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ47" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -7178,6 +7319,9 @@
         <v>7</v>
       </c>
       <c r="BI48" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ48" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7285,6 +7429,7 @@
       <c r="AZ49" s="23"/>
       <c r="BD49" s="22"/>
       <c r="BI49" s="22"/>
+      <c r="BJ49" s="22"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="n">
@@ -7398,6 +7543,9 @@
       <c r="BI50" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BJ50" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -7480,6 +7628,9 @@
       </c>
       <c r="BI51" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="BJ51" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -636,13 +636,13 @@
   <dimension ref="A1:DQ51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BJ5" activeCellId="0" sqref="BJ5"/>
+      <selection pane="topLeft" activeCell="BK9" activeCellId="0" sqref="BK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="22.2755102040816"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -655,9 +655,9 @@
     <col collapsed="false" hidden="true" max="55" min="53" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="3" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="3" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="63" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="64" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,6 +1167,9 @@
       <c r="BJ2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BK2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1296,6 +1299,9 @@
       <c r="BJ3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1439,6 +1445,9 @@
       <c r="BJ4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1573,6 +1582,9 @@
       <c r="BJ5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1705,6 +1717,9 @@
       <c r="BJ6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK6" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -1848,6 +1863,9 @@
       <c r="BJ7" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK7" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -1990,6 +2008,9 @@
       </c>
       <c r="BJ8" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="BK8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,6 +2134,9 @@
       <c r="BJ9" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2251,6 +2275,9 @@
       <c r="BJ10" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BK10" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2394,6 +2421,9 @@
       <c r="BJ11" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2537,6 +2567,9 @@
       <c r="BJ12" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -2670,6 +2703,9 @@
       <c r="BJ13" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BK13" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -2799,6 +2835,9 @@
       <c r="BJ14" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK14" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -2931,6 +2970,9 @@
       <c r="BJ15" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3074,6 +3116,9 @@
       <c r="BJ16" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3215,6 +3260,9 @@
       <c r="BJ17" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK17" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -3356,6 +3404,9 @@
         <v>6</v>
       </c>
       <c r="BJ18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3587,6 +3638,9 @@
       <c r="BJ20" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK20" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -3717,6 +3771,9 @@
         <v>6</v>
       </c>
       <c r="BJ21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK21" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3941,6 +3998,9 @@
       <c r="BJ23" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -4084,6 +4144,9 @@
       <c r="BJ24" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -4227,6 +4290,9 @@
       <c r="BJ25" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -4365,6 +4431,9 @@
       <c r="BJ26" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BK26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -4508,6 +4577,9 @@
       <c r="BJ27" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -4649,6 +4721,9 @@
       <c r="BJ28" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK28" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -4792,6 +4867,9 @@
       <c r="BJ29" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -4935,6 +5013,9 @@
       <c r="BJ30" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -5078,6 +5159,9 @@
       <c r="BJ31" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK31" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -5221,6 +5305,9 @@
       <c r="BJ32" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK32" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -5362,6 +5449,9 @@
       <c r="BJ33" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK33" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -5492,6 +5582,9 @@
         <v>6</v>
       </c>
       <c r="BJ34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK34" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5627,6 +5720,9 @@
       <c r="BJ35" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK35" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -5766,6 +5862,9 @@
       <c r="BJ36" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BK36" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -5903,6 +6002,9 @@
       <c r="BJ37" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -6038,6 +6140,9 @@
       <c r="BJ38" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -6175,6 +6280,9 @@
       <c r="BJ39" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK39" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -6309,6 +6417,9 @@
       <c r="BJ40" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -6442,6 +6553,9 @@
       <c r="BJ41" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK41" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -6556,6 +6670,9 @@
       <c r="BJ42" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BK42" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
@@ -6685,6 +6802,9 @@
         <v>6</v>
       </c>
       <c r="BJ43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK43" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6813,6 +6933,9 @@
       <c r="BJ44" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -6945,6 +7068,9 @@
       <c r="BJ45" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -7069,6 +7195,9 @@
       <c r="BJ46" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="BK46" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -7202,6 +7331,9 @@
       <c r="BJ47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -7322,6 +7454,9 @@
         <v>7</v>
       </c>
       <c r="BJ48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK48" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7546,6 +7681,9 @@
       <c r="BJ50" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="BK50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -7630,6 +7768,9 @@
         <v>6</v>
       </c>
       <c r="BJ51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK51" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BK9" activeCellId="0" sqref="BK9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BL51" activeCellId="0" sqref="BL51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.734693877551"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -656,8 +656,9 @@
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="64" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,6 +1171,9 @@
       <c r="BK2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BL2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1302,6 +1306,9 @@
       <c r="BK3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1448,6 +1455,9 @@
       <c r="BK4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1585,6 +1595,9 @@
       <c r="BK5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1720,6 +1733,9 @@
       <c r="BK6" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BL6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -1866,6 +1882,9 @@
       <c r="BK7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL7" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -2010,6 +2029,9 @@
         <v>7</v>
       </c>
       <c r="BK8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL8" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2137,6 +2159,9 @@
       <c r="BK9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2278,6 +2303,9 @@
       <c r="BK10" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BL10" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2424,6 +2452,9 @@
       <c r="BK11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2570,6 +2601,9 @@
       <c r="BK12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -2706,6 +2740,9 @@
       <c r="BK13" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BL13" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -2838,6 +2875,9 @@
       <c r="BK14" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BL14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -2973,6 +3013,9 @@
       <c r="BK15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3119,6 +3162,9 @@
       <c r="BK16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3263,6 +3309,9 @@
       <c r="BK17" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL17" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -3407,6 +3456,9 @@
         <v>6</v>
       </c>
       <c r="BK18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3641,6 +3693,9 @@
       <c r="BK20" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL20" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -3775,6 +3830,9 @@
       </c>
       <c r="BK21" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BL21" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4001,6 +4059,9 @@
       <c r="BK23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL23" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -4147,6 +4208,9 @@
       <c r="BK24" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -4293,6 +4357,9 @@
       <c r="BK25" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -4434,6 +4501,9 @@
       <c r="BK26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -4580,6 +4650,9 @@
       <c r="BK27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BL27" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -4724,6 +4797,9 @@
       <c r="BK28" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL28" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -4870,6 +4946,9 @@
       <c r="BK29" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -5016,6 +5095,9 @@
       <c r="BK30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -5162,6 +5244,9 @@
       <c r="BK31" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL31" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -5308,6 +5393,9 @@
       <c r="BK32" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL32" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -5452,6 +5540,9 @@
       <c r="BK33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BL33" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -5585,6 +5676,9 @@
         <v>6</v>
       </c>
       <c r="BK34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL34" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5723,6 +5817,9 @@
       <c r="BK35" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL35" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -5865,6 +5962,9 @@
       <c r="BK36" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL36" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -6005,6 +6105,9 @@
       <c r="BK37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -6143,6 +6246,9 @@
       <c r="BK38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BL38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -6283,6 +6389,9 @@
       <c r="BK39" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL39" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -6420,6 +6529,9 @@
       <c r="BK40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -6556,6 +6668,9 @@
       <c r="BK41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL41" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -6673,6 +6788,9 @@
       <c r="BK42" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BL42" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
@@ -6805,6 +6923,9 @@
         <v>6</v>
       </c>
       <c r="BK43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL43" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6936,6 +7057,9 @@
       <c r="BK44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -7071,6 +7195,9 @@
       <c r="BK45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -7198,6 +7325,9 @@
       <c r="BK46" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -7334,6 +7464,9 @@
       <c r="BK47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -7457,6 +7590,9 @@
         <v>7</v>
       </c>
       <c r="BK48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL48" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7684,6 +7820,9 @@
       <c r="BK50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BL50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -7772,6 +7911,9 @@
       </c>
       <c r="BK51" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="BL51" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BL51" activeCellId="0" sqref="BL51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BM38" activeCellId="0" sqref="BM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.1938775510204"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -656,9 +656,9 @@
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="64" min="63" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="66" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,6 +1174,9 @@
       <c r="BL2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BM2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1309,6 +1312,9 @@
       <c r="BL3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1458,6 +1464,9 @@
       <c r="BL4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1598,6 +1607,9 @@
       <c r="BL5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1736,6 +1748,9 @@
       <c r="BL6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -1885,6 +1900,9 @@
       <c r="BL7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM7" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -2033,6 +2051,9 @@
       </c>
       <c r="BL8" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BM8" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2162,6 +2183,9 @@
       <c r="BL9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM9" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2306,6 +2330,9 @@
       <c r="BL10" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BM10" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2455,6 +2482,9 @@
       <c r="BL11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2604,6 +2634,9 @@
       <c r="BL12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -2743,6 +2776,9 @@
       <c r="BL13" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BM13" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -2878,6 +2914,9 @@
       <c r="BL14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM14" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3016,6 +3055,9 @@
       <c r="BL15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3165,6 +3207,9 @@
       <c r="BL16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3312,6 +3357,9 @@
       <c r="BL17" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BM17" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -3459,6 +3507,9 @@
         <v>6</v>
       </c>
       <c r="BL18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3696,6 +3747,9 @@
       <c r="BL20" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BM20" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -3832,6 +3886,9 @@
         <v>6</v>
       </c>
       <c r="BL21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM21" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4062,6 +4119,9 @@
       <c r="BL23" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BM23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -4211,6 +4271,9 @@
       <c r="BL24" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -4360,6 +4423,9 @@
       <c r="BL25" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -4504,6 +4570,9 @@
       <c r="BL26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM26" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -4653,6 +4722,9 @@
       <c r="BL27" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -4800,6 +4872,9 @@
       <c r="BL28" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM28" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -4949,6 +5024,9 @@
       <c r="BL29" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -5098,6 +5176,9 @@
       <c r="BL30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM30" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -5247,6 +5328,9 @@
       <c r="BL31" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -5396,6 +5480,9 @@
       <c r="BL32" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BM32" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -5543,6 +5630,9 @@
       <c r="BL33" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM33" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -5680,6 +5770,9 @@
       </c>
       <c r="BL34" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BM34" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5820,6 +5913,9 @@
       <c r="BL35" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM35" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -5965,6 +6061,9 @@
       <c r="BL36" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM36" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -6108,6 +6207,9 @@
       <c r="BL37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -6249,6 +6351,9 @@
       <c r="BL38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BM38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -6392,6 +6497,9 @@
       <c r="BL39" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM39" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -6532,6 +6640,9 @@
       <c r="BL40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -6671,6 +6782,9 @@
       <c r="BL41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM41" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -6791,6 +6905,9 @@
       <c r="BL42" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BM42" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
@@ -6927,6 +7044,9 @@
       </c>
       <c r="BL43" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BM43" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7060,6 +7180,9 @@
       <c r="BL44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM44" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -7198,6 +7321,9 @@
       <c r="BL45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -7328,6 +7454,9 @@
       <c r="BL46" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BM46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -7467,6 +7596,9 @@
       <c r="BL47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -7593,6 +7725,9 @@
         <v>7</v>
       </c>
       <c r="BL48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM48" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7823,6 +7958,9 @@
       <c r="BL50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BM50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -7913,6 +8051,9 @@
         <v>7</v>
       </c>
       <c r="BL51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM51" s="0" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -636,13 +636,13 @@
   <dimension ref="A1:DQ51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BM38" activeCellId="0" sqref="BM38"/>
+      <selection pane="topLeft" activeCell="BP52" activeCellId="0" sqref="BP52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.7908163265306"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -656,9 +656,9 @@
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="64" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="66" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="true" max="67" min="63" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="28.3367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="69" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,6 +1177,9 @@
       <c r="BM2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1315,6 +1318,9 @@
       <c r="BM3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1467,6 +1473,9 @@
       <c r="BM4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1610,6 +1619,9 @@
       <c r="BM5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1751,6 +1763,9 @@
       <c r="BM6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -1903,6 +1918,9 @@
       <c r="BM7" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP7" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -2054,6 +2072,9 @@
       </c>
       <c r="BM8" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="BP8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2186,6 +2207,9 @@
       <c r="BM9" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2333,6 +2357,9 @@
       <c r="BM10" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP10" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2485,6 +2512,9 @@
       <c r="BM11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2637,6 +2667,9 @@
       <c r="BM12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -2779,6 +2812,9 @@
       <c r="BM13" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP13" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -2917,6 +2953,9 @@
       <c r="BM14" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3058,6 +3097,9 @@
       <c r="BM15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3210,6 +3252,9 @@
       <c r="BM16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3360,6 +3405,9 @@
       <c r="BM17" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP17" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -3510,6 +3558,9 @@
         <v>6</v>
       </c>
       <c r="BM18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3750,6 +3801,9 @@
       <c r="BM20" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP20" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -3890,6 +3944,9 @@
       </c>
       <c r="BM21" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="BP21" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4122,6 +4179,9 @@
       <c r="BM23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -4274,6 +4334,9 @@
       <c r="BM24" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -4426,6 +4489,9 @@
       <c r="BM25" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -4573,6 +4639,9 @@
       <c r="BM26" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -4725,6 +4794,9 @@
       <c r="BM27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP27" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -4875,6 +4947,9 @@
       <c r="BM28" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP28" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -5027,6 +5102,9 @@
       <c r="BM29" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -5179,6 +5257,9 @@
       <c r="BM30" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -5331,6 +5412,9 @@
       <c r="BM31" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP31" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -5483,6 +5567,9 @@
       <c r="BM32" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP32" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -5633,6 +5720,9 @@
       <c r="BM33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP33" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -5773,6 +5863,9 @@
       </c>
       <c r="BM34" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="BP34" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5916,6 +6009,9 @@
       <c r="BM35" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP35" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -6064,6 +6160,9 @@
       <c r="BM36" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP36" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -6210,6 +6309,9 @@
       <c r="BM37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -6354,6 +6456,9 @@
       <c r="BM38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -6500,6 +6605,9 @@
       <c r="BM39" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP39" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -6643,6 +6751,9 @@
       <c r="BM40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP40" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -6785,6 +6896,9 @@
       <c r="BM41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP41" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -6908,6 +7022,9 @@
       <c r="BM42" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP42" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
@@ -7047,6 +7164,9 @@
       </c>
       <c r="BM43" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="BP43" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7183,6 +7303,9 @@
       <c r="BM44" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -7324,6 +7447,9 @@
       <c r="BM45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -7457,6 +7583,9 @@
       <c r="BM46" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BP46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -7599,6 +7728,9 @@
       <c r="BM47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP47" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -7728,6 +7860,9 @@
         <v>7</v>
       </c>
       <c r="BM48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP48" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7961,6 +8096,9 @@
       <c r="BM50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BP50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -8055,6 +8193,9 @@
       </c>
       <c r="BM51" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BP51" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BP52" activeCellId="0" sqref="BP52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BR4" activeCellId="0" sqref="BR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.25"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -656,9 +656,8 @@
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="67" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="28.3367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="69" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="true" max="69" min="63" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="35.6377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,6 +1179,9 @@
       <c r="BP2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1321,6 +1323,9 @@
       <c r="BP3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1476,6 +1481,9 @@
       <c r="BP4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1622,6 +1630,9 @@
       <c r="BP5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1766,6 +1777,9 @@
       <c r="BP6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR6" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -1921,6 +1935,9 @@
       <c r="BP7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR7" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -2074,6 +2091,9 @@
         <v>7</v>
       </c>
       <c r="BP8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR8" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2210,6 +2230,9 @@
       <c r="BP9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2360,6 +2383,9 @@
       <c r="BP10" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BR10" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2515,6 +2541,9 @@
       <c r="BP11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2670,6 +2699,9 @@
       <c r="BP12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -2815,6 +2847,9 @@
       <c r="BP13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR13" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -2956,6 +2991,9 @@
       <c r="BP14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3100,6 +3138,9 @@
       <c r="BP15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR15" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3255,6 +3296,9 @@
       <c r="BP16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3408,6 +3452,9 @@
       <c r="BP17" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR17" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -3561,6 +3608,9 @@
         <v>6</v>
       </c>
       <c r="BP18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3804,6 +3854,9 @@
       <c r="BP20" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BR20" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -3946,6 +3999,9 @@
         <v>7</v>
       </c>
       <c r="BP21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR21" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4182,6 +4238,9 @@
       <c r="BP23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -4337,6 +4396,9 @@
       <c r="BP24" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -4492,6 +4554,9 @@
       <c r="BP25" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -4642,6 +4707,9 @@
       <c r="BP26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -4797,6 +4865,9 @@
       <c r="BP27" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR27" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -4950,6 +5021,9 @@
       <c r="BP28" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR28" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -5105,6 +5179,9 @@
       <c r="BP29" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -5260,6 +5337,9 @@
       <c r="BP30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -5415,6 +5495,9 @@
       <c r="BP31" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR31" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -5570,6 +5653,9 @@
       <c r="BP32" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR32" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -5721,6 +5807,9 @@
         <v>7</v>
       </c>
       <c r="BP33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR33" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6012,6 +6101,9 @@
       <c r="BP35" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR35" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -6163,6 +6255,9 @@
       <c r="BP36" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR36" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -6312,6 +6407,9 @@
       <c r="BP37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -6459,6 +6557,9 @@
       <c r="BP38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BR38" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -6608,6 +6709,9 @@
       <c r="BP39" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR39" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -6899,6 +7003,9 @@
       <c r="BP41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR41" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -7166,6 +7273,9 @@
         <v>7</v>
       </c>
       <c r="BP43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR43" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7306,6 +7416,9 @@
       <c r="BP44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -7450,6 +7563,9 @@
       <c r="BP45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -7586,6 +7702,9 @@
       <c r="BP46" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BR46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -7731,6 +7850,9 @@
       <c r="BP47" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BR47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -7863,6 +7985,9 @@
         <v>7</v>
       </c>
       <c r="BP48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR48" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8099,6 +8224,9 @@
       <c r="BP50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BR50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BR4" activeCellId="0" sqref="BR4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BS49" activeCellId="0" sqref="BS49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.25"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.4387755102041"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -656,8 +656,10 @@
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="69" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="true" max="68" min="63" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="71" min="70" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="72" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,6 +1184,9 @@
       <c r="BR2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1326,6 +1331,9 @@
       <c r="BR3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1484,6 +1492,9 @@
       <c r="BR4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1633,6 +1644,9 @@
       <c r="BR5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1780,6 +1794,9 @@
       <c r="BR6" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BS6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -1937,6 +1954,9 @@
       </c>
       <c r="BR7" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BS7" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,6 +2253,9 @@
       <c r="BR9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2544,6 +2567,9 @@
       <c r="BR11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2702,6 +2728,9 @@
       <c r="BR12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -2994,6 +3023,9 @@
       <c r="BR14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3141,6 +3173,9 @@
       <c r="BR15" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BS15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3299,6 +3334,9 @@
       <c r="BR16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3455,6 +3493,9 @@
       <c r="BR17" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BS17" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -3611,6 +3652,9 @@
         <v>6</v>
       </c>
       <c r="BR18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3857,6 +3901,9 @@
       <c r="BR20" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BS20" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -4002,6 +4049,9 @@
         <v>6</v>
       </c>
       <c r="BR21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS21" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4241,6 +4291,9 @@
       <c r="BR23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -4399,6 +4452,9 @@
       <c r="BR24" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -4557,6 +4613,9 @@
       <c r="BR25" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -4710,6 +4769,9 @@
       <c r="BR26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -4868,6 +4930,9 @@
       <c r="BR27" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -5024,6 +5089,9 @@
       <c r="BR28" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS28" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -5182,6 +5250,9 @@
       <c r="BR29" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -5340,6 +5411,9 @@
       <c r="BR30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -5498,6 +5572,9 @@
       <c r="BR31" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS31" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -5656,6 +5733,9 @@
       <c r="BR32" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS32" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -5811,6 +5891,9 @@
       </c>
       <c r="BR33" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BS33" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6104,6 +6187,9 @@
       <c r="BR35" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS35" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -6258,6 +6344,9 @@
       <c r="BR36" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS36" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -6410,6 +6499,9 @@
       <c r="BR37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -6560,6 +6652,9 @@
       <c r="BR38" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -6712,6 +6807,9 @@
       <c r="BR39" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS39" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -6858,6 +6956,9 @@
       <c r="BP40" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BS40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -7006,6 +7107,9 @@
       <c r="BR41" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BS41" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -7276,6 +7380,9 @@
         <v>6</v>
       </c>
       <c r="BR43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS43" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7419,6 +7526,9 @@
       <c r="BR44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -7566,6 +7676,9 @@
       <c r="BR45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -7853,6 +7966,9 @@
       <c r="BR47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -7989,6 +8105,9 @@
       </c>
       <c r="BR48" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="BS48" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="49" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8227,6 +8346,9 @@
       <c r="BR50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BS50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -8323,6 +8445,9 @@
         <v>6</v>
       </c>
       <c r="BP51" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS51" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BS49" activeCellId="0" sqref="BS49"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BX51" activeCellId="0" sqref="BX51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.1683673469388"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -656,10 +656,8 @@
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="68" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="71" min="70" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="72" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="75" min="63" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="43.8979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,6 +1493,9 @@
       <c r="BS4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1797,6 +1798,9 @@
       <c r="BS6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX6" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -1956,6 +1960,9 @@
         <v>6</v>
       </c>
       <c r="BS7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX7" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2256,6 +2263,9 @@
       <c r="BS9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2409,6 +2419,9 @@
       <c r="BR10" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BX10" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2570,6 +2583,9 @@
       <c r="BS11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX11" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2731,6 +2747,9 @@
       <c r="BS12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -2879,6 +2898,9 @@
       <c r="BR13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX13" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -3026,6 +3048,9 @@
       <c r="BS14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3176,6 +3201,9 @@
       <c r="BS15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX15" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3337,6 +3365,9 @@
       <c r="BS16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3655,6 +3686,9 @@
         <v>6</v>
       </c>
       <c r="BS18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4052,6 +4086,9 @@
         <v>6</v>
       </c>
       <c r="BS21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX21" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4294,6 +4331,9 @@
       <c r="BS23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -4455,6 +4495,9 @@
       <c r="BS24" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -4616,6 +4659,9 @@
       <c r="BS25" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -4933,6 +4979,9 @@
       <c r="BS27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BX27" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -5092,6 +5141,9 @@
       <c r="BS28" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX28" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -5253,6 +5305,9 @@
       <c r="BS29" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -5414,6 +5469,9 @@
       <c r="BS30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -5575,6 +5633,9 @@
       <c r="BS31" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX31" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -5736,6 +5797,9 @@
       <c r="BS32" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX32" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -5895,6 +5959,9 @@
       <c r="BS33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BX33" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -6037,6 +6104,9 @@
         <v>7</v>
       </c>
       <c r="BP34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX34" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6347,6 +6417,9 @@
       <c r="BS36" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX36" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -6502,6 +6575,9 @@
       <c r="BS37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -6655,6 +6731,9 @@
       <c r="BS38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BX38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -6810,6 +6889,9 @@
       <c r="BS39" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX39" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -6959,6 +7041,9 @@
       <c r="BS40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -7110,6 +7195,9 @@
       <c r="BS41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX41" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -7383,6 +7471,9 @@
         <v>6</v>
       </c>
       <c r="BS43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX43" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7529,6 +7620,9 @@
       <c r="BS44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -7679,6 +7773,9 @@
       <c r="BS45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -7969,6 +8066,9 @@
       <c r="BS47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -8107,6 +8207,9 @@
         <v>7</v>
       </c>
       <c r="BS48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX48" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8349,6 +8452,9 @@
       <c r="BS50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BX51" activeCellId="0" sqref="BX51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CA36" activeCellId="0" sqref="CA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.3775510204082"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -657,7 +657,11 @@
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="75" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="43.8979591836735"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="80" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,6 +1189,12 @@
       <c r="BS2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BZ2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1332,6 +1342,18 @@
       <c r="BS3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA3" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1496,6 +1518,15 @@
       <c r="BX4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1648,6 +1679,18 @@
       <c r="BS5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1801,6 +1844,15 @@
       <c r="BX6" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BY6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA6" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -1965,6 +2017,15 @@
       <c r="BX7" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BY7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA7" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -2122,6 +2183,15 @@
       </c>
       <c r="BR8" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BY8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA8" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2266,6 +2336,9 @@
       <c r="BX9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BZ9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2586,6 +2659,15 @@
       <c r="BX11" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BY11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2750,6 +2832,15 @@
       <c r="BX12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -2901,6 +2992,15 @@
       <c r="BX13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA13" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -3051,6 +3151,12 @@
       <c r="BX14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3204,6 +3310,15 @@
       <c r="BX15" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BY15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3368,6 +3483,15 @@
       <c r="BX16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3527,6 +3651,9 @@
       <c r="BS17" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BZ17" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -3690,6 +3817,15 @@
       </c>
       <c r="BX18" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BY18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA18" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3938,6 +4074,18 @@
       <c r="BS20" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BX20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA20" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -4090,6 +4238,15 @@
       </c>
       <c r="BX21" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BY21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA21" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,6 +4491,15 @@
       <c r="BX23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -4498,6 +4664,15 @@
       <c r="BX24" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA24" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -4662,6 +4837,15 @@
       <c r="BX25" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA25" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -4818,6 +5002,15 @@
       <c r="BS26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -4982,6 +5175,15 @@
       <c r="BX27" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -5144,6 +5346,15 @@
       <c r="BX28" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA28" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -5308,6 +5519,12 @@
       <c r="BX29" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -5472,6 +5689,15 @@
       <c r="BX30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA30" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -5636,6 +5862,15 @@
       <c r="BX31" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA31" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -5800,6 +6035,15 @@
       <c r="BX32" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA32" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -5961,6 +6205,15 @@
       </c>
       <c r="BX33" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BY33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA33" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6260,6 +6513,9 @@
       <c r="BS35" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BZ35" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -6420,6 +6676,15 @@
       <c r="BX36" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BY36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA36" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -6578,6 +6843,15 @@
       <c r="BX37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY37" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ37" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -6734,6 +7008,12 @@
       <c r="BX38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BY38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -6892,6 +7172,15 @@
       <c r="BX39" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA39" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -7198,6 +7487,15 @@
       <c r="BX41" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BY41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA41" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -7474,6 +7772,15 @@
         <v>6</v>
       </c>
       <c r="BX43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA43" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7623,6 +7930,9 @@
       <c r="BX44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BZ44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -7776,6 +8086,15 @@
       <c r="BX45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -7915,6 +8234,9 @@
       <c r="BR46" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="BZ46" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -8069,6 +8391,15 @@
       <c r="BX47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY47" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ47" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -8211,6 +8542,12 @@
       </c>
       <c r="BX48" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="BZ48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA48" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="49" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8455,6 +8792,15 @@
       <c r="BX50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="BY50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -8554,6 +8900,9 @@
         <v>7</v>
       </c>
       <c r="BS51" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ51" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CA36" activeCellId="0" sqref="CA36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CE51" activeCellId="0" sqref="CE51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.8928571428571"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -656,12 +656,8 @@
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="75" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="5.66836734693878"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="26.3214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="80" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="82" min="63" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="29.3112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,6 +1191,9 @@
       <c r="CA2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CD2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1354,6 +1353,9 @@
       <c r="CA3" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CD3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1527,6 +1529,9 @@
       <c r="CA4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1691,6 +1696,9 @@
       <c r="CA5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1853,6 +1861,12 @@
       <c r="CA6" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CD6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -2024,6 +2038,12 @@
         <v>7</v>
       </c>
       <c r="CA7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CD7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2339,6 +2359,12 @@
       <c r="BZ9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2668,6 +2694,12 @@
       <c r="CA11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2841,6 +2873,12 @@
       <c r="CA12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3001,6 +3039,12 @@
       <c r="CA13" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CD13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE13" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -3157,6 +3201,12 @@
       <c r="BZ14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3319,6 +3369,12 @@
       <c r="CA15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3492,6 +3548,12 @@
       <c r="CA16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3654,6 +3716,9 @@
       <c r="BZ17" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CD17" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -3826,6 +3891,12 @@
       </c>
       <c r="CA18" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="CD18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE18" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4247,6 +4318,9 @@
       </c>
       <c r="CA21" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="CD21" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,6 +4574,9 @@
       <c r="CA23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -4673,6 +4750,12 @@
       <c r="CA24" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CD24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -4846,6 +4929,12 @@
       <c r="CA25" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CD25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE25" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -5184,6 +5273,12 @@
       <c r="CA27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CD27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE27" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -5525,6 +5620,9 @@
       <c r="BZ29" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -5698,6 +5796,12 @@
       <c r="CA30" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CD30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -5871,6 +5975,12 @@
       <c r="CA31" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -6044,6 +6154,12 @@
       <c r="CA32" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE32" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -6215,6 +6331,12 @@
       <c r="CA33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CD33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE33" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -6361,6 +6483,12 @@
       </c>
       <c r="BX34" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CD34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE34" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6516,6 +6644,12 @@
       <c r="BZ35" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CD35" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE35" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -6852,6 +6986,12 @@
       <c r="CA37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD37" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -7014,6 +7154,9 @@
       <c r="BZ38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CD38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -7181,6 +7324,9 @@
       <c r="CA39" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CD39" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -7333,6 +7479,12 @@
       <c r="BX40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE40" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -7496,6 +7648,9 @@
       <c r="CA41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD41" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -7620,6 +7775,9 @@
         <v>7</v>
       </c>
       <c r="BP42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD42" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7933,6 +8091,9 @@
       <c r="BZ44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -8095,6 +8256,12 @@
       <c r="CA45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -8237,6 +8404,9 @@
       <c r="BZ46" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -8400,6 +8570,12 @@
       <c r="CA47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD47" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -8547,6 +8723,9 @@
         <v>7</v>
       </c>
       <c r="CA48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD48" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8801,6 +8980,12 @@
       <c r="CA50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CD50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -8903,6 +9088,9 @@
         <v>7</v>
       </c>
       <c r="BZ51" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD51" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CE51" activeCellId="0" sqref="CE51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CE29" activeCellId="0" sqref="CE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.4897959183673"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -657,7 +657,8 @@
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="82" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="29.3112244897959"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="84" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,6 +1532,9 @@
       </c>
       <c r="CD4" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CE4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,6 +4581,9 @@
       <c r="CD23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CE23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -5100,6 +5107,9 @@
       <c r="CA26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CE26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -5450,6 +5460,9 @@
       <c r="CA28" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CE28" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -5621,6 +5634,9 @@
         <v>6</v>
       </c>
       <c r="CD29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE29" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7939,6 +7955,9 @@
         <v>6</v>
       </c>
       <c r="CA43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE43" s="0" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CE29" activeCellId="0" sqref="CE29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CD20" activeCellId="0" sqref="CD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.5204081632653"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -656,9 +656,10 @@
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="82" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="84" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="true" max="81" min="63" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="83" min="82" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="35.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="85" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,6 +1537,9 @@
       <c r="CE4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CF4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -2369,6 +2373,9 @@
       <c r="CE9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2704,6 +2711,9 @@
       <c r="CE11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2883,6 +2893,9 @@
       <c r="CE12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3049,6 +3062,9 @@
       <c r="CE13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF13" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -3379,6 +3395,9 @@
       <c r="CE15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3556,6 +3575,9 @@
         <v>6</v>
       </c>
       <c r="CE16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF16" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4159,6 +4181,15 @@
         <v>7</v>
       </c>
       <c r="CA20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CD20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF20" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5289,6 +5320,9 @@
       <c r="CE27" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -5818,6 +5852,9 @@
       <c r="CE30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -5997,6 +6034,9 @@
       <c r="CE31" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CF31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -6176,6 +6216,9 @@
       <c r="CE32" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CF32" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -6353,6 +6396,9 @@
       <c r="CE33" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF33" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -6504,6 +6550,9 @@
         <v>7</v>
       </c>
       <c r="CE34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF34" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6666,6 +6715,9 @@
       <c r="CE35" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF35" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -7008,6 +7060,9 @@
       <c r="CE37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -7173,6 +7228,9 @@
       <c r="CD38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CF38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -7343,6 +7401,9 @@
       <c r="CD39" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CF39" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -7499,6 +7560,9 @@
         <v>6</v>
       </c>
       <c r="CE40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF40" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8113,6 +8177,9 @@
       <c r="CD44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -8426,6 +8493,9 @@
       <c r="CD46" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CF46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -8595,6 +8665,9 @@
       <c r="CE47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -8745,6 +8818,9 @@
         <v>7</v>
       </c>
       <c r="CD48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF48" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9112,6 +9188,9 @@
       <c r="CD51" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CF51" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CD20" activeCellId="0" sqref="CD20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CF29" activeCellId="0" sqref="CF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.2551020408163"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -656,10 +656,11 @@
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="81" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="83" min="82" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="35.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="85" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="true" max="80" min="63" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="83" min="82" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="85" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,6 +1875,9 @@
       </c>
       <c r="CE6" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CF6" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4615,6 +4619,9 @@
       <c r="CE23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -4794,6 +4801,9 @@
       <c r="CE24" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF24" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -4973,6 +4983,9 @@
       <c r="CE25" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CF25" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -5141,6 +5154,9 @@
       <c r="CE26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -5497,6 +5513,9 @@
       <c r="CE28" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CF28" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -5671,6 +5690,9 @@
         <v>6</v>
       </c>
       <c r="CE29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF29" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6887,6 +6909,9 @@
       <c r="CA36" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF36" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -7731,6 +7756,9 @@
       <c r="CD41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF41" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -8022,6 +8050,9 @@
         <v>6</v>
       </c>
       <c r="CE43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF43" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8347,6 +8378,9 @@
       </c>
       <c r="CE45" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CF45" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9081,6 +9115,9 @@
       <c r="CE50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CF50" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CF29" activeCellId="0" sqref="CF29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CG42" activeCellId="0" sqref="CG42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.3826530612245"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -656,11 +656,9 @@
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="80" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="12.6377551020408"/>
-    <col collapsed="false" hidden="false" max="83" min="82" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="85" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="84" min="63" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="1025" min="86" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,6 +1195,9 @@
       <c r="CD2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CG2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1541,6 +1542,9 @@
       <c r="CF4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CG4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1879,6 +1883,9 @@
       <c r="CF6" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CG6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -2056,6 +2063,9 @@
         <v>6</v>
       </c>
       <c r="CE7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2718,6 +2728,9 @@
       <c r="CF11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CG11" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2900,6 +2913,9 @@
       <c r="CF12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CG12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3231,6 +3247,9 @@
       <c r="CE14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CG14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3584,6 +3603,9 @@
       <c r="CF16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CG16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3926,6 +3948,9 @@
         <v>6</v>
       </c>
       <c r="CE18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4194,6 +4219,9 @@
         <v>7</v>
       </c>
       <c r="CF20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG20" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4804,6 +4832,9 @@
       <c r="CF24" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CG24" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -4986,6 +5017,9 @@
       <c r="CF25" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CG25" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -5877,6 +5911,9 @@
       <c r="CF30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CG30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -6059,6 +6096,9 @@
       <c r="CF31" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CG31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -6241,6 +6281,9 @@
       <c r="CF32" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CG32" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -6421,6 +6464,9 @@
       <c r="CF33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CG33" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -6575,6 +6621,9 @@
         <v>7</v>
       </c>
       <c r="CF34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG34" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7256,6 +7305,9 @@
       <c r="CF38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CG38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -7429,6 +7481,9 @@
       <c r="CF39" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CG39" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -7590,6 +7645,9 @@
       <c r="CF40" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CG40" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -7758,6 +7816,9 @@
       </c>
       <c r="CF41" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="CG41" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8382,6 +8443,9 @@
       <c r="CF45" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CG45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -8530,6 +8594,9 @@
       <c r="CF46" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CG46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -8700,6 +8767,9 @@
         <v>6</v>
       </c>
       <c r="CF47" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG47" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9118,6 +9188,9 @@
       <c r="CF50" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CG50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -635,14 +635,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CG42" activeCellId="0" sqref="CG42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CN1" activeCellId="0" sqref="CN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.1122448979592"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -657,8 +657,8 @@
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="84" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="1025" min="86" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="86" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4650,6 +4650,9 @@
       <c r="CF23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CG23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -5191,6 +5194,9 @@
       <c r="CF26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CG26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -5550,6 +5556,9 @@
       <c r="CF28" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CG28" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -5727,6 +5736,9 @@
         <v>6</v>
       </c>
       <c r="CF29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG29" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6961,6 +6973,9 @@
       <c r="CF36" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CG36" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -8114,6 +8129,9 @@
         <v>6</v>
       </c>
       <c r="CF43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG43" s="0" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -447,7 +447,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -509,6 +509,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -636,13 +640,13 @@
   <dimension ref="A1:DQ51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CN1" activeCellId="0" sqref="CN1"/>
+      <selection pane="topLeft" activeCell="CK13" activeCellId="0" sqref="CK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.5714285714286"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -656,9 +660,9 @@
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="84" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="86" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="88" min="63" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="90" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,6 +1202,7 @@
       <c r="CG2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CK2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1545,6 +1550,9 @@
       <c r="CG4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CK4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1885,6 +1893,9 @@
       </c>
       <c r="CG6" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CK6" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,6 +2927,9 @@
       <c r="CG12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CK12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3250,6 +3264,9 @@
       <c r="CG14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CK14" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3421,6 +3438,9 @@
       <c r="CF15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CK15" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3606,6 +3626,9 @@
       <c r="CG16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CK16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3953,94 +3976,97 @@
       <c r="CG18" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CK18" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="n">
+    <row r="19" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="18" t="n">
+      <c r="C19" s="19" t="n">
         <v>4230118055896</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="S19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="T19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="U19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="V19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO19" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU19" s="22"/>
-      <c r="AX19" s="22"/>
-      <c r="AY19" s="22"/>
-      <c r="AZ19" s="23"/>
-      <c r="BD19" s="22"/>
-      <c r="BI19" s="22"/>
-      <c r="BJ19" s="22"/>
+      <c r="E19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU19" s="23"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="24"/>
+      <c r="BD19" s="23"/>
+      <c r="BI19" s="23"/>
+      <c r="BJ19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
@@ -4224,6 +4250,9 @@
       <c r="CG20" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CK20" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -4390,103 +4419,103 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="n">
+    <row r="22" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="T22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="U22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="V22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="W22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
-      <c r="AU22" s="22"/>
-      <c r="AX22" s="22"/>
-      <c r="AY22" s="22"/>
-      <c r="AZ22" s="23"/>
-      <c r="BD22" s="22"/>
-      <c r="BI22" s="22"/>
-      <c r="BJ22" s="22"/>
+      <c r="E22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AP22" s="21"/>
+      <c r="AQ22" s="21"/>
+      <c r="AU22" s="23"/>
+      <c r="AX22" s="23"/>
+      <c r="AY22" s="23"/>
+      <c r="AZ22" s="24"/>
+      <c r="BD22" s="23"/>
+      <c r="BI22" s="23"/>
+      <c r="BJ22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -4658,13 +4687,13 @@
       <c r="A24" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -4836,6 +4865,9 @@
         <v>7</v>
       </c>
       <c r="CG24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK24" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4843,13 +4875,13 @@
       <c r="A25" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -4950,7 +4982,7 @@
       <c r="AU25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AW25" s="30" t="s">
+      <c r="AW25" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AX25" s="3" t="s">
@@ -5021,6 +5053,9 @@
         <v>7</v>
       </c>
       <c r="CG25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK25" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5028,10 +5063,10 @@
       <c r="A26" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -5202,13 +5237,13 @@
       <c r="A27" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="34" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -5377,6 +5412,9 @@
         <v>6</v>
       </c>
       <c r="CF27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK27" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5384,13 +5422,13 @@
       <c r="A28" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -5564,13 +5602,13 @@
       <c r="A29" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -5746,13 +5784,13 @@
       <c r="A30" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -5925,19 +5963,22 @@
       </c>
       <c r="CG30" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CK30" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="34" t="s">
         <v>52</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -6109,6 +6150,9 @@
         <v>7</v>
       </c>
       <c r="CG31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK31" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6116,13 +6160,13 @@
       <c r="A32" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="34" t="s">
         <v>33</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -6294,6 +6338,9 @@
         <v>7</v>
       </c>
       <c r="CG32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK32" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6301,13 +6348,13 @@
       <c r="A33" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="37" t="s">
         <v>52</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -6477,6 +6524,9 @@
         <v>7</v>
       </c>
       <c r="CG33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK33" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6484,13 +6534,13 @@
       <c r="A34" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="30" t="s">
         <v>52</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -6638,15 +6688,18 @@
       <c r="CG34" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CK34" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="14" t="s">
@@ -6801,15 +6854,18 @@
       <c r="CF35" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CK35" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="29" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="14" t="s">
@@ -6981,11 +7037,11 @@
       <c r="A37" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="3" t="s">
         <v>6</v>
       </c>
@@ -7152,16 +7208,19 @@
       <c r="CF37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CK37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="3" t="s">
         <v>6</v>
       </c>
@@ -7321,6 +7380,9 @@
         <v>7</v>
       </c>
       <c r="CG38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK38" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7328,7 +7390,7 @@
       <c r="A39" s="11" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="32" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="0"/>
@@ -7497,6 +7559,9 @@
         <v>7</v>
       </c>
       <c r="CG39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK39" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7504,7 +7569,7 @@
       <c r="A40" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="32" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="0"/>
@@ -7661,6 +7726,9 @@
         <v>7</v>
       </c>
       <c r="CG40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK40" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7668,7 +7736,7 @@
       <c r="A41" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="32" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="0"/>
@@ -7834,13 +7902,16 @@
       </c>
       <c r="CG41" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CK41" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="32" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="0"/>
@@ -8464,6 +8535,9 @@
       <c r="CG45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CK45" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -8946,111 +9020,111 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16" t="n">
+    <row r="49" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="17" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="N49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="P49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="T49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="U49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="V49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="W49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA49" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE49" s="20"/>
-      <c r="AF49" s="20"/>
-      <c r="AG49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI49" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK49" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN49" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO49" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ49" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU49" s="22"/>
-      <c r="AX49" s="22"/>
-      <c r="AY49" s="22"/>
-      <c r="AZ49" s="23"/>
-      <c r="BD49" s="22"/>
-      <c r="BI49" s="22"/>
-      <c r="BJ49" s="22"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="T49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="U49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="V49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="W49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE49" s="21"/>
+      <c r="AF49" s="21"/>
+      <c r="AG49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK49" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU49" s="23"/>
+      <c r="AX49" s="23"/>
+      <c r="AY49" s="23"/>
+      <c r="AZ49" s="24"/>
+      <c r="BD49" s="23"/>
+      <c r="BI49" s="23"/>
+      <c r="BJ49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="n">
@@ -9208,6 +9282,9 @@
       </c>
       <c r="CG50" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CK50" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -640,13 +640,13 @@
   <dimension ref="A1:DQ51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CK13" activeCellId="0" sqref="CK13"/>
+      <selection pane="topLeft" activeCell="CL13" activeCellId="0" sqref="CL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.4948979591837"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -661,8 +661,9 @@
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="88" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="90" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="91" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,6 +1204,9 @@
         <v>7</v>
       </c>
       <c r="CK2" s="16"/>
+      <c r="CL2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1553,6 +1557,9 @@
       <c r="CK4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CL4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1895,7 +1902,10 @@
         <v>6</v>
       </c>
       <c r="CK6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="CL6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2077,6 +2087,9 @@
         <v>6</v>
       </c>
       <c r="CG7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2401,6 +2414,9 @@
       <c r="CF9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CK9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2742,6 +2758,12 @@
       <c r="CG11" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CK11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2930,6 +2952,9 @@
       <c r="CK12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CL12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3099,6 +3124,12 @@
       <c r="CF13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CK13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL13" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -3267,6 +3298,9 @@
       <c r="CK14" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CL14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3629,6 +3663,9 @@
       <c r="CK16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CL16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3977,6 +4014,9 @@
         <v>6</v>
       </c>
       <c r="CK18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4253,6 +4293,9 @@
       <c r="CK20" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CL20" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -4416,6 +4459,9 @@
         <v>7</v>
       </c>
       <c r="CD21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL21" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4682,6 +4728,12 @@
       <c r="CG23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CK23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -4870,6 +4922,9 @@
       <c r="CK24" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CL24" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -5058,6 +5113,9 @@
       <c r="CK25" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CL25" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -5417,6 +5475,9 @@
       <c r="CK27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CL27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -5597,6 +5658,9 @@
       <c r="CG28" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CK28" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -5779,6 +5843,9 @@
       <c r="CG29" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CK29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -5967,6 +6034,9 @@
       <c r="CK30" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CL30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -6155,6 +6225,9 @@
       <c r="CK31" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CL31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -6343,6 +6416,9 @@
       <c r="CK32" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CL32" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -6529,6 +6605,9 @@
       <c r="CK33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CL33" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -6689,6 +6768,9 @@
         <v>7</v>
       </c>
       <c r="CK34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL34" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7211,6 +7293,9 @@
       <c r="CK37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CL37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -7385,6 +7470,9 @@
       <c r="CK38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CL38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -7564,6 +7652,9 @@
       <c r="CK39" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CL39" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -7731,6 +7822,9 @@
       <c r="CK40" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CL40" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -7906,6 +8000,9 @@
       <c r="CK41" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CL41" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -8203,6 +8300,9 @@
         <v>6</v>
       </c>
       <c r="CG43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK43" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8361,6 +8461,12 @@
       <c r="CF44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CK44" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -8538,6 +8644,9 @@
       <c r="CK45" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CL45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -8689,6 +8798,9 @@
       <c r="CG46" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CL46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -8862,6 +8974,12 @@
         <v>6</v>
       </c>
       <c r="CG47" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK47" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL47" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9286,6 +9404,9 @@
       <c r="CK50" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CL50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -640,13 +640,13 @@
   <dimension ref="A1:DQ51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CL13" activeCellId="0" sqref="CL13"/>
+      <selection pane="topLeft" activeCell="CM1" activeCellId="0" sqref="CM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.2244897959184"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -660,10 +660,10 @@
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="88" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="91" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="true" max="90" min="63" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="38.7602040816326"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="93" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1560,6 +1560,9 @@
       <c r="CL4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -2090,6 +2093,9 @@
         <v>6</v>
       </c>
       <c r="CK7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2955,6 +2961,9 @@
       <c r="CL12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3301,6 +3310,9 @@
       <c r="CL14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3474,6 +3486,9 @@
       </c>
       <c r="CK15" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="CM15" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5478,6 +5493,9 @@
       <c r="CL27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CM27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -6037,6 +6055,9 @@
       <c r="CL30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM30" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -6228,6 +6249,9 @@
       <c r="CL31" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CM31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -6419,6 +6443,9 @@
       <c r="CL32" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CM32" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -6608,6 +6635,9 @@
       <c r="CL33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CM33" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -6771,6 +6801,9 @@
         <v>7</v>
       </c>
       <c r="CL34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM34" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7296,6 +7329,9 @@
       <c r="CL37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -7473,6 +7509,9 @@
       <c r="CL38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CM38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -7655,6 +7694,9 @@
       <c r="CL39" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CM39" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -7823,6 +7865,9 @@
         <v>7</v>
       </c>
       <c r="CL40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM40" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8647,6 +8692,9 @@
       <c r="CL45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -8801,6 +8849,9 @@
       <c r="CL46" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CM46" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -8980,6 +9031,9 @@
         <v>6</v>
       </c>
       <c r="CL47" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM47" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9407,6 +9461,9 @@
       <c r="CL50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -9515,6 +9572,9 @@
         <v>7</v>
       </c>
       <c r="CF51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM51" s="0" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -640,13 +640,13 @@
   <dimension ref="A1:DQ51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CM1" activeCellId="0" sqref="CM1"/>
+      <selection pane="topLeft" activeCell="CN18" activeCellId="0" sqref="CN18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.7397959183673"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -661,9 +661,8 @@
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="90" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="38.7602040816326"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="25.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="93" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="39.280612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1207,6 +1206,12 @@
       <c r="CL2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1369,6 +1374,9 @@
       <c r="CD3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM3" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1563,6 +1571,9 @@
       <c r="CM4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CN4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1730,6 +1741,9 @@
       <c r="CD5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM5" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1910,6 +1924,12 @@
       <c r="CL6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -2263,6 +2283,9 @@
         <v>7</v>
       </c>
       <c r="CA8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM8" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2423,6 +2446,12 @@
       <c r="CK9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2579,6 +2608,9 @@
       <c r="BX10" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM10" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2770,6 +2802,12 @@
       <c r="CL11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN11" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -2964,6 +3002,9 @@
       <c r="CM12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CN12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3139,6 +3180,12 @@
       <c r="CL13" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CM13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN13" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -3313,6 +3360,9 @@
       <c r="CM14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CN14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3490,6 +3540,9 @@
       <c r="CM15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CN15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3681,6 +3734,12 @@
       <c r="CL16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3846,6 +3905,9 @@
       <c r="CD17" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CM17" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -4032,6 +4094,12 @@
         <v>6</v>
       </c>
       <c r="CL18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4311,6 +4379,12 @@
       <c r="CL20" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CM20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN20" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -4477,6 +4551,12 @@
         <v>6</v>
       </c>
       <c r="CL21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN21" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4749,6 +4829,9 @@
       <c r="CL23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -4940,6 +5023,12 @@
       <c r="CL24" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CM24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN24" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -5131,6 +5220,12 @@
       <c r="CL25" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CM25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN25" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -5305,6 +5400,12 @@
       <c r="CG26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -5496,6 +5597,9 @@
       <c r="CM27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CN27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -5679,6 +5783,9 @@
       <c r="CK28" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM28" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -5864,6 +5971,9 @@
       <c r="CK29" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -6058,6 +6168,9 @@
       <c r="CM30" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CN30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -6252,6 +6365,9 @@
       <c r="CM31" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CN31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -6446,6 +6562,9 @@
       <c r="CM32" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CN32" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -6638,6 +6757,9 @@
       <c r="CM33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CN33" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -6805,6 +6927,9 @@
       </c>
       <c r="CM34" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="CN34" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6972,6 +7097,9 @@
       <c r="CK35" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CM35" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -7147,6 +7275,9 @@
       <c r="CG36" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM36" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -7332,6 +7463,9 @@
       <c r="CM37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CN37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -7512,6 +7646,9 @@
       <c r="CM38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CN38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -7697,6 +7834,9 @@
       <c r="CM39" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CN39" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -8048,6 +8188,12 @@
       <c r="CL41" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CM41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN41" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -8177,6 +8323,9 @@
       <c r="CD42" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CM42" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
@@ -8349,6 +8498,9 @@
       </c>
       <c r="CK43" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CM43" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8512,6 +8664,12 @@
       <c r="CL44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CM44" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -9036,6 +9194,9 @@
       <c r="CM47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CN47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -9189,6 +9350,12 @@
         <v>7</v>
       </c>
       <c r="CF48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN48" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9464,6 +9631,9 @@
       <c r="CM50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CN50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CN18" activeCellId="0" sqref="CN18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CN36" activeCellId="0" sqref="CN36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.469387755102"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -661,8 +661,9 @@
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="90" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="35.9081632653061"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="93" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4832,6 +4833,9 @@
       <c r="CM23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CN23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -5786,6 +5790,9 @@
       <c r="CM28" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CN28" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -5972,6 +5979,9 @@
         <v>6</v>
       </c>
       <c r="CM29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN29" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7278,6 +7288,9 @@
       <c r="CM36" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CN36" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -8501,6 +8514,9 @@
       </c>
       <c r="CM43" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="CN43" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CN36" activeCellId="0" sqref="CN36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CS11" activeCellId="0" sqref="CS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.9285714285714"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -661,9 +661,10 @@
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="90" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="93" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="37.6632653061224"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="26.5918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="94" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,6 +1214,9 @@
       <c r="CN2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CO2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1378,6 +1382,12 @@
       <c r="CM3" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CN3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1575,6 +1585,9 @@
       <c r="CN4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CO4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1745,6 +1758,12 @@
       <c r="CM5" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CN5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1931,6 +1950,9 @@
       <c r="CN6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CO6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -2117,6 +2139,9 @@
         <v>6</v>
       </c>
       <c r="CM7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2453,6 +2478,9 @@
       <c r="CN9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CO9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2809,6 +2837,9 @@
       <c r="CN11" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CO11" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -3006,6 +3037,9 @@
       <c r="CN12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CO12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3187,6 +3221,9 @@
       <c r="CN13" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CO13" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -3544,6 +3581,9 @@
       <c r="CN15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CO15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3741,6 +3781,9 @@
       <c r="CN16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CO16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -4101,6 +4144,9 @@
         <v>6</v>
       </c>
       <c r="CN18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4384,6 +4430,9 @@
         <v>7</v>
       </c>
       <c r="CN20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO20" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4836,6 +4885,9 @@
       <c r="CN23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CO23" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -5033,6 +5085,9 @@
       <c r="CN24" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CO24" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -5230,6 +5285,9 @@
       <c r="CN25" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CO25" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -5410,6 +5468,9 @@
       <c r="CN26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CO26" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -5604,6 +5665,9 @@
       <c r="CN27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CO27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -5793,6 +5857,9 @@
       <c r="CN28" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CO28" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -5984,6 +6051,9 @@
       <c r="CN29" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CO29" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -6181,6 +6251,9 @@
       <c r="CN30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CO30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -6378,6 +6451,9 @@
       <c r="CN31" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CO31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -6575,6 +6651,9 @@
       <c r="CN32" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CO32" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -6770,6 +6849,9 @@
       <c r="CN33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CO33" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -6940,6 +7022,9 @@
       </c>
       <c r="CN34" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CO34" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7291,6 +7376,9 @@
       <c r="CN36" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CO36" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -7479,6 +7567,9 @@
       <c r="CN37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CO37" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -7662,6 +7753,9 @@
       <c r="CN38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CO38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -7850,6 +7944,9 @@
       <c r="CN39" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CO39" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -8023,6 +8120,9 @@
       <c r="CM40" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CO40" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -8207,6 +8307,9 @@
       <c r="CN41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CO41" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -8516,6 +8619,9 @@
         <v>7</v>
       </c>
       <c r="CN43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO43" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8686,6 +8792,9 @@
       <c r="CN44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CO44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -8869,6 +8978,9 @@
       <c r="CM45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CO45" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -9213,6 +9325,9 @@
       <c r="CN47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CO47" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -9372,6 +9487,9 @@
         <v>7</v>
       </c>
       <c r="CN48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO48" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CS11" activeCellId="0" sqref="CS11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CR51" activeCellId="0" sqref="CR51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.6581632653061"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -660,11 +660,8 @@
     <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="90" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="37.6632653061224"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="26.5918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="94" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="3" width="32.5051020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,6 +1214,9 @@
       <c r="CO2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR2" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1388,6 +1388,7 @@
       <c r="CO3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CR3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1588,6 +1589,9 @@
       <c r="CO4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CR4" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1764,6 +1768,7 @@
       <c r="CO5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CR5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1953,6 +1958,7 @@
       <c r="CO6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CR6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -2144,6 +2150,9 @@
       <c r="CO7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CR7" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -2314,6 +2323,7 @@
       <c r="CM8" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="n">
@@ -2481,6 +2491,9 @@
       <c r="CO9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CR9" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2640,6 +2653,7 @@
       <c r="CM10" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2840,6 +2854,7 @@
       <c r="CO11" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -3040,6 +3055,9 @@
       <c r="CO12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CR12" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3224,6 +3242,9 @@
       <c r="CO13" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR13" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -3401,6 +3422,9 @@
       <c r="CN14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CR14" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3584,6 +3608,7 @@
       <c r="CO15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CR15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3784,6 +3809,9 @@
       <c r="CO16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CR16" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -3952,6 +3980,7 @@
       <c r="CM17" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -4147,6 +4176,9 @@
         <v>6</v>
       </c>
       <c r="CO18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CR18" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4237,6 +4269,7 @@
       <c r="BD19" s="23"/>
       <c r="BI19" s="23"/>
       <c r="BJ19" s="23"/>
+      <c r="CR19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
@@ -4435,6 +4468,7 @@
       <c r="CO20" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -4607,6 +4641,9 @@
         <v>7</v>
       </c>
       <c r="CN21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CR21" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4695,6 +4732,7 @@
       <c r="BD22" s="23"/>
       <c r="BI22" s="23"/>
       <c r="BJ22" s="23"/>
+      <c r="CR22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="n">
@@ -4888,6 +4926,7 @@
       <c r="CO23" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -5088,6 +5127,9 @@
       <c r="CO24" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR24" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -5288,6 +5330,9 @@
       <c r="CO25" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR25" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -5471,6 +5516,7 @@
       <c r="CO26" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -5668,6 +5714,9 @@
       <c r="CO27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR27" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -5860,6 +5909,7 @@
       <c r="CO28" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -6054,6 +6104,7 @@
       <c r="CO29" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -6254,6 +6305,9 @@
       <c r="CO30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CR30" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -6454,6 +6508,9 @@
       <c r="CO31" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR31" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -6654,6 +6711,9 @@
       <c r="CO32" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR32" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -6852,6 +6912,9 @@
       <c r="CO33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR33" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -7024,6 +7087,9 @@
         <v>6</v>
       </c>
       <c r="CO34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR34" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7195,6 +7261,7 @@
       <c r="CM35" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -7379,6 +7446,7 @@
       <c r="CO36" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -7570,6 +7638,9 @@
       <c r="CO37" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR37" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -7756,6 +7827,9 @@
       <c r="CO38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR38" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -7947,6 +8021,9 @@
       <c r="CO39" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR39" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -8123,6 +8200,9 @@
       <c r="CO40" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR40" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -8310,6 +8390,7 @@
       <c r="CO41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CR41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -8442,6 +8523,7 @@
       <c r="CM42" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
@@ -8624,6 +8706,7 @@
       <c r="CO43" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CR43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="n">
@@ -8795,6 +8878,7 @@
       <c r="CO44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CR44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -8981,6 +9065,9 @@
       <c r="CO45" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR45" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -9138,6 +9225,7 @@
       <c r="CM46" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CR46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -9328,6 +9416,9 @@
       <c r="CO47" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR47" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -9492,6 +9583,7 @@
       <c r="CO48" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="CR48" s="15"/>
     </row>
     <row r="49" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="17" t="n">
@@ -9598,6 +9690,7 @@
       <c r="BD49" s="23"/>
       <c r="BI49" s="23"/>
       <c r="BJ49" s="23"/>
+      <c r="CR49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="n">
@@ -9766,6 +9859,9 @@
         <v>6</v>
       </c>
       <c r="CN50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CR50" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CR51" activeCellId="0" sqref="CR51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CR10" activeCellId="0" sqref="CR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.3877551020408"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -661,7 +661,8 @@
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="3" width="32.5051020408163"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="3" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="97" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,7 +2855,9 @@
       <c r="CO11" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="CR11" s="15"/>
+      <c r="CR11" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -3608,7 +3611,9 @@
       <c r="CO15" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="CR15" s="15"/>
+      <c r="CR15" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -4468,7 +4473,9 @@
       <c r="CO20" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="CR20" s="15"/>
+      <c r="CR20" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -7828,7 +7835,7 @@
         <v>7</v>
       </c>
       <c r="CR38" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8022,7 +8029,7 @@
         <v>7</v>
       </c>
       <c r="CR39" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8390,7 +8397,9 @@
       <c r="CO41" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="CR41" s="15"/>
+      <c r="CR41" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -8878,7 +8887,9 @@
       <c r="CO44" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="CR44" s="15"/>
+      <c r="CR44" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CR10" activeCellId="0" sqref="CR10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CR44" activeCellId="0" sqref="CR44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.2551020408163"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -661,8 +661,8 @@
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="3" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="97" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="3" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="97" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4933,7 +4933,9 @@
       <c r="CO23" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="CR23" s="15"/>
+      <c r="CR23" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -5523,7 +5525,9 @@
       <c r="CO26" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="CR26" s="15"/>
+      <c r="CR26" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -5916,7 +5920,9 @@
       <c r="CO28" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="CR28" s="15"/>
+      <c r="CR28" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -6111,7 +6117,9 @@
       <c r="CO29" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="CR29" s="15"/>
+      <c r="CR29" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -7453,7 +7461,9 @@
       <c r="CO36" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="CR36" s="15"/>
+      <c r="CR36" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -8715,7 +8725,9 @@
       <c r="CO43" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="CR43" s="15"/>
+      <c r="CR43" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CR44" activeCellId="0" sqref="CR44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CR12" activeCellId="0" sqref="CR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.1173469387755"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -661,8 +661,8 @@
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="3" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="97" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="3" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="97" min="97" style="0" width="34.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,6 +1218,9 @@
       <c r="CR2" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CS2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1593,6 +1596,9 @@
       <c r="CR4" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -3061,6 +3067,9 @@
       <c r="CR12" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3248,6 +3257,9 @@
       <c r="CR13" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CS13" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -3614,6 +3626,9 @@
       <c r="CR15" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3815,6 +3830,9 @@
         <v>6</v>
       </c>
       <c r="CR16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CS16" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4474,6 +4492,9 @@
         <v>7</v>
       </c>
       <c r="CR20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CS20" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5139,6 +5160,9 @@
       <c r="CR24" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -5342,6 +5366,9 @@
       <c r="CR25" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -5728,6 +5755,9 @@
       <c r="CR27" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CS27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -6323,6 +6353,9 @@
       <c r="CR30" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -6526,6 +6559,9 @@
       <c r="CR31" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CS31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -6729,6 +6765,9 @@
       <c r="CR32" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CS32" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -6930,6 +6969,9 @@
       <c r="CR33" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CS33" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -7105,6 +7147,9 @@
         <v>7</v>
       </c>
       <c r="CR34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS34" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7658,6 +7703,9 @@
       <c r="CR37" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -7847,6 +7895,9 @@
       <c r="CR38" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -8041,6 +8092,9 @@
       <c r="CR39" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS39" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -8220,6 +8274,9 @@
       <c r="CR40" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CS40" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -8408,6 +8465,9 @@
         <v>6</v>
       </c>
       <c r="CR41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CS41" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9091,6 +9151,9 @@
       <c r="CR45" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -9442,6 +9505,9 @@
       <c r="CR47" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -9607,6 +9673,9 @@
         <v>7</v>
       </c>
       <c r="CR48" s="15"/>
+      <c r="CS48" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="17" t="n">
@@ -9887,6 +9956,9 @@
       <c r="CR50" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CS50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CR12" activeCellId="0" sqref="CR12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CS1" activeCellId="0" sqref="CS:CS"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.8469387755102"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -661,8 +661,9 @@
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="3" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="97" min="97" style="0" width="34.4489795918367"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="3" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="97" min="97" style="3" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="98" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,7 +1219,7 @@
       <c r="CR2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="CS2" s="0" t="s">
+      <c r="CS2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       <c r="CR4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CS4" s="0" t="s">
+      <c r="CS4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3067,7 +3068,7 @@
       <c r="CR12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CS12" s="0" t="s">
+      <c r="CS12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3257,7 +3258,7 @@
       <c r="CR13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="CS13" s="0" t="s">
+      <c r="CS13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3626,7 +3627,7 @@
       <c r="CR15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CS15" s="0" t="s">
+      <c r="CS15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3832,7 +3833,7 @@
       <c r="CR16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CS16" s="0" t="s">
+      <c r="CS16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4202,6 +4203,9 @@
         <v>6</v>
       </c>
       <c r="CR18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CS18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4293,6 +4297,7 @@
       <c r="BI19" s="23"/>
       <c r="BJ19" s="23"/>
       <c r="CR19" s="23"/>
+      <c r="CS19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
@@ -4494,7 +4499,7 @@
       <c r="CR20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CS20" s="0" t="s">
+      <c r="CS20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4761,6 +4766,7 @@
       <c r="BI22" s="23"/>
       <c r="BJ22" s="23"/>
       <c r="CR22" s="23"/>
+      <c r="CS22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="n">
@@ -5160,7 +5166,7 @@
       <c r="CR24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CS24" s="0" t="s">
+      <c r="CS24" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5366,7 +5372,7 @@
       <c r="CR25" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CS25" s="0" t="s">
+      <c r="CS25" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5755,7 +5761,7 @@
       <c r="CR27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="CS27" s="0" t="s">
+      <c r="CS27" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6353,7 +6359,7 @@
       <c r="CR30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CS30" s="0" t="s">
+      <c r="CS30" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6559,7 +6565,7 @@
       <c r="CR31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="CS31" s="0" t="s">
+      <c r="CS31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6765,7 +6771,7 @@
       <c r="CR32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="CS32" s="0" t="s">
+      <c r="CS32" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6969,7 +6975,7 @@
       <c r="CR33" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="CS33" s="0" t="s">
+      <c r="CS33" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7149,7 +7155,7 @@
       <c r="CR34" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="CS34" s="0" t="s">
+      <c r="CS34" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7703,7 +7709,7 @@
       <c r="CR37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CS37" s="0" t="s">
+      <c r="CS37" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7895,7 +7901,7 @@
       <c r="CR38" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CS38" s="0" t="s">
+      <c r="CS38" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8092,7 +8098,7 @@
       <c r="CR39" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CS39" s="0" t="s">
+      <c r="CS39" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8274,7 +8280,7 @@
       <c r="CR40" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="CS40" s="0" t="s">
+      <c r="CS40" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8467,7 +8473,7 @@
       <c r="CR41" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CS41" s="0" t="s">
+      <c r="CS41" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9151,7 +9157,7 @@
       <c r="CR45" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CS45" s="0" t="s">
+      <c r="CS45" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9505,7 +9511,7 @@
       <c r="CR47" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CS47" s="0" t="s">
+      <c r="CS47" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9673,7 +9679,7 @@
         <v>7</v>
       </c>
       <c r="CR48" s="15"/>
-      <c r="CS48" s="0" t="s">
+      <c r="CS48" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9783,6 +9789,7 @@
       <c r="BI49" s="23"/>
       <c r="BJ49" s="23"/>
       <c r="CR49" s="23"/>
+      <c r="CS49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="n">
@@ -9956,7 +9963,7 @@
       <c r="CR50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CS50" s="0" t="s">
+      <c r="CS50" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CS1" activeCellId="0" sqref="CS:CS"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CS13" activeCellId="0" sqref="CS:CS"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.5816326530612"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -661,9 +661,9 @@
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="3" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="97" min="97" style="3" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="98" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="3" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="97" min="97" style="3" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="98" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,6 +4963,9 @@
       <c r="CR23" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CS23" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -5561,6 +5564,9 @@
       <c r="CR26" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CS26" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -6155,6 +6161,9 @@
       </c>
       <c r="CR29" s="15" t="s">
         <v>7</v>
+      </c>
+      <c r="CS29" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8793,6 +8802,9 @@
       </c>
       <c r="CR43" s="15" t="s">
         <v>7</v>
+      </c>
+      <c r="CS43" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CS13" activeCellId="0" sqref="CS:CS"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CT30" activeCellId="0" sqref="CT30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="22.6785714285714"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -661,9 +661,10 @@
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="3" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="97" min="97" style="3" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="98" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="true" max="97" min="96" style="3" width="0"/>
+    <col collapsed="false" hidden="false" max="98" min="98" style="3" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="37.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="100" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,6 +1223,9 @@
       <c r="CS2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT2" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1394,6 +1398,8 @@
         <v>6</v>
       </c>
       <c r="CR3" s="15"/>
+      <c r="CS3" s="0"/>
+      <c r="CT3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1600,6 +1606,9 @@
       <c r="CS4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT4" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1777,6 +1786,8 @@
         <v>6</v>
       </c>
       <c r="CR5" s="15"/>
+      <c r="CS5" s="0"/>
+      <c r="CT5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1967,6 +1978,10 @@
         <v>6</v>
       </c>
       <c r="CR6" s="15"/>
+      <c r="CS6" s="0"/>
+      <c r="CT6" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -2161,6 +2176,10 @@
       <c r="CR7" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS7" s="0"/>
+      <c r="CT7" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -2332,6 +2351,8 @@
         <v>7</v>
       </c>
       <c r="CR8" s="15"/>
+      <c r="CS8" s="0"/>
+      <c r="CT8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="n">
@@ -2502,6 +2523,10 @@
       <c r="CR9" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS9" s="0"/>
+      <c r="CT9" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2662,6 +2687,8 @@
         <v>7</v>
       </c>
       <c r="CR10" s="15"/>
+      <c r="CS10" s="0"/>
+      <c r="CT10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2865,6 +2892,12 @@
       <c r="CR11" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CT11" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -3071,6 +3104,9 @@
       <c r="CS12" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT12" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3261,6 +3297,9 @@
       <c r="CS13" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT13" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -3441,6 +3480,10 @@
       <c r="CR14" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS14" s="0"/>
+      <c r="CT14" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3630,6 +3673,7 @@
       <c r="CS15" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3836,6 +3880,9 @@
       <c r="CS16" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT16" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -4005,6 +4052,8 @@
         <v>7</v>
       </c>
       <c r="CR17" s="15"/>
+      <c r="CS17" s="0"/>
+      <c r="CT17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -4206,6 +4255,9 @@
         <v>6</v>
       </c>
       <c r="CS18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CT18" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4298,6 +4350,7 @@
       <c r="BJ19" s="23"/>
       <c r="CR19" s="23"/>
       <c r="CS19" s="23"/>
+      <c r="CT19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
@@ -4502,6 +4555,9 @@
       <c r="CS20" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT20" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -4678,6 +4734,10 @@
       </c>
       <c r="CR21" s="15" t="s">
         <v>6</v>
+      </c>
+      <c r="CS21" s="0"/>
+      <c r="CT21" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4767,6 +4827,7 @@
       <c r="BJ22" s="23"/>
       <c r="CR22" s="23"/>
       <c r="CS22" s="23"/>
+      <c r="CT22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="n">
@@ -4966,6 +5027,7 @@
       <c r="CS23" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -5172,6 +5234,9 @@
       <c r="CS24" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT24" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -5378,6 +5443,9 @@
       <c r="CS25" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT25" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -5567,6 +5635,7 @@
       <c r="CS26" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -5770,6 +5839,7 @@
       <c r="CS27" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="CT27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -5965,6 +6035,12 @@
       <c r="CR28" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CS28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT28" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -6165,6 +6241,9 @@
       <c r="CS29" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT29" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -6371,6 +6450,9 @@
       <c r="CS30" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT30" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -6577,6 +6659,9 @@
       <c r="CS31" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="CT31" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -6783,6 +6868,9 @@
       <c r="CS32" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="CT32" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -6987,6 +7075,9 @@
       <c r="CS33" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="CT33" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -7165,6 +7256,9 @@
         <v>7</v>
       </c>
       <c r="CS34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT34" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7337,6 +7431,8 @@
         <v>7</v>
       </c>
       <c r="CR35" s="15"/>
+      <c r="CS35" s="0"/>
+      <c r="CT35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -7524,6 +7620,12 @@
       <c r="CR36" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CS36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT36" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -7721,6 +7823,9 @@
       <c r="CS37" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT37" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -7913,6 +8018,9 @@
       <c r="CS38" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="CT38" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -8110,6 +8218,9 @@
       <c r="CS39" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="CT39" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -8292,6 +8403,9 @@
       <c r="CS40" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="CT40" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -8485,6 +8599,9 @@
       <c r="CS41" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT41" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -8618,6 +8735,8 @@
         <v>7</v>
       </c>
       <c r="CR42" s="15"/>
+      <c r="CS42" s="0"/>
+      <c r="CT42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
@@ -8806,6 +8925,7 @@
       <c r="CS43" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="n">
@@ -8980,6 +9100,10 @@
       <c r="CR44" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CS44" s="0"/>
+      <c r="CT44" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -9172,6 +9296,9 @@
       <c r="CS45" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT45" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -9330,6 +9457,8 @@
         <v>6</v>
       </c>
       <c r="CR46" s="15"/>
+      <c r="CS46" s="0"/>
+      <c r="CT46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -9526,6 +9655,9 @@
       <c r="CS47" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CT47" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -9692,6 +9824,9 @@
       </c>
       <c r="CR48" s="15"/>
       <c r="CS48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT48" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9802,6 +9937,7 @@
       <c r="BJ49" s="23"/>
       <c r="CR49" s="23"/>
       <c r="CS49" s="23"/>
+      <c r="CT49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CT30" activeCellId="0" sqref="CT30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CU26" activeCellId="0" sqref="CU:CU"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.0612244897959"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -662,9 +662,9 @@
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="97" min="96" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="98" min="98" style="3" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="37.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="100" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="98" min="98" style="3" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="99" min="99" style="3" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="100" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,6 +1226,9 @@
       <c r="CT2" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU2" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1400,6 +1403,7 @@
       <c r="CR3" s="15"/>
       <c r="CS3" s="0"/>
       <c r="CT3" s="15"/>
+      <c r="CU3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1609,6 +1613,9 @@
       <c r="CT4" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1788,6 +1795,7 @@
       <c r="CR5" s="15"/>
       <c r="CS5" s="0"/>
       <c r="CT5" s="15"/>
+      <c r="CU5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -1982,6 +1990,9 @@
       <c r="CT6" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU6" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -2180,6 +2191,9 @@
       <c r="CT7" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU7" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -2353,6 +2367,7 @@
       <c r="CR8" s="15"/>
       <c r="CS8" s="0"/>
       <c r="CT8" s="15"/>
+      <c r="CU8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="n">
@@ -2527,6 +2542,7 @@
       <c r="CT9" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2689,6 +2705,7 @@
       <c r="CR10" s="15"/>
       <c r="CS10" s="0"/>
       <c r="CT10" s="15"/>
+      <c r="CU10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2898,6 +2915,7 @@
       <c r="CT11" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -3107,6 +3125,9 @@
       <c r="CT12" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU12" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3300,6 +3321,7 @@
       <c r="CT13" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CU13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -3484,6 +3506,7 @@
       <c r="CT14" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3673,7 +3696,12 @@
       <c r="CS15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CT15" s="15"/>
+      <c r="CT15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CU15" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3883,6 +3911,9 @@
       <c r="CT16" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU16" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -4054,6 +4085,7 @@
       <c r="CR17" s="15"/>
       <c r="CS17" s="0"/>
       <c r="CT17" s="15"/>
+      <c r="CU17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -4258,6 +4290,9 @@
         <v>6</v>
       </c>
       <c r="CT18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CU18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4351,6 +4386,7 @@
       <c r="CR19" s="23"/>
       <c r="CS19" s="23"/>
       <c r="CT19" s="23"/>
+      <c r="CU19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
@@ -4558,6 +4594,9 @@
       <c r="CT20" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU20" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -4737,6 +4776,9 @@
       </c>
       <c r="CS21" s="0"/>
       <c r="CT21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU21" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4828,6 +4870,7 @@
       <c r="CR22" s="23"/>
       <c r="CS22" s="23"/>
       <c r="CT22" s="23"/>
+      <c r="CU22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="n">
@@ -5027,7 +5070,12 @@
       <c r="CS23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CT23" s="15"/>
+      <c r="CT23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CU23" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -5237,6 +5285,9 @@
       <c r="CT24" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CU24" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -5446,6 +5497,9 @@
       <c r="CT25" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CU25" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -5636,6 +5690,7 @@
         <v>6</v>
       </c>
       <c r="CT26" s="15"/>
+      <c r="CU26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -5840,6 +5895,9 @@
         <v>7</v>
       </c>
       <c r="CT27" s="15"/>
+      <c r="CU27" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -6041,6 +6099,9 @@
       <c r="CT28" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU28" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -6244,6 +6305,9 @@
       <c r="CT29" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU29" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -6453,6 +6517,9 @@
       <c r="CT30" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU30" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -6662,6 +6729,9 @@
       <c r="CT31" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CU31" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -6871,6 +6941,9 @@
       <c r="CT32" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CU32" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -7078,6 +7151,9 @@
       <c r="CT33" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CU33" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -7260,6 +7336,9 @@
       </c>
       <c r="CT34" s="15" t="s">
         <v>7</v>
+      </c>
+      <c r="CU34" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7433,6 +7512,7 @@
       <c r="CR35" s="15"/>
       <c r="CS35" s="0"/>
       <c r="CT35" s="15"/>
+      <c r="CU35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -7626,6 +7706,9 @@
       <c r="CT36" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU36" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -7826,6 +7909,9 @@
       <c r="CT37" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU37" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -8021,6 +8107,9 @@
       <c r="CT38" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU38" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -8221,6 +8310,9 @@
       <c r="CT39" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU39" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -8406,6 +8498,9 @@
       <c r="CT40" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CU40" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -8602,6 +8697,9 @@
       <c r="CT41" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU41" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -8737,6 +8835,7 @@
       <c r="CR42" s="15"/>
       <c r="CS42" s="0"/>
       <c r="CT42" s="15"/>
+      <c r="CU42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
@@ -8925,7 +9024,12 @@
       <c r="CS43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CT43" s="15"/>
+      <c r="CT43" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CU43" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="n">
@@ -9104,6 +9208,7 @@
       <c r="CT44" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -9299,6 +9404,9 @@
       <c r="CT45" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CU45" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -9459,6 +9567,7 @@
       <c r="CR46" s="15"/>
       <c r="CS46" s="0"/>
       <c r="CT46" s="15"/>
+      <c r="CU46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -9658,6 +9767,9 @@
       <c r="CT47" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CU47" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -9827,6 +9939,9 @@
         <v>7</v>
       </c>
       <c r="CT48" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU48" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9938,6 +10053,7 @@
       <c r="CR49" s="23"/>
       <c r="CS49" s="23"/>
       <c r="CT49" s="23"/>
+      <c r="CU49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="n">
@@ -10112,6 +10228,12 @@
         <v>6</v>
       </c>
       <c r="CS50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CT50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU50" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CU26" activeCellId="0" sqref="CU:CU"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CV18" activeCellId="0" sqref="CV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.6530612244898"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -661,10 +661,9 @@
     <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="true" max="97" min="96" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="98" min="98" style="3" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="99" min="99" style="3" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="100" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="true" max="99" min="96" style="3" width="0"/>
+    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="19.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,6 +1228,9 @@
       <c r="CU2" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CV2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1404,6 +1406,9 @@
       <c r="CS3" s="0"/>
       <c r="CT3" s="15"/>
       <c r="CU3" s="15"/>
+      <c r="CV3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1616,6 +1621,9 @@
       <c r="CU4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CV4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -1796,6 +1804,9 @@
       <c r="CS5" s="0"/>
       <c r="CT5" s="15"/>
       <c r="CU5" s="15"/>
+      <c r="CV5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -2192,6 +2203,9 @@
         <v>6</v>
       </c>
       <c r="CU7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2543,6 +2557,9 @@
         <v>6</v>
       </c>
       <c r="CU9" s="15"/>
+      <c r="CV9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2916,6 +2933,9 @@
         <v>6</v>
       </c>
       <c r="CU11" s="15"/>
+      <c r="CV11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -3128,6 +3148,9 @@
       <c r="CU12" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CV12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3322,6 +3345,9 @@
         <v>7</v>
       </c>
       <c r="CU13" s="15"/>
+      <c r="CV13" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -3507,6 +3533,9 @@
         <v>6</v>
       </c>
       <c r="CU14" s="15"/>
+      <c r="CV14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3702,6 +3731,9 @@
       <c r="CU15" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CV15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3914,6 +3946,9 @@
       <c r="CU16" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CV16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -4086,6 +4121,9 @@
       <c r="CS17" s="0"/>
       <c r="CT17" s="15"/>
       <c r="CU17" s="15"/>
+      <c r="CV17" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -4293,6 +4331,9 @@
         <v>6</v>
       </c>
       <c r="CU18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4597,6 +4638,9 @@
       <c r="CU20" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CV20" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -4780,6 +4824,9 @@
       </c>
       <c r="CU21" s="15" t="s">
         <v>7</v>
+      </c>
+      <c r="CV21" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5076,6 +5123,9 @@
       <c r="CU23" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CV23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -5288,6 +5338,9 @@
       <c r="CU24" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CV24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -5500,6 +5553,9 @@
       <c r="CU25" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CV25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -5691,6 +5747,9 @@
       </c>
       <c r="CT26" s="15"/>
       <c r="CU26" s="15"/>
+      <c r="CV26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -5898,6 +5957,9 @@
       <c r="CU27" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CV27" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -6102,6 +6164,9 @@
       <c r="CU28" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CV28" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -6308,6 +6373,9 @@
       <c r="CU29" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CV29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -6520,6 +6588,9 @@
       <c r="CU30" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CV30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -6732,6 +6803,9 @@
       <c r="CU31" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CV31" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -6944,6 +7018,9 @@
       <c r="CU32" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CV32" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -7154,6 +7231,9 @@
       <c r="CU33" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CV33" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -7338,6 +7418,9 @@
         <v>7</v>
       </c>
       <c r="CU34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV34" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7709,6 +7792,9 @@
       <c r="CU36" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CV36" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -7912,6 +7998,9 @@
       <c r="CU37" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CV37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -8501,6 +8590,9 @@
       <c r="CU40" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CV40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -8698,6 +8790,9 @@
         <v>6</v>
       </c>
       <c r="CU41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV41" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9030,6 +9125,9 @@
       <c r="CU43" s="15" t="s">
         <v>6</v>
       </c>
+      <c r="CV43" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="n">
@@ -9209,6 +9307,9 @@
         <v>6</v>
       </c>
       <c r="CU44" s="15"/>
+      <c r="CV44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -9406,6 +9507,9 @@
       </c>
       <c r="CU45" s="15" t="s">
         <v>7</v>
+      </c>
+      <c r="CV45" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9768,6 +9872,9 @@
         <v>6</v>
       </c>
       <c r="CU47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV47" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10236,6 +10343,9 @@
       <c r="CU50" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CV50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -10347,6 +10457,9 @@
         <v>6</v>
       </c>
       <c r="CM51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV51" s="0" t="s">
         <v>6</v>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CV18" activeCellId="0" sqref="CV18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CV42" activeCellId="0" sqref="CV42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.3826530612245"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -662,8 +662,8 @@
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="99" min="96" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="19.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,6 +2003,9 @@
       </c>
       <c r="CU6" s="15" t="s">
         <v>7</v>
+      </c>
+      <c r="CV6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8199,6 +8202,9 @@
       <c r="CU38" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="CV38" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -8401,6 +8407,9 @@
       </c>
       <c r="CU39" s="15" t="s">
         <v>7</v>
+      </c>
+      <c r="CV39" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10050,6 +10059,9 @@
       </c>
       <c r="CU48" s="15" t="s">
         <v>7</v>
+      </c>
+      <c r="CV48" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="49" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CV42" activeCellId="0" sqref="CV42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CZ50" activeCellId="0" sqref="CZ50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.5714285714286"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -662,8 +662,9 @@
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="99" min="96" style="3" width="0"/>
-    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="true" max="103" min="100" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="43.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="105" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,6 +1232,12 @@
       <c r="CV2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CY2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1409,6 +1416,9 @@
       <c r="CV3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ3" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1622,6 +1632,12 @@
         <v>6</v>
       </c>
       <c r="CV4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CY4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1807,6 +1823,9 @@
       <c r="CV5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ5" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -2007,6 +2026,12 @@
       <c r="CV6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CY6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ6" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -2210,6 +2235,9 @@
       </c>
       <c r="CV7" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CZ7" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,6 +2413,9 @@
       <c r="CS8" s="0"/>
       <c r="CT8" s="15"/>
       <c r="CU8" s="15"/>
+      <c r="CZ8" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="n">
@@ -2563,6 +2594,12 @@
       <c r="CV9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CY9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2726,6 +2763,9 @@
       <c r="CS10" s="0"/>
       <c r="CT10" s="15"/>
       <c r="CU10" s="15"/>
+      <c r="CZ10" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2939,6 +2979,9 @@
       <c r="CV11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ11" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -3154,6 +3197,12 @@
       <c r="CV12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CY12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3351,6 +3400,9 @@
       <c r="CV13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ13" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -3539,6 +3591,9 @@
       <c r="CV14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ14" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3737,6 +3792,12 @@
       <c r="CV15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CY15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ15" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -3950,6 +4011,12 @@
         <v>6</v>
       </c>
       <c r="CV16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CY16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ16" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4127,6 +4194,9 @@
       <c r="CV17" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ17" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -4337,6 +4407,12 @@
         <v>6</v>
       </c>
       <c r="CV18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CY18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4644,6 +4720,12 @@
       <c r="CV20" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CY20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ20" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -4830,6 +4912,9 @@
       </c>
       <c r="CV21" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CZ21" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5129,6 +5214,9 @@
       <c r="CV23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ23" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -5344,6 +5432,9 @@
       <c r="CV24" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ24" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -5559,6 +5650,9 @@
       <c r="CV25" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ25" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -5753,6 +5847,9 @@
       <c r="CV26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -5963,6 +6060,12 @@
       <c r="CV27" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CY27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ27" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -6170,6 +6273,9 @@
       <c r="CV28" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ28" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -6379,6 +6485,9 @@
       <c r="CV29" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ29" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -6594,6 +6703,12 @@
       <c r="CV30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CY30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ30" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -6809,6 +6924,12 @@
       <c r="CV31" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CY31" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -7024,6 +7145,12 @@
       <c r="CV32" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CY32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ32" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -7237,6 +7364,12 @@
       <c r="CV33" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CY33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ33" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -7425,6 +7558,9 @@
       </c>
       <c r="CV34" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CZ34" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7599,6 +7735,12 @@
       <c r="CS35" s="0"/>
       <c r="CT35" s="15"/>
       <c r="CU35" s="15"/>
+      <c r="CY35" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ35" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -7798,6 +7940,9 @@
       <c r="CV36" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ36" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -8004,6 +8149,9 @@
       <c r="CV37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ37" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -8205,6 +8353,9 @@
       <c r="CV38" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -8411,6 +8562,9 @@
       <c r="CV39" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ39" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -8602,6 +8756,9 @@
       <c r="CV40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -8804,6 +8961,12 @@
       <c r="CV41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CY41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ41" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -8940,6 +9103,9 @@
       <c r="CS42" s="0"/>
       <c r="CT42" s="15"/>
       <c r="CU42" s="15"/>
+      <c r="CZ42" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
@@ -9136,6 +9302,9 @@
       </c>
       <c r="CV43" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CZ43" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9319,6 +9488,12 @@
       <c r="CV44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CY44" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -9520,6 +9695,9 @@
       <c r="CV45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -9681,6 +9859,9 @@
       <c r="CS46" s="0"/>
       <c r="CT46" s="15"/>
       <c r="CU46" s="15"/>
+      <c r="CZ46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -9886,6 +10067,12 @@
       <c r="CV47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CY47" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ47" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -10062,6 +10249,9 @@
       </c>
       <c r="CV48" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CZ48" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="49" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10358,6 +10548,9 @@
       <c r="CV50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CZ50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -10473,6 +10666,9 @@
       </c>
       <c r="CV51" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="CZ51" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CZ50" activeCellId="0" sqref="CZ50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.3061224489796"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -663,8 +663,9 @@
     <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="99" min="96" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="103" min="100" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="43.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="105" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="42.9285714285714"/>
+    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="106" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,6 +1239,9 @@
       <c r="CZ2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1419,6 +1423,9 @@
       <c r="CZ3" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA3" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1638,6 +1645,9 @@
         <v>6</v>
       </c>
       <c r="CZ4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DA4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1826,6 +1836,9 @@
       <c r="CZ5" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA5" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -2032,6 +2045,9 @@
       <c r="CZ6" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA6" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -2238,6 +2254,9 @@
       </c>
       <c r="CZ7" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="DA7" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,6 +3222,9 @@
       <c r="CZ12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DA12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3594,6 +3616,9 @@
       <c r="CZ14" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3796,6 +3821,9 @@
         <v>6</v>
       </c>
       <c r="CZ15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="DA15" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4413,6 +4441,9 @@
         <v>6</v>
       </c>
       <c r="CZ18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DA18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4726,6 +4757,9 @@
       <c r="CZ20" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DA20" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -4914,6 +4948,9 @@
         <v>6</v>
       </c>
       <c r="CZ21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="DA21" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5435,6 +5472,9 @@
       <c r="CZ24" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -5653,6 +5693,9 @@
       <c r="CZ25" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -6066,6 +6109,9 @@
       <c r="CZ27" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DA27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -6709,6 +6755,9 @@
       <c r="CZ30" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -6930,6 +6979,9 @@
       <c r="CZ31" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -7151,6 +7203,9 @@
       <c r="CZ32" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA32" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -7370,6 +7425,9 @@
       <c r="CZ33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA33" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -7561,6 +7619,9 @@
       </c>
       <c r="CZ34" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="DA34" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8152,6 +8213,9 @@
       <c r="CZ37" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA37" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -8759,6 +8823,9 @@
       <c r="CZ40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DA40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -8965,6 +9032,9 @@
         <v>6</v>
       </c>
       <c r="CZ41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DA41" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9494,6 +9564,9 @@
       <c r="CZ44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DA44" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -9696,6 +9769,9 @@
         <v>6</v>
       </c>
       <c r="CZ45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DA45" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10551,6 +10627,9 @@
       <c r="CZ50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DA50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -640,13 +640,13 @@
   <dimension ref="A1:DQ51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="DA11" activeCellId="0" sqref="DA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.8877551020408"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -663,9 +663,9 @@
     <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="99" min="96" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="103" min="100" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="42.9285714285714"/>
-    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="106" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="28.25"/>
+    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,6 +1242,9 @@
       <c r="DA2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DB2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -2048,6 +2051,9 @@
       <c r="DA6" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DB6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -2256,6 +2262,9 @@
         <v>7</v>
       </c>
       <c r="DA7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DB7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2619,6 +2628,9 @@
       <c r="CZ9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DB9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -3001,6 +3013,12 @@
       <c r="CZ11" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DB11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -3225,6 +3243,9 @@
       <c r="DA12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DB12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3619,6 +3640,9 @@
       <c r="DA14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DB14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -4045,6 +4069,9 @@
         <v>6</v>
       </c>
       <c r="CZ16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DB16" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4444,6 +4471,9 @@
         <v>6</v>
       </c>
       <c r="DA18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DB18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4758,6 +4788,9 @@
         <v>6</v>
       </c>
       <c r="DA20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DB20" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5254,6 +5287,12 @@
       <c r="CZ23" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB23" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -5475,6 +5514,9 @@
       <c r="DA24" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DB24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -5696,6 +5738,9 @@
       <c r="DA25" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DB25" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -5893,6 +5938,12 @@
       <c r="CZ26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DA26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB26" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -6112,6 +6163,9 @@
       <c r="DA27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DB27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -6322,6 +6376,12 @@
       <c r="CZ28" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB28" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -6534,6 +6594,12 @@
       <c r="CZ29" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB29" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -6982,6 +7048,9 @@
       <c r="DA31" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DB31" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -7206,6 +7275,9 @@
       <c r="DA32" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DB32" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -7428,6 +7500,9 @@
       <c r="DA33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DB33" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -7621,6 +7696,9 @@
         <v>7</v>
       </c>
       <c r="DA34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DB34" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8004,6 +8082,12 @@
       <c r="CZ36" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DA36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB36" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -8826,6 +8910,9 @@
       <c r="DA40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DB40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -9035,6 +9122,9 @@
         <v>6</v>
       </c>
       <c r="DA41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DB41" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9374,6 +9464,12 @@
         <v>6</v>
       </c>
       <c r="CZ43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="DA43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB43" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9567,6 +9663,9 @@
       <c r="DA44" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DB44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -9773,6 +9872,9 @@
       </c>
       <c r="DA45" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="DB45" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10630,6 +10732,9 @@
       <c r="DA50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DB50" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -640,13 +640,13 @@
   <dimension ref="A1:DQ51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DA11" activeCellId="0" sqref="DA11"/>
+      <selection pane="topLeft" activeCell="DF13" activeCellId="0" sqref="DF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.8877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.2397959183673"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -662,10 +662,9 @@
     <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="99" min="96" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="103" min="100" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="28.25"/>
-    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="27"/>
+    <col collapsed="false" hidden="true" max="109" min="100" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="29.5612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="111" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,6 +1244,9 @@
       <c r="DB2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DF2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1429,6 +1431,9 @@
       <c r="DA3" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DF3" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1842,6 +1847,9 @@
       <c r="DA5" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DF5" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -2265,6 +2273,9 @@
         <v>6</v>
       </c>
       <c r="DB7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DF7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2631,6 +2642,9 @@
       <c r="DB9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DF9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -3019,6 +3033,9 @@
       <c r="DB11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DF11" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -3246,6 +3263,9 @@
       <c r="DB12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DF12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3641,6 +3661,9 @@
         <v>6</v>
       </c>
       <c r="DB14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DF14" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4791,6 +4814,9 @@
         <v>6</v>
       </c>
       <c r="DB20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DF20" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5517,6 +5543,9 @@
       <c r="DB24" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DF24" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -5741,6 +5770,9 @@
       <c r="DB25" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DF25" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -6166,6 +6198,9 @@
       <c r="DB27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DF27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -6824,6 +6859,9 @@
       <c r="DA30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DF30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -7051,6 +7089,9 @@
       <c r="DB31" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DF31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -7278,6 +7319,9 @@
       <c r="DB32" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DF32" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -7699,6 +7743,9 @@
         <v>6</v>
       </c>
       <c r="DB34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DF34" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7880,6 +7927,9 @@
       <c r="CZ35" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DF35" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -8300,6 +8350,9 @@
       <c r="DA37" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DF37" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -8913,6 +8966,9 @@
       <c r="DB40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DF40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -9125,6 +9181,9 @@
         <v>6</v>
       </c>
       <c r="DB41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DF41" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9666,6 +9725,9 @@
       <c r="DB44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DF44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -9874,6 +9936,9 @@
         <v>6</v>
       </c>
       <c r="DB45" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="DF45" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10735,6 +10800,9 @@
       <c r="DB50" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DF50" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3030" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,14 +639,14 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DF13" activeCellId="0" sqref="DF13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DH52" activeCellId="0" sqref="DH52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.8316326530612"/>
     <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
@@ -663,8 +663,8 @@
     <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="99" min="96" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="109" min="100" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="29.5612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="111" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="111" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,6 +1247,9 @@
       <c r="DF2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DH2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -1434,6 +1437,9 @@
       <c r="DF3" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -1656,6 +1662,9 @@
         <v>6</v>
       </c>
       <c r="DA4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DH4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1850,6 +1859,9 @@
       <c r="DF5" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -2062,6 +2074,9 @@
       <c r="DB6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DH6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -2276,6 +2291,9 @@
         <v>6</v>
       </c>
       <c r="DF7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DH7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2645,6 +2663,9 @@
       <c r="DF9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DH9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -3036,6 +3057,9 @@
       <c r="DF11" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -3266,6 +3290,9 @@
       <c r="DF12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DH12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3873,6 +3900,9 @@
       <c r="DA15" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -4095,6 +4125,9 @@
         <v>6</v>
       </c>
       <c r="DB16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DH16" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4497,6 +4530,9 @@
         <v>6</v>
       </c>
       <c r="DB18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DH18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4817,6 +4853,9 @@
         <v>6</v>
       </c>
       <c r="DF20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DH20" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5319,6 +5358,9 @@
       <c r="DB23" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH23" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -5546,6 +5588,9 @@
       <c r="DF24" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH24" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -5773,6 +5818,9 @@
       <c r="DF25" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH25" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -5976,6 +6024,9 @@
       <c r="DB26" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH26" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -6201,6 +6252,9 @@
       <c r="DF27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH27" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -6417,6 +6471,9 @@
       <c r="DB28" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH28" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -6635,6 +6692,9 @@
       <c r="DB29" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH29" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -6862,6 +6922,9 @@
       <c r="DF30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DH30" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -7092,6 +7155,9 @@
       <c r="DF31" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH31" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -7322,6 +7388,9 @@
       <c r="DF32" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH32" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -7547,6 +7616,9 @@
       <c r="DB33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH33" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -7746,6 +7818,9 @@
         <v>6</v>
       </c>
       <c r="DF34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DH34" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7930,6 +8005,9 @@
       <c r="DF35" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DH35" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -8138,6 +8216,9 @@
       <c r="DB36" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH36" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -8353,6 +8434,9 @@
       <c r="DF37" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH37" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -8557,6 +8641,9 @@
       <c r="CZ38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH38" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -8766,6 +8853,9 @@
       <c r="CZ39" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH39" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -8969,6 +9059,9 @@
       <c r="DF40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DH40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -9184,6 +9277,9 @@
         <v>6</v>
       </c>
       <c r="DF41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="DH41" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9325,6 +9421,9 @@
       <c r="CZ42" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH42" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
@@ -9529,6 +9628,9 @@
         <v>7</v>
       </c>
       <c r="DB43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH43" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9728,6 +9830,9 @@
       <c r="DF44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DH44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -9941,6 +10046,9 @@
       <c r="DF45" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -10105,6 +10213,9 @@
       <c r="CZ46" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH46" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -10316,6 +10427,9 @@
       <c r="CZ47" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -10494,6 +10608,9 @@
         <v>6</v>
       </c>
       <c r="CZ48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH48" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10803,6 +10920,9 @@
       <c r="DF50" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DH50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -10921,6 +11041,9 @@
       </c>
       <c r="CZ51" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="DH51" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3030" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,32 +639,40 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DH52" activeCellId="0" sqref="DH52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO12" activeCellId="0" sqref="AO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="true" max="1" min="1" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.8316326530612"/>
-    <col collapsed="false" hidden="true" max="4" min="3" style="1" width="0"/>
-    <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
-    <col collapsed="false" hidden="true" max="43" min="40" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="46" min="44" style="0" width="0"/>
-    <col collapsed="false" hidden="true" max="47" min="47" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="49" min="48" style="0" width="0"/>
-    <col collapsed="false" hidden="true" max="51" min="50" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="52" min="52" style="4" width="0"/>
-    <col collapsed="false" hidden="true" max="55" min="53" style="0" width="0"/>
-    <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
-    <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
-    <col collapsed="false" hidden="true" max="99" min="96" style="3" width="0"/>
-    <col collapsed="false" hidden="true" max="109" min="100" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="111" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="35" min="5" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="39" min="36" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="43" min="40" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="49" min="48" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="51" min="50" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="4" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="55" min="53" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="60" min="57" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="62" min="61" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="81" min="63" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="30.984693877551"/>
+    <col collapsed="false" hidden="false" max="85" min="83" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="26.1173469387755"/>
+    <col collapsed="false" hidden="false" max="95" min="87" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="99" min="96" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="102" min="100" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="27.5102040816327"/>
+    <col collapsed="false" hidden="false" max="106" min="104" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="107" min="107" style="0" width="35.9795918367347"/>
+    <col collapsed="false" hidden="false" max="109" min="108" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="14.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,7 +1040,7 @@
         <v>42902</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
@@ -1251,7 +1259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
@@ -1441,7 +1449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
@@ -1668,7 +1676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
@@ -1863,7 +1871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
@@ -2078,7 +2086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
@@ -2297,7 +2305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
@@ -2474,7 +2482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
@@ -2667,7 +2675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
@@ -2924,13 +2932,13 @@
         <v>6</v>
       </c>
       <c r="AK11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP11" s="3" t="s">
         <v>6</v>
@@ -2994,7 +3002,7 @@
         <v>6</v>
       </c>
       <c r="BX11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BY11" s="0" t="s">
         <v>6</v>
@@ -3015,10 +3023,13 @@
         <v>6</v>
       </c>
       <c r="CG11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="CH11" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="CK11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CL11" s="0" t="s">
         <v>6</v>
@@ -3041,12 +3052,17 @@
       <c r="CT11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CU11" s="15"/>
+      <c r="CU11" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="CV11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CY11" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="CZ11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DA11" s="0" t="s">
         <v>6</v>
@@ -3245,6 +3261,9 @@
       <c r="CG12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="CH12" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="CK12" s="0" t="s">
         <v>6</v>
       </c>
@@ -3294,7 +3313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
         <v>12</v>
       </c>
@@ -3494,7 +3513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
         <v>13</v>
       </c>
@@ -3694,7 +3713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
         <v>14</v>
       </c>
@@ -3904,7 +3923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
         <v>15</v>
       </c>
@@ -4131,7 +4150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
         <v>16</v>
       </c>
@@ -4309,7 +4328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
         <v>17</v>
       </c>
@@ -4536,7 +4555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="22" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="n">
         <v>18</v>
       </c>
@@ -4628,7 +4647,7 @@
       <c r="CT19" s="23"/>
       <c r="CU19" s="23"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
         <v>19</v>
       </c>
@@ -4859,7 +4878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
         <v>20</v>
       </c>
@@ -5052,7 +5071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="22" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="n">
         <v>21</v>
       </c>
@@ -5142,7 +5161,7 @@
       <c r="CT22" s="23"/>
       <c r="CU22" s="23"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="n">
         <v>22</v>
       </c>
@@ -5362,7 +5381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
         <v>23</v>
       </c>
@@ -5592,7 +5611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
         <v>24</v>
       </c>
@@ -5822,7 +5841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
         <v>25</v>
       </c>
@@ -6028,7 +6047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
         <v>26</v>
       </c>
@@ -6256,7 +6275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
         <v>27</v>
       </c>
@@ -6475,7 +6494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
         <v>28</v>
       </c>
@@ -6696,7 +6715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
         <v>29</v>
       </c>
@@ -6926,7 +6945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
         <v>30</v>
       </c>
@@ -7159,7 +7178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
         <v>31</v>
       </c>
@@ -7392,7 +7411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
         <v>32</v>
       </c>
@@ -7620,7 +7639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
         <v>33</v>
       </c>
@@ -7824,7 +7843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="n">
         <v>34</v>
       </c>
@@ -8009,7 +8028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
         <v>35</v>
       </c>
@@ -8220,7 +8239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
         <v>36</v>
       </c>
@@ -8438,7 +8457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
         <v>37</v>
       </c>
@@ -8645,7 +8664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
         <v>38</v>
       </c>
@@ -8857,7 +8876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
         <v>39</v>
       </c>
@@ -9063,7 +9082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
         <v>40</v>
       </c>
@@ -9283,7 +9302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
         <v>41</v>
       </c>
@@ -9425,7 +9444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
         <v>42</v>
       </c>
@@ -9634,7 +9653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="n">
         <v>43</v>
       </c>
@@ -9834,7 +9853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
         <v>44</v>
       </c>
@@ -10050,7 +10069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
         <v>45</v>
       </c>
@@ -10217,7 +10236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
         <v>46</v>
       </c>
@@ -10431,7 +10450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
         <v>47</v>
       </c>
@@ -10614,7 +10633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="22" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="17" t="n">
         <v>48</v>
       </c>
@@ -10724,7 +10743,7 @@
       <c r="CT49" s="23"/>
       <c r="CU49" s="23"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="n">
         <v>49</v>
       </c>
@@ -10924,7 +10943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
         <v>50</v>
       </c>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -639,40 +639,32 @@
   </sheetPr>
   <dimension ref="A1:DQ51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO12" activeCellId="0" sqref="AO12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DI1" activeCellId="0" sqref="DI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="35" min="5" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="39" min="36" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="43" min="40" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="49" min="48" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="51" min="50" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="4" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="55" min="53" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="60" min="57" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="62" min="61" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="81" min="63" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="30.984693877551"/>
-    <col collapsed="false" hidden="false" max="85" min="83" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="26.1173469387755"/>
-    <col collapsed="false" hidden="false" max="95" min="87" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="99" min="96" style="3" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="102" min="100" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="27.5102040816327"/>
-    <col collapsed="false" hidden="false" max="106" min="104" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="107" min="107" style="0" width="35.9795918367347"/>
-    <col collapsed="false" hidden="false" max="109" min="108" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="14.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
+    <col collapsed="false" hidden="true" max="43" min="40" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="46" min="44" style="0" width="0"/>
+    <col collapsed="false" hidden="true" max="47" min="47" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="49" min="48" style="0" width="0"/>
+    <col collapsed="false" hidden="true" max="51" min="50" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="52" min="52" style="4" width="0"/>
+    <col collapsed="false" hidden="true" max="55" min="53" style="0" width="0"/>
+    <col collapsed="false" hidden="true" max="56" min="56" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="60" min="57" style="0" width="0"/>
+    <col collapsed="false" hidden="true" max="62" min="61" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
+    <col collapsed="false" hidden="true" max="99" min="96" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="112" min="100" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="44.1785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="114" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,7 +1032,7 @@
         <v>42902</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
@@ -1258,8 +1250,11 @@
       <c r="DH2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
@@ -1448,8 +1443,11 @@
       <c r="DH3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
@@ -1675,8 +1673,11 @@
       <c r="DH4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
@@ -1870,8 +1871,11 @@
       <c r="DH5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
@@ -2085,8 +2089,11 @@
       <c r="DH6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
@@ -2304,8 +2311,11 @@
       <c r="DH7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI7" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
@@ -2482,7 +2492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
@@ -2674,8 +2684,11 @@
       <c r="DH9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
@@ -3076,6 +3089,9 @@
       <c r="DH11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -3312,8 +3328,11 @@
       <c r="DH12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
         <v>12</v>
       </c>
@@ -3513,7 +3532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
         <v>13</v>
       </c>
@@ -3712,8 +3731,11 @@
       <c r="DF14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
         <v>14</v>
       </c>
@@ -3922,8 +3944,11 @@
       <c r="DH15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
         <v>15</v>
       </c>
@@ -4149,8 +4174,11 @@
       <c r="DH16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI16" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
         <v>16</v>
       </c>
@@ -4328,7 +4356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
         <v>17</v>
       </c>
@@ -4554,8 +4582,11 @@
       <c r="DH18" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI18" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" s="22" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="n">
         <v>18</v>
       </c>
@@ -4647,7 +4678,7 @@
       <c r="CT19" s="23"/>
       <c r="CU19" s="23"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
         <v>19</v>
       </c>
@@ -4877,8 +4908,11 @@
       <c r="DH20" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI20" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
         <v>20</v>
       </c>
@@ -5070,8 +5104,11 @@
       <c r="DA21" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI21" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="22" s="22" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="n">
         <v>21</v>
       </c>
@@ -5161,7 +5198,7 @@
       <c r="CT22" s="23"/>
       <c r="CU22" s="23"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="n">
         <v>22</v>
       </c>
@@ -5380,8 +5417,11 @@
       <c r="DH23" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
         <v>23</v>
       </c>
@@ -5610,8 +5650,11 @@
       <c r="DH24" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI24" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
         <v>24</v>
       </c>
@@ -5840,8 +5883,11 @@
       <c r="DH25" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI25" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
         <v>25</v>
       </c>
@@ -6047,7 +6093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
         <v>26</v>
       </c>
@@ -6274,8 +6320,11 @@
       <c r="DH27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI27" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
         <v>27</v>
       </c>
@@ -6493,8 +6542,11 @@
       <c r="DH28" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI28" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
         <v>28</v>
       </c>
@@ -6714,8 +6766,11 @@
       <c r="DH29" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI29" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
         <v>29</v>
       </c>
@@ -6944,8 +6999,11 @@
       <c r="DH30" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI30" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
         <v>30</v>
       </c>
@@ -7177,8 +7235,11 @@
       <c r="DH31" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI31" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
         <v>31</v>
       </c>
@@ -7410,8 +7471,11 @@
       <c r="DH32" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI32" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
         <v>32</v>
       </c>
@@ -7638,8 +7702,11 @@
       <c r="DH33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI33" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
         <v>33</v>
       </c>
@@ -7842,8 +7909,11 @@
       <c r="DH34" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI34" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="n">
         <v>34</v>
       </c>
@@ -8028,7 +8098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
         <v>35</v>
       </c>
@@ -8238,8 +8308,11 @@
       <c r="DH36" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI36" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
         <v>36</v>
       </c>
@@ -8456,8 +8529,11 @@
       <c r="DH37" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI37" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
         <v>37</v>
       </c>
@@ -8663,8 +8739,11 @@
       <c r="DH38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI38" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
         <v>38</v>
       </c>
@@ -8875,8 +8954,11 @@
       <c r="DH39" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI39" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
         <v>39</v>
       </c>
@@ -9081,8 +9163,11 @@
       <c r="DH40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI40" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
         <v>40</v>
       </c>
@@ -9301,8 +9386,11 @@
       <c r="DH41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI41" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
         <v>41</v>
       </c>
@@ -9444,7 +9532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
         <v>42</v>
       </c>
@@ -9653,7 +9741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="n">
         <v>43</v>
       </c>
@@ -9852,8 +9940,11 @@
       <c r="DH44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI44" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
         <v>44</v>
       </c>
@@ -10068,8 +10159,11 @@
       <c r="DH45" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI45" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
         <v>45</v>
       </c>
@@ -10236,7 +10330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
         <v>46</v>
       </c>
@@ -10449,8 +10543,11 @@
       <c r="DH47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI47" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
         <v>47</v>
       </c>
@@ -10632,8 +10729,11 @@
       <c r="DH48" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DI48" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="49" s="22" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="17" t="n">
         <v>48</v>
       </c>
@@ -10743,7 +10843,7 @@
       <c r="CT49" s="23"/>
       <c r="CU49" s="23"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="n">
         <v>49</v>
       </c>
@@ -10942,8 +11042,11 @@
       <c r="DH50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DI50" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
         <v>50</v>
       </c>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3111" uniqueCount="78">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Leave</t>
   </si>
   <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yousra Ali</t>
   </si>
   <si>
@@ -62,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">Shahrukh Karim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
   </si>
   <si>
     <t xml:space="preserve">Sarang IShaque</t>
@@ -640,14 +640,14 @@
   <dimension ref="A1:DQ51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DI1" activeCellId="0" sqref="DI1"/>
+      <selection pane="topLeft" activeCell="DM1" activeCellId="0" sqref="DM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="11.0714285714286"/>
     <col collapsed="false" hidden="true" max="35" min="5" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="39" min="36" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="43" min="40" style="3" width="0"/>
@@ -663,8 +663,10 @@
     <col collapsed="false" hidden="true" max="95" min="63" style="0" width="0"/>
     <col collapsed="false" hidden="true" max="99" min="96" style="3" width="0"/>
     <col collapsed="false" hidden="true" max="112" min="100" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="44.1785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="114" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="43.6020408163265"/>
+    <col collapsed="false" hidden="true" max="116" min="114" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="117" min="117" style="0" width="30.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="118" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,13 +1255,16 @@
       <c r="DI2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM2" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="13" t="n">
         <v>4220160434966</v>
@@ -1446,13 +1451,16 @@
       <c r="DI3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM3" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>4220117993627</v>
@@ -1682,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="13" t="n">
         <v>4250152650691</v>
@@ -1874,13 +1882,16 @@
       <c r="DI5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM5" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="13" t="n">
         <v>4230114514614</v>
@@ -2092,13 +2103,16 @@
       <c r="DI6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM6" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="13" t="n">
         <v>4230122103742</v>
@@ -2314,13 +2328,16 @@
       <c r="DI7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM7" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="13" t="n">
         <v>4210162448237</v>
@@ -2352,7 +2369,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>6</v>
@@ -2687,6 +2704,9 @@
       <c r="DI9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM9" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -2853,6 +2873,9 @@
       <c r="CZ10" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DM10" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
@@ -2914,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="X11" s="0"/>
       <c r="Y11" s="0"/>
@@ -3091,6 +3114,9 @@
       </c>
       <c r="DI11" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="DM11" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,6 +3357,9 @@
       <c r="DI12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM12" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
@@ -3531,6 +3560,9 @@
       <c r="CZ13" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DM13" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -3734,6 +3766,9 @@
       <c r="DI14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM14" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -3947,6 +3982,9 @@
       <c r="DI15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM15" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -4176,6 +4214,9 @@
       </c>
       <c r="DI16" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="DM16" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,6 +4625,9 @@
       </c>
       <c r="DI18" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="DM18" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4911,6 +4955,9 @@
       <c r="DI20" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM20" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -5106,6 +5153,9 @@
       </c>
       <c r="DI21" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="DM21" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5420,6 +5470,9 @@
       <c r="DI23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM23" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -5886,6 +5939,9 @@
       <c r="DI25" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DM25" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -6092,6 +6148,9 @@
       <c r="DH26" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="DM26" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -6323,6 +6382,9 @@
       <c r="DI27" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM27" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -6545,6 +6607,9 @@
       <c r="DI28" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM28" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -6769,6 +6834,9 @@
       <c r="DI29" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM29" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -7002,6 +7070,9 @@
       <c r="DI30" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM30" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -7238,6 +7309,9 @@
       <c r="DI31" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM31" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -7474,6 +7548,9 @@
       <c r="DI32" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM32" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="n">
@@ -7705,6 +7782,9 @@
       <c r="DI33" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM33" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -7911,6 +7991,9 @@
       </c>
       <c r="DI34" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="DM34" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8097,6 +8180,9 @@
       <c r="DH35" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM35" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="n">
@@ -8311,6 +8397,9 @@
       <c r="DI36" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM36" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="n">
@@ -8532,6 +8621,9 @@
       <c r="DI37" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM37" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="n">
@@ -8742,6 +8834,9 @@
       <c r="DI38" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM38" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="n">
@@ -8957,6 +9052,9 @@
       <c r="DI39" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM39" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -9166,6 +9264,9 @@
       <c r="DI40" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM40" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -9388,6 +9489,9 @@
       </c>
       <c r="DI41" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="DM41" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9739,6 +9843,9 @@
       </c>
       <c r="DH43" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="DM43" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9943,6 +10050,9 @@
       <c r="DI44" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM44" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -10546,6 +10656,9 @@
       <c r="DI47" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM47" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -10731,6 +10844,9 @@
       </c>
       <c r="DI48" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="DM48" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11045,6 +11161,9 @@
       <c r="DI50" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="DM50" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -11166,6 +11285,9 @@
       </c>
       <c r="DH51" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="DM51" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
